--- a/Backend/consolidated_search_results.xlsx
+++ b/Backend/consolidated_search_results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="370">
   <si>
     <t>Source Database</t>
   </si>
@@ -226,114 +226,57 @@
     <t>… Cancer cells deviate from normal body cells in two … -associated antigens can lead to cancer regression, at present we … Here, we describe how recent developments in cancer genomics …</t>
   </si>
   <si>
-    <t>COMPOSITIONS AND METHODS FOR TREATING CANCER</t>
-  </si>
-  <si>
-    <t>Cancer Res Cpn Tech Ltd</t>
-  </si>
-  <si>
-    <t>CANCERI; Adam</t>
-  </si>
-  <si>
-    <t>Treatment of Cancer Using Chimeric A</t>
-  </si>
-  <si>
     <t>20151426752</t>
   </si>
   <si>
-    <t>Progastrine et Cancers S.a.r.l.</t>
-  </si>
-  <si>
     <t>173053828</t>
   </si>
   <si>
     <t>20190389961</t>
   </si>
   <si>
-    <t>COMBINED CANCERTREATMENT METHODS USING ANTIBODIES</t>
-  </si>
-  <si>
     <t>20030082187</t>
   </si>
   <si>
     <t>20170330237</t>
   </si>
   <si>
-    <t>Dana Farber Cancer Inst</t>
-  </si>
-  <si>
     <t>04700</t>
   </si>
   <si>
-    <t>Ludwig Inst. Cancer Res.</t>
-  </si>
-  <si>
     <t>0175179</t>
   </si>
   <si>
-    <t>REVELLES MIGUEL CANCER</t>
-  </si>
-  <si>
     <t>2396847</t>
   </si>
   <si>
-    <t>TREATMENT OF PROSTATE CANCER</t>
-  </si>
-  <si>
     <t>9156878</t>
   </si>
   <si>
-    <t>Cancer Research Technolog</t>
-  </si>
-  <si>
     <t>20050123052</t>
   </si>
   <si>
-    <t>BREAST CANCER TREATMENT WITH TAXANE THERAPY</t>
-  </si>
-  <si>
     <t>20160160293</t>
   </si>
   <si>
-    <t>Cancer Inst Chinese Acad</t>
-  </si>
-  <si>
     <t>101497662</t>
   </si>
   <si>
-    <t>Methods for treating cancer</t>
-  </si>
-  <si>
     <t>11819480</t>
   </si>
   <si>
-    <t>Methods for cancer and immunotherapy using prodrug</t>
-  </si>
-  <si>
     <t>201802213951</t>
   </si>
   <si>
-    <t>Combination therapy for treating cancer</t>
-  </si>
-  <si>
     <t>11642346</t>
   </si>
   <si>
-    <t>COMPOSITION FOR TREATING CANCER AND USE AND MEDICA</t>
-  </si>
-  <si>
     <t>17292835</t>
   </si>
   <si>
-    <t>COMBINATION THERAPY FOR TREATING CANCER</t>
-  </si>
-  <si>
     <t>20220281854</t>
   </si>
   <si>
-    <t>Cancer Abreu et al.</t>
-  </si>
-  <si>
     <t>20120058757</t>
   </si>
   <si>
@@ -343,70 +286,841 @@
     <t>11452727</t>
   </si>
   <si>
-    <t>COMBINATION THERAPES FOR TREATMENT OF CANCER</t>
-  </si>
-  <si>
     <t>20160166571</t>
   </si>
   <si>
-    <t>COMPOUNDS FOR TREATMENT OF CANCER</t>
-  </si>
-  <si>
     <t>17596988</t>
   </si>
   <si>
-    <t>Gene Expression Profiles to Predict Breast Cancer</t>
-  </si>
-  <si>
     <t>20110145176</t>
   </si>
   <si>
-    <t>Method of treating cancer using selective estrogen</t>
-  </si>
-  <si>
     <t>10420734</t>
   </si>
   <si>
-    <t>Use of EZH2 inhibitors for treating cancer</t>
-  </si>
-  <si>
     <t>11602529</t>
   </si>
   <si>
-    <t>National Cancer Center</t>
-  </si>
-  <si>
     <t>20181692831</t>
   </si>
   <si>
-    <t>Dana Farber Cancer Institute, Inc.</t>
-  </si>
-  <si>
     <t>2018098361</t>
   </si>
   <si>
-    <t>Cancer treatment using docetaxel by controlling</t>
-  </si>
-  <si>
     <t>11571408</t>
   </si>
   <si>
-    <t>Cancer Treatment Useing Docetaxel by Controlling</t>
-  </si>
-  <si>
     <t>17416977</t>
   </si>
   <si>
     <t>173053810</t>
   </si>
   <si>
-    <t>Dana-Farber Cancer Institute</t>
-  </si>
-  <si>
     <t>20190144291</t>
   </si>
   <si>
     <t>2019014429</t>
+  </si>
+  <si>
+    <t>2025-12-18</t>
+  </si>
+  <si>
+    <t>10.1161/CIRCULATIONAHA.125.074041</t>
+  </si>
+  <si>
+    <t>We report IMPROVE-DiCE (Improve Diabetic Cardiac Energetics), a 2-part open-label, phase 2a trial evaluating the safety and effectiveness of ninerafaxstat, a novel therapeutic designed to enhance cardiac energetics. Between May and September 2021, part 1 enrolled patients with type 2 diabetes and obesity without heart failure with preserved ejection fraction (HFpEF). Between January 2023 and June 2024, part 2 enrolled patients with type 2 diabetes, obesity, and HFpEF. Forty-two participants received 200 mg ninerafaxstat twice daily (part 1, n=21, 43% women, 72&amp;#xb1;0.5 years of age, 4-8 weeks; part 2, n=21, 29% women, 71&amp;#xb1;6 years of age, 12 weeks). Myocardial energetics (phosphocreatine-to-ATP ratio [PCr/ATP], primary outcome) and function (rest and dobutamine stress) were assessed before and after treatment using magnetic resonance imaging,P- andH magnetic resonance spectroscopy. In part 1, hyperpolarized [1-C]pyruvate magnetic resonance spectroscopy to assess in vivo pyruvate dehydrogenase flux (n=9) and plasma metabolomics and proteomics were also performed. In part 1, in patients with diabetes and obesity but without HFpEF, the heart was characterized by impaired pyruvate dehydrogenase flux, reduced PCr/ATP, triglyceride deposition, and diastolic impairment. Treatment with ninerafaxstat was associated with improved PCr/ATP (+0.39&amp;#xb1;0.49 [95% CI, 0.16-0.62]; Cohen's, 0.79;=0.002) and lower myocardial triglyceride (by 34%,=0.03). In part 2, in patients with diabetes, obesity, and symptomatic HFpEF, the heart was characterized by reduced PCr/ATP, diastolic impairment, and failure of systolic augmentation to exercise. Consistently, treatment with ninerafaxstat was associated with improvement in PCr/ATP (+0.15&amp;#xb1;0.25 [95% CI, 0.03-0.26]; Cohen's, 0.60;=0.02), improved systolic augmentation to exercise (+1.4 L/min,=0.04), improved exercise capacity (6-minute walk distance +16 m,=0.02), and improved New York Heart Association class symptom burden. These mechanistic phase 2a study results show that ninerafaxstat is safely tolerated and improves myocardial energetics in participants with obesity and diabetes without or with clinically manifest HFpEF. URL: https://clinicaltrials.gov; Unique identifier: NCT04826159.</t>
+  </si>
+  <si>
+    <t>cancer AND diabetes</t>
+  </si>
+  <si>
+    <t>10.7759/cureus.96913</t>
+  </si>
+  <si>
+    <t>Introduction Invasive candidiasis is a leading cause of fungal infections in hospitalized and critically ill patients, with high morbidity and mortality. There are numerous factors which may predispose to its development. In recent years, there has been a change in the etiological spectrum, and emerging resistance to antifungal drugs seen in some patients, further complicating management. Aims and objectives The aim of this study was to analyze the epidemiological and microbiological profile of invasive candidiasis in a tertiary teaching hospital, with a focus on species distribution, antifungal resistance patterns, clinical risk factors, and patient outcomes. Materials&amp;#xa0;and methods This retrospective study included all consecutive adult inpatients with invasive candidiasis admitted to Bharati Hospital &amp; Research Centre, Pune, India, from April 2019 to March 2022. This cohort represents all eligible cases (n=86) identified during&amp;#xa0;the study period, and therefore, the sample size was determined by case availability rather than a prior statistical calculation. Data were collected to evaluate species distribution and evolving epidemiology, identify associated risk factors, analyse antifungal susceptibility patterns, and determine mortality outcomes. Results(CA) was isolated in 19 (22.09%) out of 86 cases, while non-albicans Candida (NAC) in 67 (77.91%) of patients. The most common species isolated among NAC was&amp;#xa0;in 28 (32.56%) cases, followed by&amp;#xa0;in 19 (22.09%) cases&amp;#xa0;and&amp;#xa0;in 12 (13.95%) cases. Out of 86 patients with invasive candidiasis, we found antibiotic use in 81 (94.2%) cases, intravascular catheters&amp;#xa0;(central venous line/hemodialysis catheter) in 65 (75.6%) cases, Foley catheter in 49 (57%) cases, diabetes mellitus (DM) in 41 (47.7%) cases, chronic kidney disease (CKD)/acute kidney injury (AKI) in 41 (47.7%) of patients, and surgery in 28 (32.6%) patients. Other associated factors found were steroid and immunosuppressive use, total parenteral nutrition, cancer chemotherapy, human immunodeficiency virus (HIV) positive status and prosthetic devices. Mortality was seen in 24 (27.9%) patients. Patients with two or more associated illnesses had mortality 2.36 times more than those with less than two illnesses (p value = 0.016). Conclusion Invasive candidiasis in hospitalized patients remains a significant challenge, driven by rising non-albicans species and increasing antifungal resistance. Early recognition in high-risk patients, antimicrobial stewardship, and meticulous catheter care are essential to prevent morbidity and mortality. Improved availability of more sensitive tests to detect invasive candidiasis infections is the need of the day&amp;#xa0;so that antifungals can be started at the correct time.</t>
+  </si>
+  <si>
+    <t>10.2147/IDR.S535810</t>
+  </si>
+  <si>
+    <t>To establish a predictive model for wound infection after ileostomy for rectal cancer and its relationship with nucleotide-binding oligomerisation domain-like receptor thermal protein domain-associated protein 3gene polymorphism. A total of 347 samples were randomly divided into two groups: the model group (n = 260) and the verification group (n = 87). The patients in the model group were further divided into the infection group (n = 96) and the non-infection group (n = 164). Multivariate logistic regression was used to analyse the influencing factors of postoperative infection. The TaqMan probe method was used for genotyping. The results of multivariate logistic regression analysis showed that age &gt;65 years, diabetes, operation time &gt;105&amp;#xa0;minutes, loop colostomy and abnormal transepidermal water loss (TEWL) were independent risk factors. The risk value of postoperative wound infection predicted by the nomogram model reached 0.93, corresponding to a maximum predicted infection probability of 92.68%. The area under the receiver operating characteristic curve for the nomogram model was 0.869 (&lt; 0.001) and 0.861 (&lt; 0.001). The comparison ofgenotypes between the two groups showed that the proportion of the GG genotype was significantly higher in the infection group than the CC and CG genotypes (51.43% vs 29.90% and 38.98%, respectively). In patients with the GG genotype, the associations between age &gt;65 years, diabetes and abnormal TEWL with wound infection remained significant (all&lt;&amp;#x202f;0.05), indicating that these clinical risk factors are particularly prevalent among GG carriers. This study identified the independent risk factors for postoperative wound infection. Patients with the G allele have a higher risk of postoperative infection, andgene polymorphism is closely associated with the risk factors included in the model. The association betweengene polymorphisms and the risk of postoperative infection provides a new molecular biological indicator for prognostic evaluation.</t>
+  </si>
+  <si>
+    <t>10.3389/fendo.2025.1721570</t>
+  </si>
+  <si>
+    <t>Lipomas are the most common benign adipocytic tumors and are traditionally regarded as incidental findings with cosmetic significance. However, their frequent occurrence in adults with obesity and metabolic risk factors raises the possibility that lipomas may reflect systemic metabolic dysfunction rather than isolated adipose overgrowth. The present study evaluated whether adults with lipomas have a higher prevalence of metabolic syndrome components, obesity, dyslipidemia, hypertension, and type 2 diabetes mellitus (T2DM), compared with population benchmarks. We conducted a retrospective, multicenter, cross-sectional analysis of electronic health records from three Israeli hospitals (Barzilai, Shamir, and Galil Medical Centers) between January 2000 and December 2022. Adults aged &amp;#x2265;21 years with a clinical diagnosis of lipoma (ICD-9-CM 214) were included. Data were harmonized using the Observational Medical Outcomes Partnership (OMOP) Common Data Model and analyzed via the Lynx real-world health data platform. Prevalence of obesity, dyslipidemia, hypertension, and T2DM was compared against age- and sex-specific benchmarks from the 2023 Israeli Knowledge, Attitudes, and Practices (KAP) survey. Subgroup comparisons used Z-tests or exact binomial tests with &amp;#x3b1; = 0.05, reporting absolute differences with 95% confidence intervals. A total of 7,868 adults with lipomas were analyzed (mean [SD] age, 53.0 [15.0] years; 53.6% women). Compared with population benchmarks, lipoma patients showed consistently higher prevalence of all four metabolic traits. Dyslipidemia was most overrepresented, followed by hypertension and obesity, while T2DM showed a uniform excess across all age and sex subgroups. Clustering of three or more metabolic traits-consistent with metabolic syndrome, was common after age 35 and most pronounced in midlife. Adults with lipomas exhibit a substantially higher burden of metabolic syndrome components compared with population norms. These findings suggest that lipomas may serve as visible clinical indicators of systemic metabolic dysfunction. Recognizing lipomas as potential cutaneous markers of cardiometabolic risk could improve early identification of individuals at risk for obesity-related and endocrine diseases and support integration of dermatologic and metabolic screening practices.</t>
+  </si>
+  <si>
+    <t>10.3389/fphar.2025.1659227</t>
+  </si>
+  <si>
+    <t>Signal transducer and activator of transcription (STAT) proteins are a family of seven transcription factors mediating various biological processes. STAT6 is classically known to regulate immune cell biology by transmitting signals from interleukin (IL)-4 and IL-13 into transcriptional activation of genes driving type 2 immunity. In orchestrating T helper lymphocytes and macrophages polarization, STAT6 plays a central role in the regulation of both cellular and humoral immunities. Several pathologies, including inflammatory disorders, autoimmune/allergic diseases, metabolic syndrome as well as cancer, are associated with a dysregulation of type 2 immunity related to inadequate expression and/or activity of STAT6. In the present review, following a brief introduction of STAT6 biology, we summarize the immunologic and physiological roles of STAT6 in the context of liver integrity as well as the potential roles of STAT6-mediated pathways in both hepatoprotection and liver pathophysiological mechanisms.</t>
+  </si>
+  <si>
+    <t>10.3724/abbs.2025172</t>
+  </si>
+  <si>
+    <t>Long noncoding RNAs (lncRNAs) are essential in regulating the development and progression of different types of cancer. However, our insights into their impact and mechanisms in papillary thyroid carcinoma (PTC) are still insufficient. In this study, we investigate the effects of the ferroptosis-associated long noncoding RNA LINC02432 on PTC, which recognizes ferroptosis as a critical mechanism in cancer biology and lncRNAs as significant factors in various malignancies. To identify lncRNAs associated with ferroptosis in PTC, we conduct bioinformatics analyses and perform functional assays to evaluate the biological impact of LINC02432 on PTC cells, as well as its relationship with ferroptosis. Mechanistic studies employ methods such as western blot analysis, flow cytometry, and real-time PCR. Our analysis of transcriptome data from TCGA reveals that LINC02432 is the only lncRNA consistently identified by all 10 machine learning methods used, and its expression is significantly downregulated in PTC. Overexpression of LINC02432 in PTC cells inhibits cell proliferation and migration while promoting ferroptosis through inactivation of the NRF2 pathway.knockdown in PTC cells yields the opposite result. These findings highlight the potential of LINC02432 as a tumor suppressor in PTC progression, offering new insights into the mechanisms underlying the development and progression of this malignancy.</t>
+  </si>
+  <si>
+    <t>10.1007/s10787-025-02069-2</t>
+  </si>
+  <si>
+    <t>Non-communicable diseases, such as diabetes, cancer, as well as cardiovascular, metabolic, and central nervous system disorders stand for significant global health burden. Statins, as HMG-CoA reductase inhibitors, have emerged as a basis in the management of hypercholesterolemia and the prevention of cardiovascular disorders. In this review, we summarize the role of statins in a variety of pathologies, ranging from their well-recognized effects in cardiovascular disorders, to the newly revealed favorable effects in cancer, eye, autoimmune, kidney, gastrointestinal, bone, and autoimmune disorders. Additionally, the current review explores insights into the potential role of natural products as HMG-CoA reductase inhibitors. Future research should focus on the synergistic effects of natural therapies with synthetic statins to improve health outcomes in populations burdened by non-communicable diseases.</t>
+  </si>
+  <si>
+    <t>10.1186/s40942-025-00777-z</t>
+  </si>
+  <si>
+    <t>Swept-source OCT (SS-OCT) and OCT angiography (SS-OCTA) enable high-resolution assessment of retinal and choroidal biomarkers in diabetic macular edema (DME). However, prospective analyses of how these biomarkers correlate before and after anti-VEGF therapy in treatment-na&amp;#xef;ve eyes are limited. The aim of this study was to prospectively evaluate biomarker correlations following aflibercept treatment using state-of-the-art, high-resolution imaging with SS-OCT and SS-OCTA during 4&amp;#x2009;months of follow-up. This was a prospective interventional case series that included 28 eyes from 25 treatment-na&amp;#xef;ve patients with DME. All eyes received three monthly intravitreal aflibercept injections. Patients were reassessed one month after the loading phase (4-month visit). The evaluated biomarkers included best-corrected visual acuity (BCVA), central macular thickness (CMT), central choroidal thickness (CCT), vessel density (VD), and avascular area of the superficial plexus (AASP) and deep plexus (AADP). Pre- and post-treatment values were compared, and correlations were analyzed using Pearson's or Spearman's methods. Significant changes in BCVA (0.7250&amp;#x2009;&amp;#xb1;&amp;#x2009;0.23 to 0.3957&amp;#x2009;&amp;#xb1;&amp;#x2009;0.21; p&amp;#x2009;&lt;&amp;#x2009;0.000), CMT &amp;#x3bc;m (339.04&amp;#x2009;&amp;#xb1;&amp;#x2009;66.19 to 265.21&amp;#x2009;&amp;#xb1;&amp;#x2009;55.75; p&amp;#x2009;&lt;&amp;#x2009;0.000), CCT &amp;#x3bc;m (221.71&amp;#x2009;&amp;#xb1;&amp;#x2009;69.69 to 209.07&amp;#x2009;&amp;#xb1;&amp;#x2009;70.92; p&amp;#x2009;&lt;&amp;#x2009;0.000), VD (17.90&amp;#x2009;&amp;#xb1;&amp;#x2009;7.82 to 15.35&amp;#x2009;&amp;#xb1;&amp;#x2009;5.80; p&amp;#x2009;&lt;&amp;#x2009;0.038), AASP &amp;#x3bc;m(235,374&amp;#x2009;&amp;#xb1;&amp;#x2009;91,299 to 157,326&amp;#x2009;&amp;#xb1;&amp;#x2009;77,815; p&amp;#x2009;&lt;&amp;#x2009;0.000) and AADP &amp;#x3bc;m(1996,335&amp;#x2009;&amp;#xb1;&amp;#x2009;1,000,047 to 362,161&amp;#x2009;&amp;#xb1;&amp;#x2009;277,225; p&amp;#x2009;&lt;&amp;#x2009;0.000) were detected. Very high correlations were observed for the CCT pre vs CCT post (r&amp;#x2009;=&amp;#x2009;0.98; p&amp;#x2009;&lt;&amp;#x2009;0.001), and AADP pre vs AADP reduction (r&amp;#x2009;=&amp;#x2009;-0.93; p&amp;#x2009;&lt;&amp;#x2009;0.001), high correlation: VD pre vs VD reduction (r&amp;#x2009;=&amp;#x2009;-0.72; p&amp;#x2009;&lt;&amp;#x2009;0.001. In total, 2 correlations were very high, 1 high, 4 moderate, and 9 were low; all the correlations were statistically significant. Treatment-na&amp;#xef;ve DME eyes treated with aflibercept showed significant structural, vascular, and functional improvements, with several baseline biomarkers acting as potential predictive indicators of post-treatment outcomes. The very high correlation of CCT and AADP and the high correlation of VD suggest that SS-OCT and SS-OCTA can provide clinically useful information for identifying how patients will respond to treatment. These correlations support the role of SS-OCT and SS-OCTA not only as diagnostic tools but also as potential predictive indicators of therapeutic response, facilitating more personalized DME management in clinical practice. Notably, this is the first prospective study to evaluate correlations between SS-OCT and SS-OCTA biomarkers in na&amp;#xef;ve DME eyes treated with aflibercept.</t>
+  </si>
+  <si>
+    <t>10.1002/ijc.70300</t>
+  </si>
+  <si>
+    <t>Langerhans cell histiocytosis (LCH) is a rare, heterogeneous inflammatory myeloid neoplasm. This study focuses to summarize real-world experiences of using mitogen-activated protein kinase (MAPK) inhibitors in managing pediatric LCH. Thirty-six children with LCH received vemurafenib (n&amp;#x2009;=&amp;#x2009;11), dabrafenib (n&amp;#x2009;=&amp;#x2009;19), or trametinib (n&amp;#x2009;=&amp;#x2009;6), either as monotherapy (n&amp;#x2009;=&amp;#x2009;24) or combined with chemotherapy (n&amp;#x2009;=&amp;#x2009;12). The median Disease Activity Score declined from 5 at baseline to 1 after 3&amp;#x2009;months of MAPK inhibitor therapy (p&amp;#x2009;&lt;&amp;#x2009;.0001). Elevated interleukin-2 receptor (IL-2R) and tumor necrosis factor-&amp;#x3b1; (TNF-&amp;#x3b1;) levels were observed in 90.1% and 81.8% of patients, respectively. Median IL-2R and TNF-&amp;#x3b1; levels decreased from 1212&amp;#x2009;U/mL and 15 &amp;#x3c1;g/mL at baseline to 494&amp;#x2009;U/mL and 4.18 &amp;#x3c1;g/mL at 3&amp;#x2009;months (p&amp;#x2009;&lt;&amp;#x2009;.0001, p&amp;#x2009;=&amp;#x2009;.002), with no significant differences between MAPK inhibitor alone and combined with chemotherapy groups (p&amp;#x2009;=&amp;#x2009;.7791, p&amp;#x2009;=&amp;#x2009;.7503). The objective response rate at 3&amp;#x2009;months was 94.4% (34/36). At last follow-up, 20 patients had no active disease (NAD); 13 had NAD with residual diabetes insipidus and/or sclerosing cholangitis; 1 had NAD with neurodegeneration; and 2 died of progressive disease. Among 13 patients who discontinued treatment, relapse occurred more frequently in the monotherapy group (75%) than in the combination group (20%) (p&amp;#x2009;=&amp;#x2009;.047). Grade&amp;#x2009;&amp;#x2265;3 adverse events occurred in 11.1% and resolved with dose adjustment. MAPK inhibitors are effective and well tolerated in pediatric LCH. Combination therapy may reduce relapse risk. Further prospective studies are warranted.</t>
+  </si>
+  <si>
+    <t>10.2169/internalmedicine.6353-25</t>
+  </si>
+  <si>
+    <t>We herein report a case of hyperglycemia in a patient with recurrent breast cancer treated with the AKT inhibitor capivasertib. Continuous glucose monitoring revealed a distinctive pattern characterized by pronounced daytime postprandial hyperglycemia and nocturnal-to-morning decline, which resolved during the drug-free intervals. Hyperglycemia was unresponsive to metformin treatment but was markedly exacerbated by intravenous glucose infusion. These findings suggest that capivasertib-induced hyperglycemia is caused by an impaired glucose uptake and dysregulated hepatic glucose output associated with AKT inhibition. Careful glycemic monitoring and individualized management are necessary in patients receiving AKT inhibitors.</t>
+  </si>
+  <si>
+    <t>10.1055/a-2769-7106</t>
+  </si>
+  <si>
+    <t>10.1111/cob.70064</t>
+  </si>
+  <si>
+    <t>Adiposity contributes to multiple non-communicable diseases. To guide prevention of morbidity, this study aimed to quantify the relation between waist circumference (WC), body mass index (BMI), waist to height ratio (WtHR), abdominal subcutaneous (SAT) and visceral adipose tissue (VAT) and the risk of a composite outcome including recurrent cardiovascular events, incident type 2 diabetes and incident cancer, as well as each individual disease and all-cause mortality. Data were used from the UCC-SMART cohort study from 6138 patients with cardiovascular disease. Cox proportional hazard models estimated hazard ratios (HRs) and 95% confidence intervals (95% CIs) for adiposity measures, modelled as quartiles and per 1 SD increase, in relation to disease outcomes. All adiposity measures, except SAT, were related to higher risk of the composite outcome. WC and VAT showed the strongest relation (HR 1.62, 95% CI: 1.43, 1.83 and 1.62, 95% CI: 1.44, 1.83, respectively). Only WC and VAT were related to all-cause mortality (HRs 1.17, 95% CI: 1.01, 1.37 and 1.26, 95% CI: 1.08, 1.46, respectively). In patients with cardiovascular disease, WC and VAT are most strongly related to the risk of the composite outcome and to all-cause mortality. Monitoring adiposity with WC and VAT may help identify high-risk patients and could guide earlier interventions.</t>
+  </si>
+  <si>
+    <t>10.1016/j.ijpharm.2025.126503</t>
+  </si>
+  <si>
+    <t>Age-related macular degeneration (AMD) and Diabetic retinopathy (DR) are the most common forms of retinal disorders and are the leading causes of vision loss. Traditional treatments such as anti-VEGF therapies often require repeated intravitreal injections. Up to 40&amp;#x202f;% DR/AMD patients do not adequately respond to the anti-VEGF therapies. Therefore, non-VEGF therapies with alternative mechanisms are needed to address these unmet clinical needs. Fenofibrate (an FDA-approved low-cost oral drug) is a peroxisome proliferator-activated receptor-&amp;#x3b1; (PPAR&amp;#x3b1;) agonist. We developed large-sized fenofibrate-loaded biodegradable microparticles capable of achieving high drug loading (up to 25&amp;#x202f;wt%) and sustained in vitro release exceeding six months (larger particles that load more drug and last longer). These long-acting Feno-MP exhibited desired particle size suitable for intravitreal injection (IVT) through fine gauge needles. The lead Feno-MP-F6 maintained sustained drug levels in the retina for at least 6&amp;#x202f;months following a single intravitreal injection without obvious toxic issues in rats and rabbits. This study investigated a 6-month-long therapeutic effects of a single dose of fenofibrate-loaded microparticles (Feno-MP) via a non-VEGF, PPAR&amp;#x3b1;-dependent mechanism in streptozotocin (STZ)-induced diabetic rats (a DR model), Vldlrmice (a wet-AMD model), and Abca4/Rdh8mice (a dry-AMD model). Comprehensive analyses revealed broad therapeutic benefits across all the three disease models. In the STZ-induced DR model, one single IVT dose of Feno-MP restored both photopic and scotopic electroretinogram (ERG) responses, decreased leukostasis, and enhanced blood-retinal barrier function over a period of 6&amp;#x202f;months. In Vldlrmice, a wet-AMD model, Feno-MP effectively reduced both subretinal and intraretinal neovascularization and decreased retinal vascular leakage for at least 6&amp;#x202f;months. In Abca4/Rdh8mice, single Feno-MP treatment preserved photoreceptors, increased cone photoreceptors survival and improved mitochondrial function up to 6&amp;#x202f;months. Our study showed that Feno-MP may become a promising therapy for DR, wet-AMD and even dry-AMD with only 1-2 IVT injections/year. This work represents the approach to repurpose the oral drug fenofibrate for long-lasting intraocular delivery through a sustained release system.</t>
+  </si>
+  <si>
+    <t>10.1016/j.eprac.2025.12.002</t>
+  </si>
+  <si>
+    <t>Thyroid-stimulating hormone (TSH) suppression therapy is a widely used strategy in the management of differentiated thyroid carcinoma (DTC) to reduce the risk of recurrence and disease progression. However, the benefit of the TSH suppression in terms of clinical outcomes in patients with differentiated thyroid cancer has been questioned in recent studies. The TSH suppression could be associated with potential adverse effects, including cardiovascular risks, bone loss, and poor quality of life. While considering TSH suppression in patients with differentiated thyroid cancer, a careful assessment of risks and benefits should be made based on the patient's risk of recurrence, response to therapy, and comorbidities. Aggressive TSH suppression should be avoided if possible in patients with osteoporosis, Atrial fibrillation, coronary artery disease, and older patients, since the risk might be more than the benefit in these patients. This review explores the benefits and harms of TSH suppression therapy.</t>
+  </si>
+  <si>
+    <t>10.1016/j.neuropharm.2025.110805</t>
+  </si>
+  <si>
+    <t>Erectile dysfunction (ED) disturbs the life of elderly men, and ferroptosis may be associated with the progression of ED. Small nucleolar RNAs (snoRNAs, 60-300 nucleotides) are non-coding regulatory RNAs mainly located in cell nucleolus, and SNORD20 was found to participate in the function of smooth muscle cells. However, the function of SNORD20 in ED remains unexplored. In the current research, protein and mRNA levels were examined using western blot and RT-qPCR, respectively. Flow cytometry was employed to investigate apoptosis in cells. Mitochondrial function was examined using JC-1 and MitoSOX staining. Moreover, Felevels were examined using iron kits and an erectile function study in rats was conducted to further explore the function of SNORD20 in diabetic ED. It was revealed that SNORD20 level was reduced in cells obtained from diabetic ED rats. Notably, SNORD20 overexpression increased the proliferation in corpus cavernosum smooth muscle cells from diabetic rats, and SNORD20 small interfering RNA exerted the opposite effect. SNORD20 knockdown markedly promoted cell apoptosis and ferroptosis, and induced mitochondrial dysfunction. In addition, silencing of SNORD20 induces mitochondrial dysfunction and induced ferroptosis via downregulating Nrf2 and GPX4 expressions in corpus cavernosum smooth muscle cells. Moreover, SNORD20 overexpression alleviated the erectile function of diabetic rats in vivo. Collectively, SNORD20 knockdown may promote ferroptosis in corpus cavernosum smooth muscle cells obtained from diabetic ED rats through inducing mitochondrial dysfunction, highlighting that this snoRNA may acts as a key player in ED.</t>
+  </si>
+  <si>
+    <t>10.1016/j.yexcr.2025.114867</t>
+  </si>
+  <si>
+    <t>Metabolic reprogramming within the tumor microenvironment (TME) is a critical driver of colorectal cancer (CRC) progression, influencing tumor growth, immune evasion, and metastatic dissemination. Cancer-associated fibroblasts (CAFs) undergo adaptive shifts toward aerobic glycolysis, a process often termed the "reverse Warburg effect," producing high levels of lactate and pyruvate that are shuttled to adjacent CRC cells to fuel oxidative phosphorylation and anabolic biosynthesis. CAFs additionally secrete cytokines and growth factors, including TGF-&amp;#x3b2;, IL-6, and VEGF, which integrate metabolic and signaling networks to stimulate epithelial-mesenchymal transition (EMT), angiogenesis, and metastatic potential. Similarly, tumor-associated macrophages (TAMs) exhibit remarkable metabolic plasticity that correlates with their functional heterogeneity. Beyond the classical M1/M2 dichotomy, TAM subsets display differential reliance on oxidative phosphorylation, fatty acid oxidation, or glycolysis depending on local oxygen and nutrient availability. M2-like TAMs, for example, preferentially use oxidative phosphorylation and fatty acid metabolism to sustain survival in hypoxic niches while secreting immunosuppressive metabolites such as arginase, polyamines, and lactate, which inhibit cytotoxic T-cell function. Crosstalk between CAFs and TAMs amplifies these metabolic adaptations: CAF-derived lactate promotes M2 polarization, while TAMs enhance glycolysis and biosynthetic activity in tumor cells. This study aims to systematically investigate the metabolic reprogramming of CAFs and TAMs within the CRC tumor microenvironment. Specifically, we seek to characterize the metabolic adaptations and heterogeneity of these stromal populations, elucidate their reciprocal interactions with tumor cells, and identify potential metabolic vulnerabilities that can be therapeutically targeted to disrupt tumor growth, immune evasion, and metastatic progression.</t>
+  </si>
+  <si>
+    <t>10.1016/j.clnu.2025.11.014</t>
+  </si>
+  <si>
+    <t>Acute inflammation is a crucial biological response necessary for host defense and tissue repair, but unresolved inflammation can contribute to adverse outcomes across critical illness, cardiovascular disease, neurodegeneration, and cancer. Emerging evidence emphasizes that the resolution of inflammation is an active biosynthetic process mediated in part by specialized pro-resolving mediators (SPMs), lipid-derived molecules generated from omega-3 polyunsaturated fatty acids (PUFAs) such as eicosapentaenoic acid (C20:5n-3, EPA) and docosahexaenoic acid (C22:6n-3, DHA). These mediators-including resolvins, protectins, and maresins-exert potent immunomodulatory actions that restore tissue homeostasis and attenuate inflammation without immunosuppression. Despite the established role of SPMs, clinical and preclinical studies demonstrate that SPM biosynthesis is often impaired in disease states, limiting the efficacy of omega-3 PUFA-based nutritional interventions. To explore the potential of standardized SPM enrichment in enteral nutrition (EN), a multidisciplinary panel of experts conducted a Delphi-based consensus process. Consensus statements were developed supporting the rationale for enriching EN with preformed SPMs or their stable precursors to overcome compromised endogenous biosynthesis and enhance clinical benefits. Preliminary human studies suggest that such enrichment may reduce inflammation, improve immune function, and contribute to better outcomes in conditions such as obesity, atherosclerosis, infections, and chronic pain. The panel emphasized the need for rigorously designed clinical trials to determine whether enteral SPMs have measurable clinical effects and, if so, to define effective dosing strategies. Overall, SPM-enriched EN represents a potential advancement in the nutritional modulation of inflammation, warranting further investigation to guide evidence-based clinical application.</t>
+  </si>
+  <si>
+    <t>10.1111/maq.70047</t>
+  </si>
+  <si>
+    <t>While US cancer survival rates have improved in recent years, the rising incidence of early-onset cancers means cancer is shifting younger, imposing new generational challenges for survivors and their families. This article explores the experience of a cancer diagnosis during one's re/productive years by analyzing how parents with dependent children maintain a future amid heightened economic precarity (e.g., loss of stable employment, downward mobility, and a degraded public sphere). By linking physical survival with the social conditions necessary for post-treatment quality of life, we develop a more collectivistic notion of survivorship, where parent-survivors' efforts to stay employed during treatment serve as an extension of family caregiving in austere times. Reflecting on how the lead authors' own experience of work and cancer emerged in interviews with 12 parent-survivors, we intervene on traditional team science methods, making space for the autoethnographic voices that underlie interpretations of illness.</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0338692</t>
+  </si>
+  <si>
+    <t>Standardized guidelines for optimal tunnel length in tunneled peripherally inserted central catheters (PICCs) are lacking. The objective of this study was to evaluate the real-world impact of tunnel length on clinical outcomes. This retrospective cohort study included 207 cancer patients who received tunneled PICCs, categorized into a control group (tunnel length&amp;#x2009;&gt;&amp;#x2009;4&amp;#x2009;cm, n&amp;#x2009;=&amp;#x2009;134) and an observation group (tunnel length&amp;#x2009;&amp;#x2264;&amp;#x2009;4&amp;#x2009;cm, n&amp;#x2009;=&amp;#x2009;73). Propensity score matching (PSM) was used to address baseline heterogeneity. Cox regression analyses were used to assess the risk of complication during a 120-day follow-up. Compared to the control group (tunnel length&amp;#x2009;&gt;&amp;#x2009;4&amp;#x2009;cm), the observation group (tunnel length&amp;#x2009;&amp;#x2264;&amp;#x2009;4&amp;#x2009;cm) had a significantly higher adjusted overall complication risk (HR&amp;#x2009;=&amp;#x2009;2.92, 95% CI: 1.07-7.94, P&amp;#x2009;=&amp;#x2009;0.036) and unplanned catheter removal rate (4.4% vs. 0.0%, P&amp;#x2009;=&amp;#x2009;0.027), confirming the safety of longer tunnels despite comparable comfort levels between groups. After PSM, Cox regression analysis showed results consistent with those from the unmatched cohort. Subgroup analyses revealed a reduced risk of complications with longer tunnels in patients with BMI&amp;#x2009;&amp;#x2264;&amp;#x2009;25&amp;#x2009;kg/m&amp;#xb2; (HR&amp;#x2009;=&amp;#x2009;0.29, 95% CI: 0.11-0.82), without hypertension (HR&amp;#x2009;=&amp;#x2009;0.36, 95% CI: 0.13-1.00), without diabetes (HR&amp;#x2009;=&amp;#x2009;0.38, 95% CI: 0.15-0.97), and with solid tumors (HR&amp;#x2009;=&amp;#x2009;0.31, 95% CI: 0.11-0.85). The results show that tunnel lengths&amp;#x2009;&gt;&amp;#x2009;4&amp;#x2009;cm reduce overall complications and prolong catheter retention, supporting the implementation of standardized protocols while advocating for personalized adjustments based on BMI, comorbidities, and cancer type.</t>
+  </si>
+  <si>
+    <t>10.1002/1873-3468.70247</t>
+  </si>
+  <si>
+    <t>Phosphoinositides are transient signaling lipids, derived from the reversible phosphorylation of phosphatidylinositol on intracellular membranes, which serve as master regulators of many essential cellular functions. Seven distinct phosphoinositide species require precise spatiotemporal control, which is regulated by specific phosphatidylinositol kinases and phosphatases. Here, we review one such family, the inositol polyphosphate 5-phosphatases, which comprise 10 mammalian enzymes that dephosphorylate the 5-position phosphate group from the inositol head group of PtdIns(4,5)P, PtdIns(3,5)P, and/or PtdIns(3,4,5)P. Despite overlapping substrate specificities, the 5-phosphatases play nonredundant roles, including in development, as demonstrated by murine and zebrafish knockout studies. Mutations in several 5-phosphatase family members are associated with multisystem developmental and congenital syndromes. Associations between 5-phosphatase gene variants and diabetes and metabolic syndrome, neurodegenerative disease, and in rare cases cancer, are also emerging. Here, we provide a comprehensive discussion of the latest advances in this field, including updates on disease modeling and mechanisms.</t>
+  </si>
+  <si>
+    <t>10.1093/jncics/pkaf117</t>
+  </si>
+  <si>
+    <t>Cardiometabolic risk factors (CMRF) and cardiovascular disease (CVD) incidence in racially and ethnically underrepresented women with breast cancer (BC) are not well characterized. The Pathways Heart Study is a prospective cohort of 14,942 women diagnosed with invasive BC from 2005-2013 at Kaiser Permanente Northern California. Incidence of CMRF and CVD outcomes was determined from electronic records and calculated with competing risk framework for non-CVD death. Fine-Gray proportional hazards regression estimated sub-distribution hazard ratios by race and ethnicity compared with non-Hispanic White (NHW) women, with additional Asian subgroup analysis. Participants were on average 61&amp;#x2009;years old at diagnosis and 65% NHW, 7.5% Black, 14.4% Asian, 11.9% Hispanic, 0.4% Pacific Islander, and 0.8% American Indian/Alaska Native. Black and Asian women had 1.2-1.3-times higher incident hypertension risk; Black, Asian, Hispanic, and Pacific Islander women had 1.5-3-times higher incident diabetes risk; Asian women had 1.2-times higher incident dyslipidemia risk.Black women had 1.3-1.4-times higher risk of incident ischemic heart disease (IHD), heart failure (HF) and overall CVD. Filipino women had 1.6-times higher risk of stroke. South Asian women had 2.5-2.6-times higher IHD and HF risk. Compared with NHW women, racially and ethnically diverse women with BC experienced higher risk of incident diabetes, hypertension, and dyslipidemia. Black and Asian women, particularly Filipino and South Asian, had higher risk of incident CVD. Better characterization of health disparities in cardio-oncology is critical to inform future CVD prevention and treatment.</t>
+  </si>
+  <si>
+    <t>10.1097/MPA.0000000000002595</t>
+  </si>
+  <si>
+    <t>Social determinants of health (SDH) encompass socioeconomic and environmental factors that influence individual health outcomes. While SDH has been studied in relation to cardiovascular and metabolic diseases, its potential relationship with acute pancreatitis (AP) remains insufficiently explored. We conducted a prospective cohort study using data from the UK Biobank, including over 340,000 participants without a history of AP at baseline. A composite SDH score was constructed from multiple indicators and the association between SDH and incident AP was examined using Cox proportional hazards models. Restricted cubic spline (RCS) regression was used to assess dose-response relationships. Stratified analyses were performed by demographic and clinical subgroups. Associations between SDH and AP-related diseases were also investigated. Elevated SDH scores were significantly associated with increased AP risk (P&lt;0.001), with a linear dose-response relationship confirmed by RCS analysis. After full adjustment, the risk of AP was found to be higher in participants with unfavorable SDH (HR 1.52, 95%CI 1.37-1.70) compared to those with favorable SDH. In post-AP individuals, participants in the higher SDH group had increased risks of chronic pancreatitis (CP) and type 2 diabetes mellitus (T2DM). However, no significant association was found between SDH and post-AP pancreatic cancer (PC) (P=0.632). Social disadvantage, as reflected by higher SDH scores, is associated with high risk of AP and AP-related diseases. These findings underscore the importance of considering social context in clinical and public health efforts to reduce the burden of pancreatic diseases.</t>
+  </si>
+  <si>
+    <t>10.1530/JOE-25-0281</t>
+  </si>
+  <si>
+    <t>Primary bilateral macronodular adrenal hyperplasia (PBMAH) is a rare cause of Cushing's syndrome. The study aimed to characterize changes in steroidogenesis in PBMAH through immunohistochemistry (IHC), transcriptomics and exome analysis with detailed clinical data assessment. Our cohort included 22 PBMAH patients who underwent adrenalectomy and we investigated IHCs for five key steroidogenic enzymes (CYP11B1, CYP11B2, CYP17A1, HSD3B2 and CYB5A), covering the adrenocortical hormone secretion pathways. Unsupervised clustering of IHC staining identified three clusters: Cluster 1 exhibited low CYP11B1 &amp; CYP17A1 expression, elevated HSD3B2 expression, smaller tumors, and included ARMC5 mutants. Cluster 2 showed higher enzyme staining for CYP11B1, CYP17A1 &amp; CYB5A and included KDM1A mutants and female-only cases. Cluster 3 was characterized by slightly increased CYP11B2 staining and comprised of wildtype samples lacking ARMC5 and KDM1A variants. Exome sequencing identified steroidogenic pathway germline variants across the three clusters. Importantly, in Cluster 1 a higher burden of predicted damaging variants across various steroidogenic genes were found potentially leading to reduced enzyme staining through altered functions of the variant. However, this distinctive variant pattern was less evident in Cluster 2 and Cluster 3. Transcriptomics identified no differences between the clusters in terms of gene expression, hinting the influence of possible epigenetic factors on IHC. In summary, our study identified distinct groups in PBMAH based on their IHC staining patterns and highlights the importance for integrated molecular profiling for comprehensive characterization of heterogeneity in PBMAH.</t>
+  </si>
+  <si>
+    <t>10.24425/fmc.2025.156681</t>
+  </si>
+  <si>
+    <t>Bronchofiberoscopy, particularly when combined with real-time endobronchial ultrasound-guided transbronchial needle aspiration (RT-EBUS-TBNA), is a widely available, long-established, and safe diagnostic modality for respiratory diseases, with particular relevance to the evaluation of primary and secondary lung neoplasms. The aim of this study is to present a case of purulent mediastinitis as a complication of RT-EBUS-TBNA, which highlights the increased likelihood of infectious complications in patients with additional risk factors such as diabetes mellitus and immunosuppression, in this instance related to chronic systemic corticosteroid therapy. Furthermore, this report reviews the available literature on the incidence of complications, including infectious events, following EBUS-guided transbronchial biopsy. Complications following EBUS-guided transbronchial biopsy are rare; therefore, the procedure should be regarded as a safe and recommended diagnostic method.</t>
+  </si>
+  <si>
+    <t>10.3389/fendo.2025.1710157</t>
+  </si>
+  <si>
+    <t>Diabetes and metabolic disorders represent a global health crisis driven by complex interactions between metabolic, immune, and microbial networks. Beyond their metabolic derangements- hyperglycemia, insulin resistance, and low-grade systemic inflammation-these disorders are now recognized to exist at an immunometabolic interface profoundly influenced by infectious agent The bidirectional relationship between infections and metabolic dysregulation highlighting how acute and chronic infections contribute to insulin resistance, &amp;#x3b2;-cell dysfunction, and systemic inflammation, while metabolic dysregulation impairs immune competence, predisposing individuals to recurrent and severe infections. Pathogens such as,, SARS-CoV-2, and hepatitis viruses, alter host metabolic signaling through inflammatory, mitochondrial, and hormonal pathways, reshaping glucose and lipid homeostasis. In turn, diabetic immune impairment amplifies susceptibility to pneumonia, urinary tract infections, and chronic wound infections, reinforcing a pathogenic feedback loop. Emerging therapeutic strategies including nanotechnology enabled, therapeutics, gene, and stem cell based interventions and next-generation incretin agonists- including tirzepatide and CagriSem offer promising avenues to restore both metabolic balance and immune resilience. Additionally, foundational strategies such as lifestyle modifications, medical nutrition therapy, and vaccination remain essential components of disease control. Understanding infections as dynamic modulators of metabolic homeostasis reframes diabetes not merely as an endocrine disorder, but as a systemic immunometabolic disease. This review synthesizes current evidence on infection induced metabolic syndrome, immune impairments, and innovative therapeutic strategies to guide future precision interventions at the infection-metabolism interface.</t>
+  </si>
+  <si>
+    <t>10.7759/cureus.96899</t>
+  </si>
+  <si>
+    <t>Non-communicable diseases (NCDs) have become a major public health concern among India's tribal populations, who&amp;#xa0;face unique vulnerabilities. Historically burdened by infectious diseases and malnutrition, tribal communities are now undergoing a rapid epidemiological transition, with rising prevalence of cardiovascular diseases, diabetes, hypertension, and cancers. Behavioral risk factors such as tobacco and alcohol use, poor nutrition, and declining traditional food practices intersect with socio-economic disadvantages, low health literacy, and limited healthcare access to exacerbate this burden. Women and Particularly Vulnerable Tribal Groups (PVTGs) are disproportionately affected. Despite national policies and tribal health initiatives, barriers, including cultural mismatch of interventions, infrastructure gaps, and poverty, persist. This narrative review highlights epidemiological evidence, social determinants, and systemic barriers shaping NCD outcomes among Indian tribes. It further emphasizes the need for culturally sensitive, community-driven, and equity-focused strategies to strengthen prevention, screening, and management, ultimately reducing health disparities.</t>
+  </si>
+  <si>
+    <t>10.3389/fonc.2025.1644593</t>
+  </si>
+  <si>
+    <t>This study aims to explore the feasibility and safety of modified negative-pressure wound therapy with instillation (NPWTi) for the treatment of cervical anastomotic leakage (CAL) after oesophageal cancer surgery. A retrospective analysis was conducted on 17 patients who developed CAL after oesophageal cancer surgery and received modified NPWTi treatment at our hospital from 2021 to 2024. The primary outcome was the time to healing, defined as the number of days from the initiation of modified NPWTi to complete fistula closure. Secondary outcomes included wound odour improvement and patient comfort. A total of 17 patient were collected, including 10 men and seven women, with an average age of 73.71 &amp;#xb1; 8.01 years. None received neoadjuvant therapy, and no patients had diabetes; preoperative albumin was 38.77 &amp;#xb1; 3.58 g/L. The occurrence of CAL was noted at 8.88 &amp;#xb1; 3.15&amp;#xa0;d (95% CI: 7.26 to 10.51&amp;#xa0;d) post-surgery. The modified treatment was commenced 0-12 d after CAL diagnosis, with the earliest case starting on the day of diagnosis. The mean duration of modified NPWTi was 10.88 &amp;#xb1; 6.54&amp;#xa0;d (95% CI: 7.52 to 14.25&amp;#xa0;d). For the primary outcome, the time from treatment initiation to complete healing was 15.00 &amp;#xb1; 7.26&amp;#xa0;d (95% CI: 11.27 to 18.73&amp;#xa0;d), with a minimum of five days. No mediastinal or pleural infections related to NPWTi occurred during the treatment. For the secondary outcomes, a significant improvement in wound odour was observed following the administration of the modified NPWTi (P&lt;0.001), with an improvement rate of 100% (95% CI: 85-100%). During the treatment, the patients reported feeling comfortable and expressed overall satisfaction. Modified NPWTi demonstrated significant efficacy and convenience in treating CAL after oesophageal cancer surgery, benefiting both patients and healthcare providers with good safety profiles, thus warranting broader clinical application.</t>
+  </si>
+  <si>
+    <t>10.3389/fimmu.2025.1704994</t>
+  </si>
+  <si>
+    <t>Chemotherapy remains the mainstay treatment for gallbladder cancer; however, its therapeutic efficacy is limited by poor chemosensitivity. Therefore, identifying more effective treatment strategies is essential for improving patient prognosis. In this study, we evaluated the antitumor activity of a novel PPAR&amp;#x3b3; agonist, PG-4c, in gallbladder cancer and assessed its in vivo toxicity. Human gallbladder cancer cells were treated with PG-4c to examine its effects on the cell cycle, apoptosis, invasion, migration, and intracellular apoptotic signaling. A xenograft tumor model was used to assess the antitumor efficacy of PG-4c in vivo. Toxicity associated with PG-4c was evaluated in both mice and zebrafish. PG-4c exhibited stronger anticancer activity than the standard chemotherapeutic agent gemcitabine. Its antitumor mechanisms involved inducing cell-cycle arrest, apoptosis, and necrosis through elevated intracellular reactive oxygen species levels and activation of cleaved caspase-3. PG-4c also impaired actin assembly, thereby inhibiting migration and invasion. In vivo, PG-4c significantly suppressed tumor growth in both zebrafish and mouse xenograft models. Notably, PG-4c demonstrated lower toxicity than the traditional PPAR&amp;#x3b3; agonist pioglitazone, as supported by animal toxicity assays. Our findings suggest that PG-4c holds strong potential as an effective chemotherapeutic candidate for gallbladder cancer. Given that PPAR&amp;#x3b3; agonists are clinically approved drugs for dyslipidemia and diabetes, this class of agents may represent a promising new therapeutic approach for gallbladder cancer management.</t>
+  </si>
+  <si>
+    <t>10.34172/apb.025.43866</t>
+  </si>
+  <si>
+    <t>Breast cancer remains the most prevalent malignancy among women worldwide, with a strikingly high incidence in Egypt, particularly in familial cases. This study aims to comprehensively elucidate the pathological and molecular significance of ERBB2 (HER2/neu) overexpression in Egyptian familial breast cancer, highlighting its role in tumor aggressiveness, immune evasion, and precision oncology. We enrolled 44 Egyptian breast cancer patients along with 35 daughters and 24 sisters (2013-2015, Mansoura University Hospital). Comprehensive analyses included serum biochemical assays, histopathological evaluation, immunohistochemical staining for ERBB2, and molecular detection of ERBB2 amplification using first-round and nested PCR. Associations with clinical, hormonal, and metabolic variables were also explored. Serum biochemical profiling revealed significantly elevated ALT (6.6&amp;#xb1;0.55 U/mL), LDH (16.8&amp;#xb1;1.4 U/mL), and CA15 3 (160&amp;#xb1;13.33 U/mL), with reduced AST (2.6&amp;#xb1;0.22 U/mL) compared to controls (&amp;#x2264;0.05). Histopathology confirmed invasive ductal carcinoma with dense stromal desmoplasia. Immunohistochemistry demonstrated ERBB2 overexpression in&gt;10% of tumor cells. Nested PCR detected ERBB2 amplification in 72% of patients, and in daughters (17%) and sisters (20%). Notably, higher ERBB2 expression was observed in unmarried patients (100%), pre-menopausal women (73-72%), and those with diabetes or hypertension, suggesting hormonal and metabolic modulation via PI3K/AKT/mTOR and MAPK/ERK pathways. ERBB2 mutations were identified in 14% of patients, 2.1% of daughters, and 1.2% of sisters. Furthermore, ERBB2 may upregulate PD-L1, contributing to immune evasion. Our findings highlight ERBB2 as a pivotal diagnostic and prognostic biomarker in Egyptian familial breast cancer and support integrating HER2-targeted therapies with immune checkpoint inhibitors and metabolic interventions. This approach could transform outcomes in high-risk familial cohorts. The study emphasizes the importance of genetic screening and precision medicine strategies that consider molecular, hormonal, and metabolic contexts in breast cancer care.</t>
+  </si>
+  <si>
+    <t>10.2147/IMCRJ.S551584</t>
+  </si>
+  <si>
+    <t>Hypoglycemia is a rare but documented adverse effect of linezolid. We report a 72-year-old patient with late-stage gynecologic cancer and abdominal MRSA peritonitis, who developed persistent asymptomatic hypoglycemia after starting linezolid. The patient had type 2 diabetes on metformin-glibenclamide. Fasting blood glucose dropped to 2.08&amp;#xa0;mmol/L (reference: 3.9-6.1&amp;#xa0;mmol/L) 1 day post-linezolid initiation; hypoglycemia persisted despite stopping oral hypoglycemics and administering dextrose, but normalized within 24&amp;#xa0;hours after linezolid discontinuation (replaced with tigecycline). Naranjo ADR Scale scoring (7 points) confirmed a "probable" causal link. We present dynamic glucose trends (reinforcing causality) and review linezolid-associated hypoglycemia literature. This case highlights the need for glucose monitoring in linezolid-treated patients, especially at high risks, even without diabetes or symptoms.</t>
+  </si>
+  <si>
+    <t>10.1111/dom.70388</t>
+  </si>
+  <si>
+    <t>To evaluate the association between baseline glycemic status and mortality among patients with cancer and to examine whether these associations differ by stage and cancer type. We performed a nationwide cohort study using the Korean Cancer Public Library Database (K-CURE), which integrates national cancer registry, health screening, and cause-of-death records. A total of 671&amp;#x2009;366 adults newly diagnosed with one of 24 cancers between 2013 and 2019 were classified as normal glucose tolerance (NGT), impaired fasting glucose (IFG), or diabetes mellitus (DM). Multivariable Cox proportional hazards models estimated hazard ratios (HRs) with 95% confidence intervals (CIs) for all-cause, cancer-specific, cardiovascular, and respiratory mortality. Analyses were stratified by Surveillance, Epidemiology, and End Results stage and cancer type, with sensitivity analyses applying 1-, 3-, and 5-year lag periods. Over a mean follow-up of 3.5&amp;#x2009;years, 171&amp;#x2009;104 deaths occurred. Compared with NGT, DM was associated with higher risks of all-cause (HR 1.34, 95% CI 1.32-1.35), cancer-specific (HR 1.31, 95% CI 1.30-1.33), cardiovascular (HR 1.46, 95% CI 1.35-1.58), and respiratory mortality (HR 1.43, 95% CI 1.30-1.56). IFG was associated with modestly increased risks of all-cause (HR 1.06, 95% CI 1.05-1.08) and cancer-specific mortality (HR 1.07, 95% CI 1.05-1.08). Stage-stratified analyses demonstrated the strongest associations in localised cancers with attenuation in advanced stages. DM and IFG were linked to poorer survival after cancer diagnosis, with the greatest impact in early-stage disease. These findings support integrating metabolic risk assessment and management into survivorship care.</t>
+  </si>
+  <si>
+    <t>10.1186/s12933-025-03025-8</t>
+  </si>
+  <si>
+    <t>Patients with type 2 diabetes mellitus (T2DM) who are obese have increased risk of cardiovascular events. This study aimed to investigate the impact of obesity on myocardial interstitial fibrosis and its association with subclinical left ventricular (LV) systolic dysfunction in patients with T2DM. Eighty-one T2DM patients without obesity, 48 patients with obesity and 40 matched lean healthy controls were prospectively recruited and underwent cardiac magnetic resonance imaging. Extracellular volume (ECV), 3-D feature tracking strain including LV radial (GRS), circumferential (GCS) and longitudinal (GLS) peak strains were evaluated from T1 mapping and cine images, and compared among the groups. Compared with controls, the LV GRS and GLS were significantly lower and ECV significantly higher in T2DM patients without obesity, and they were even lower or higher in patients with obesity than in both controls and patients without obesity. The LV GCS was significantly lower in patients with obesity than that in controls. Multivariable linear regression analyses demonstrated that obesity was independently associated with ECV (&amp;#x3b2;&amp;#x2009;=&amp;#x2009;2.147, p&amp;#x2009;=&amp;#x2009;0.006), LV GRS and GLS (&amp;#x3b2;&amp;#x2009;=&amp;#x2009;-&amp;#x2009;3.427 and 1.408, p&amp;#x2009;=&amp;#x2009;0.019 and&amp;#x2009;=&amp;#x2009;0.001, respectively) in patients with T2DM. When ECV was included in the regression analyses, both obesity and ECV were independently associated with LV GLS (&amp;#x3b2;&amp;#x2009;=&amp;#x2009;1.540 and 0.118, p&amp;#x2009;&lt;&amp;#x2009;0.001 and&amp;#x2009;=&amp;#x2009;0.019, respectively). In patients with T2DM, there was more severe myocardial interstitial fibrosis and subclinical LV systolic dysfunction in patients with obesity, and increased myocardial fibrosis is independently associated with impaired LV systolic function. These results indicate the potential clinical significance of weight management in T2DM patients with obesity.</t>
+  </si>
+  <si>
+    <t>10.1038/s41598-025-32259-5</t>
+  </si>
+  <si>
+    <t>We aimed to investigate prognostic determinants of extranodal marginal zone B-cell lymphoma of mucosa-associated lymphoid tissue (MALT lymphoma). We analyzed 11,730 patients captured in the National cancer registry. Kaplan-Meier estimates compared survival by sex, age, and SEER stage, while multivariable Cox models identified mortality determinants. Women represented 54.6% of cases and had better survival than men. Age distribution peaked in the fifth-sixth decades. Survival declined with older age and advanced SEER stage. In multivariable models, male sex (hazard ratio [HR] 2.00, 95% confidence interval [CI] 1.48-2.70), advanced age (HR 33.92, 95% CI 18.23-63.10 for&amp;#x2009;&amp;#x2265;&amp;#x2009;80&amp;#xa0;years), and metastatic disease (HR 2.77, 95% CI 2.03-3.78), diabetes, cardiovascular, and cerebrovascular disease were associated with higher mortality. Conversely, higher household income (HR 0.63, 95% CI 0.45-0.88), physical activity (HR 0.60, 95% CI 0.42-0.86), and higher body mass index (HR 0.95, 95% CI 0.91-0.99) were associated with reduced mortality. Subgroup analyses showed consistently worse outcomes for men across age strata. Comorbidity effects were most pronounced at ages 60-79. Income, physical activity, smoking, and BMI have age-specific survival benefits. In conclusion, prognosis in MALT lymphoma is strongly influenced by sex, age, stage, comorbidities, and lifestyle.</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-025-67515-9</t>
+  </si>
+  <si>
+    <t>Thermogenic activation of subcutaneous white adipocytes requires glycogen synthesis and turnover. Here we show that &amp;#x3b2;-adrenergic stimulation induces a distinct glycogen metabolism gene program in inguinal white adipose tissue in a cell-autonomous and adipocyte-specific manner. Among these, Gys2 and Ppp1r3c are rapidly induced following acute &amp;#x3b2;3-adrenergic receptor activation. We identify Gys2 as a direct transcriptional target of PKA-CREB signaling. In contrast, sustained expression of glycogen metabolism genes under chronic &amp;#x3b2;3-adrenergic activation requires the coactivator PGC1&amp;#x3b1;, whose loss blunts glycogen accumulation and thermogenic capacity. Mechanistically, PGC1&amp;#x3b1; cooperates with estrogen-related receptors (ERRs) to regulate chromatin accessibility and gene transcription. Although deletion of ERR&amp;#x3b1; is compensated by ERR&amp;#x3b3;, combined deletion of ERR&amp;#x3b1;/&amp;#x3b2;/&amp;#x3b3; abolishes expression of glycogen metabolism and thermogenic genes. Chromatin profiling confirm that ERRs directly control the glycogen metabolic program in beige adipocytes. Together, our results identify a multilayered transcriptional axis that sustains glycogen metabolism during &amp;#x3b2;-adrenergic activation in male mice.</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-025-66106-y</t>
+  </si>
+  <si>
+    <t>Epigenetic Clocks have been trained to predict chronological age, healthspan and lifespan. Such clocks are often analysed in relation to disease outcomes - typically using small datasets&amp;#xa0;and a limited number of clocks. Here, we present a large-scale (n&amp;#x2009;=&amp;#x2009;18,859), unbiased comparison of 14 widely used clocks as predictors of 174 incident disease outcomes and all-cause mortality over 10-years of follow up. Second-&amp;#xa0;and third-generation clocks significantly outperform first-generation clocks, which have limited applications in disease settings. Of the 176 Bonferroni significant (P&amp;#x2009;&lt;&amp;#x2009;0.05/174) associations from fully-adjusted Cox regression models controlling for lifestyle and socioeconomic measures, there are 27 diseases (including primary lung cancer and diabetes) where the hazard ratio for the clock exceeds the clock's association with all-cause mortality. Furthermore, for 32 of the 176 findings, adding the clock to a null classification model with traditional risk factors significantly increases the classification accuracy by &gt;1%. However, there is minimal evidence for interactions between the clocks and sex or smoking (ever/never) status. Second-&amp;#xa0;and third-generation epigenetic clocks show promise for disease risk prediction, particularly in relation to respiratory and liver-based conditions.</t>
+  </si>
+  <si>
+    <t>10.1016/j.yexmp.2025.105017</t>
+  </si>
+  <si>
+    <t>A significant gap exists between preclinical findings in animal models and their translation to diabetes therapeutics. Although several generic drugs are currently available, an effective and precise control of glycemia is challenging, and side effects due to both hyperglycemia and drugs are common. This is partly due to our incomplete understanding of disease mechanisms. It is now appreciated that, due to its simplicity and well-conserved genetic pathways, Drosophila disease modeling is an excellent choice for studying diabetes and its complications. Here, we review knowledge about conserved glucose sensing mechanisms, energy homeostasis pathways, and diabetes modeling in Drosophila. We discuss how hyperglycemia-induced metabolic deregulations cause diabetic complications. Further through the lens of Drosophila, we highlight molecular mechanisms underlying vascular and emerging diabetic complications, including neurodegeneration and cancer. We conclude with the thought that diabetes modeling in Drosophila could prove beneficial in large-scale screening of drugs for diabetes and its complications.</t>
+  </si>
+  <si>
+    <t>10.1016/j.oraloncology.2025.107816</t>
+  </si>
+  <si>
+    <t>Oral squamous cell carcinoma (OSCC) is a large source of cancer-related morbidity in India especially when it involves the tongue and the buccal mucosa. Despite the fact that TNM staging provides a global framework, regional patterns of metastasis, comorbidity interaction and concordance between imaging and pathology are not uniformly represented. This study will investigate nodal disease patterns in a group of people in the Delhi National Capital Region (NCR) and will suggest more specific treatments. The research aims to facilitate early diagnosis and intervention pathways and to reduce inequality in healthcare service provision. Twenty patients with OSCC who had been diagnosed between 2023 and 2025 were the subjects of a retrospective study conducted on tertiary oncology centres in Delhi NCR. Inclusion criteria were confirmation of primary OSCC of the tongue or buccal mucosa, availability of PET -CT or MRI images, full TNM staging, and comorbidity information. Data visualization included heatmaps, scatter plot, cluster diagram and radar charts. Along with the imaging concordance, tumour site, the size of the lesion, nodal involvement, and the burden of comorbidity were evaluated. Bilateral nodal involvement was higher in the Tongue OSCC, mostly at Level II and III, but the tumours of the buccal mucosa were mostly limited to Level Ib unilateral. Nodal burden was much higher in lesions of around 3.5&amp;#xa0;cm. Comorbidities (diabetes and chronic kidney disease) were also related to higher FDG uptake and necrosis, but the relationships were not statistically significant. PET-CT had 85 percent agreement with the pathology of the surgery. The decision of treatment was based on the staging with surgery being the preferred treatment option in early disease and chemoradiation in advanced ones. The site and size of tumour have a significant impact on nodal dissemination in OSCC. Bilateral neck dissection can be a wise option in case of early tongue lesions involving the midline but selective unilateral dissection is adequate in selecting cases involving the buccal lesions. It is necessary to couple comorbidity profiling with imaging results when planning pre-treatment. In this study, health systems, health equity, and collaborative oncology care are strengthened.</t>
+  </si>
+  <si>
+    <t>10.1371/journal.pone.0338599</t>
+  </si>
+  <si>
+    <t>This systematic review and meta-analysis aimed to estimate the prevalence of metabolic syndrome (MetS) among Iranian postmenopausal women by addressing inconsistencies in prior research and providing reliable data to inform evidence-based policies for reducing Iran's MetS burden. Medline/PubMed, Scopus, Embase, Web of Science, Google Scholar, IMEMR, SID, MagIran, ISC, IranDoc/Ganj, Civilica, and RPIS were searched from their dates of inception until April 2025. The quality of the evidence was assessed using the Joanna Briggs Institute critical appraisal checklist. The prevalence of MetS was calculated using the random effects model using Stata version 17. Additionally, sensitivity analysis, subgroup analysis, meta-regression, and publication bias were assessed. The protocol is registered in PROSPERO, number CRD420251039469. A total of 24 papers were enrolled, comprising 17,281 postmenopausal participants with a pooled estimate of 58.42% (95%CI: 52.35-64.48, I2: 98.59%, Q: 836.97) MetS among Iranian postmenopausal females. The prevalence of MetS was 64.10%, 47.01%, 63.24%, and 50.16% in high-quality, medium-quality, population-based, and institutional-based studies, respectively. Moreover, meta-regression and subgroup analyses demonstrated study quality, study setting, and age as considerable sources of heterogeneity. This study highlights a high prevalence of MetS (&amp;#x2248;58.5%) among Iranian postmenopausal women, with even greater estimates in high-quality and population-based studies, which underscores a significant public health concern. Given this substantial burden, routine screening for MetS components should be integrated into standard care for postmenopausal women, complemented by public health initiatives targeting lifestyle modifications and broader preventive strategies.</t>
+  </si>
+  <si>
+    <t>10.1007/s11306-025-02386-1</t>
+  </si>
+  <si>
+    <t>The early detection of cancer remains a critical challenge in clinical oncology, with significant implications for patient survival rates and treatment outcomes. Research focus has shifted to developing minimally invasive diagnostic approaches for cancer detection and prognosis, such as metabolomic analysis of biological fluids and tumour-derived components, including extracellular vesicles (EVs). EVs carry molecular cargo, including metabolites, that reflect the pathophysiological state of their cell of origin. Analysis and characterisation of these metabolites may offer novel insights into cancer biology and facilitate the identification of potential biomarkers. This review systematically examines existing literature on the metabolomic analysis of EVs in the context of cancer to obtain a deeper understanding of potential metabolite biomarkers associated with cancer. A comprehensive search of PubMed, Scopus, and Web of Science was conducted using a defined strategy to identify studies analysing EV-derived metabolites in cancer. Twelve eligible studies were included, collectively reporting 1,602 identified metabolites across various cancer types, sample sources, EV isolation methods, and metabolomic techniques. Of these, 333 metabolites were reported to be differentially regulated in EVs derived from patients with cancer, or conditioned medium from cancerous cell lines and their respective healthy controls. The review highlights the potential of EV metabolomics to detect cancer biomarkers but also underscores methodological variability as a major limitation. Differences in isolation and analytical techniques likely contribute to inconsistent findings, emphasising the need for standardised protocols in future research.</t>
+  </si>
+  <si>
+    <t>10.1007/s13679-025-00676-2</t>
+  </si>
+  <si>
+    <t>Myosteatosis, defined as the pathological accumulation of fat within skeletal muscle, has emerged as a critical yet underrecognized feature of muscle aging and metabolic dysregulation. Despite its growing clinical relevance, the field remains constrained by fragmented definitions, heterogeneous diagnostic criteria, and limited mechanistic understanding, all of which hamper effective detection and intervention. This review synthesizes current evidence to delineate the epidemiological landscape and clinical ramifications of myosteatosis across organ systems, and to highlight emerging myokine-driven endocrine signaling, biomarker candidates, and diagnostic strategies. Population-level studies increasingly implicate myosteatosis in impaired mobility, heightened morbidity, and poor survival in chronic disease contexts. Susceptibility is influenced by age, sex, ethnicity, and genetic background, while pathological integration with sarcopenia, cardiometabolic dysfunction, malignancy, and systemic frailty is becoming evident. Additionally, dysregulated myokine-mediated endocrine signaling and altered muscle-adipose crosstalk are increasingly recognized as adjunct pathological signatures of myosteatosis, with potential relevance to its progression and metabolic complications. Advances in diagnostic strategies, including quantitative imaging modalities and circulating biomarkers, alongside ongoing progress toward laboratory determinants and assay standardization, have begun to refine disease characterization and translational potential, though consensus remains limited. Myosteatosis is a modifiable disease trait that bridges muscle quality decline with systemic metabolic risk. By outlining unresolved challenges and future research priorities, this review aims to reframe myosteatosis as a targetable axis in precision medicine, with implications for risk stratification, therapeutic development, and improved clinical outcomes.</t>
+  </si>
+  <si>
+    <t>10.1007/s11102-025-01587-0</t>
+  </si>
+  <si>
+    <t>This study aims to evaluate the clinical utility of minimally invasive intraoperative ultrasound as a real-time imaging adjunct during endoscopic endonasal pituitary adenoma surgery. The goal is to determine its effectiveness in tumor localization, identification of critical structures, and detection of residual tumor tissue. A retrospective analysis was conducted on 22 patients who underwent endoscopic endonasal pituitary surgery with intraoperative ultrasound at our institution from August 2024 to June 2025. The ultrasound probe was used before dural opening to identify the tumor, normal gland, and adjacent structures, including the internal carotid artery (ICA). After tumor resection, ultrasound was employed to assess residual tumor. Clinical and surgical outcomes, including extent of resection and perioperative complications, were reviewed. Intraoperative ultrasound enabled clear visualization of the tumor-normal gland interface in both solid and cystic macroadenomas, facilitating safe and precise resection. The technique aided in identification of the ICA during cavernous sinus invasion, reducing vascular injury risk. In cases where tumors were not visible on preoperative magnetic resonance imaging (MRI), intraoperative ultrasound successfully detected the lesions, allowing targeted resection. Gross total resection (GTR) was achieved in 86.4% of cases. The median follow-up was 8 months (range, 3-13 months). There were no new postoperative hormonal deficits. Transient diabetes insipidus occurred in three cases, and all resolved within three months. Intraoperative ultrasound provides real-time, high-resolution imaging that enhances the precision and safety of endoscopic pituitary surgery. The technique is particularly valuable for tumor localization, identification of critical neurovascular structures, and detection of residual tumor tissue. Further studies are warranted to validate a broader applicability and refine its role in differentiating tumor from normal gland tissue.</t>
+  </si>
+  <si>
+    <t>10.1093/ejendo/lvaf248</t>
+  </si>
+  <si>
+    <t>All pheochromocytomas (PCCs) have metastatic potential, and inoperable cases often resist multidisciplinary treatment. Pheochromocytomas are broadly divided into cluster 1 (hypoxia signaling) and cluster 2 (kinase pathway). Ferroptosis, a regulated form of cell death driven by iron-dependent lipid peroxidation, is induced under hypoxia and may target therapy-resistant malignancies. However, its relevance in PCCs remains entirely unknown. We therefore examined the characteristics of PCCs prone to ferroptosis and evaluated their potential as a therapeutic target. We performed a retrospective and experimental study to characterize ferroptosis in PCCs and evaluate its clinical significance. We assessed ferroptosis sensitivity and characterized the induction and execution mechanisms in primary cultured cells derived from resected PCCs. The clinical significance of ferroptosis was examined using both 53 PCC tumors and transcriptomic and genetic data from the Gene Expression Omnibus (GEO) database. To investigate the tumor-suppressive function of ferroptosis inducers, a xenograft model was established using PC12 cells treated with dimethyl sulfoxide (DMSO) or ferroptosis inducers. Ferroptosis susceptibility varied among PCCs. Ferroptosis-prone cells showed elevated intracellular Fe2+ levels and upregulation of genes involved in Fe2+ accumulation. Analysis of the 53 PCC tumors and GEO data revealed that cases with higher ferroptosis marker expression were more frequently observed in younger patients and were enriched in cluster 1 genotypes. Cluster 1 mutations and hypoxia were associated with transferrin receptor (TFRC) upregulation, enhancing extracellular iron uptake and facilitating ferroptosis. In contrast, cluster 2 tumors relied on ferritinophagy and heme degradation, suggesting reliance on intracellular iron pools. Importantly, ferroptosis inducers markedly reduced tumor volume in xenografts, underscoring their therapeutic potential. Exploiting mutation-specific dysregulation of iron metabolism to trigger ferroptosis may provide a novel therapeutic strategy for therapy-resistant pheochromocytomas.</t>
+  </si>
+  <si>
+    <t>10.7554/eLife.103705</t>
+  </si>
+  <si>
+    <t>Pyruvate occupies a central node in carbohydrate metabolism such that how it is produced and consumed can optimize a cell for energy production or biosynthetic capacity. This has been primarily studied in proliferating cells, but observations from the post-mitoticfat body led us to hypothesize that pyruvate fate might dictate the rapid cell growth observed in this organ during development. Indeed, we demonstrate that augmented mitochondrial pyruvate import prevented cell growth in fat body cells in vivo as well as in cultured mammalian hepatocytes and human hepatocyte-derived cells in vitro. We hypothesize that this effect on cell size was caused by an increase in the NADH/NADratio, which rewired metabolism toward gluconeogenesis and suppressed the biomass-supporting glycolytic pathway. Amino acid synthesis was decreased, and the resulting loss of protein synthesis prevented cell growth. Surprisingly, this all occurred in the face of activated pro-growth signaling pathways, including mTORC1, Myc, and PI3K/Akt. These observations highlight the evolutionarily conserved role of pyruvate metabolism in setting the balance between energy extraction and biomass production in specialized post-mitotic cells.</t>
+  </si>
+  <si>
+    <t>10.1177/14034948251365171</t>
+  </si>
+  <si>
+    <t>Non-communicable diseases (NCDs), including cancer, cardiovascular diseases, diabetes, and chronic respiratory diseases, are responsible for 74% of deaths worldwide (2019). In Europe, they account for over 91% of deaths and 87% of disability-adjusted life years (DALYs). Mental disorders, also considered NCDs, rank seventh globally in terms of DALYs. These burdens are exacerbated by socioeconomic and educational inequalities that shape the distribution of risk factors and cause preventable disparities in health and mortality. This article presents the new Joint Action on Cancer and other NCDs (JA-PreventNCD), outlining its objectives and methodological strategies to tackle inequalities in Europe. The JA-PreventNCD started in January 2024. It was launched under the EU4Health Programme for the period of 2021-2027, with a specific focus on social inequalities. Over its four-year span, the initiative will: (1) collect evidence on inequalities in major NCDs and their risk factors; (2) review policies targeting these disparities; (3) provide training based on an equity lens approach; (4) enhance health literacy through multi-level activities. .</t>
+  </si>
+  <si>
+    <t>10.1002/lary.70315</t>
+  </si>
+  <si>
+    <t>Loss of independence (LOI) is a key concern after head and neck cancer (HNC) surgery, yet its predictors remain unclear. This study aimed to identify perioperative and postoperative factors linked to LOI in geriatric HNC patients. We conducted a retrospective cohort study using 2021-2023 ACS-NSQIP data. Patients aged &amp;#x2265;&amp;#x2009;75&amp;#x2009;years who underwent HNC surgery with preoperative and discharge functional status data were included. The primary outcome was LOI, defined as a decline in functional status at discharge compared to baseline. Logistic regression was used to identify independent predictors of LOI. Among 4290 patients, 471 (10.9%) experienced LOI. LOI was associated with diabetes (p&amp;#x2009;=&amp;#x2009;0.001), metastatic disease (p&amp;#x2009;=&amp;#x2009;0.037), smoking (p&amp;#x2009;=&amp;#x2009;0.001), dementia (p&amp;#x2009;&lt;&amp;#x2009;0.0001), and falling within 6 months (p&amp;#x2009;&lt;&amp;#x2009;0.0001). Longer operative times (mean 320.89 vs. 63.68&amp;#x2009;min, p&amp;#x2009;&lt;&amp;#x2009;0.0001) and hospital stays &amp;#x2265;&amp;#x2009;2&amp;#x2009;days (p&amp;#x2009;&lt;&amp;#x2009;0.0001) were associated with LOI. Overweight and obese patients had lower odds of LOI (OR: 0.75, 95% CI: [0.57, 0.98]; OR: 0.70, 95% CI: [0.52, 0.95]). Operative time &gt;&amp;#x2009;5&amp;#x2009;h (OR: 1.66, 95% CI: [1.1-2.35]) and length of stay &amp;#x2265;&amp;#x2009;2&amp;#x2009;days (OR: 2.13, 95% CI: [1.48-3.07]) were associated with LOI. Surgical procedures linked to higher odds included free flap (OR: 1.89, 95% CI: [1.70-8.39]), laryngeal resection (OR: 3.99, 95% CI: [1.40-11.34]), neck dissection (OR: 2.78, 95% CI: [1.29-5.99]), regional flap (OR: 3.85, 95% CI: [1.80-8.27]), and total glossectomy (OR: 2.65, 95% CI: [1.02-6.86]). Identifying patients at risk for LOI may guide surgical decision-making in older adults undergoing HNC surgery.</t>
+  </si>
+  <si>
+    <t>10.1080/17568919.2025.2594964</t>
+  </si>
+  <si>
+    <t>Liver cancer, which originates from hepatocytes, ranks among the most commonly diagnosed cancers and stands as a leading cause of cancer-related deaths, primarily due to late diagnosis and its rapid progression. Liver cancer, especially metastatic liver tumors, often relies on chemotherapy. Still, drug resistance driven by the overexpression of efflux pumps, reduced systemic drug exposure due to hepatic metabolism, low efficacy, and high toxicity creates an urgent need to explore novel chemotherapeutic agents. Hydroxamic acid serves as the zinc-binding group (ZBG) in most histone deacetylase (HDAC) inhibitors and is an important anti-liver cancer pharmacophore. Hydroxamic acid hybrids harness the epigenetic potency of hydroxamic acid through modular pharmacophore integration, providing multitarget efficacy, resistance overcoming, and therapeutic versatility, and thus represent promising candidates for next-generation liver cancer therapies.</t>
+  </si>
+  <si>
+    <t>41399833</t>
+  </si>
+  <si>
+    <t>In recent decades, cardiovascular diseases (coronary heart disease, arterial hypertension, arrhythmias, dyslipidemia, etc.) and prostate cancer remain quite frequent causes of incidence and mortality. Previously, the results have been obtained, according to which the development of PCa mainly takes place in men, who are characterized by low sexual activity throughout life, in connection with which there is a need to clarify the relationship between the CVD and PCa. Determine the frequency of the diagnosis of CVD in hyposexual men undergoing brachytherapy. The study includes 148 men (group I) aged 68 [64; 72] with the first diagnosis of prostate cancer (PCa) T1C-2CN0M0, subject to brachytherapy, and 99 men (II group) at the age of 67 years [62; 72] The diagnosis of prostate hyperplasia (PH).Diagnostics of PCa and PH was carried out in accordance with the current clinical recommendations of RUA and ROUA. All patients independently filled the Rostov questionnaire at an integral assessment of male sexuality [15]. The diagnosis of related cardiovascular diseases and conditions was carried out according to the clinical recommendations of the RCS. The level of general testosterone in the blood serum was determined on the automatic immunochemistiluminated analyzer "Advia CentAur XP" (Siemens). Almost half of men (50.7%) from the group had a reduced ( less or equal 12.0 nmol/l) level of general blood testosterone and low sexuality. In patients with RPGs, angina pectoris, dyslipidemia, extrasystole and bradyarrhythmia (p &lt;0.05) are reliably more common. And patients with PH significantly more often suffer from common atherosclerosis, atherosclerosis of aorta and coronary arteries, chronic heart failure, tachyarrhythmias, obesity, have acute cerebrovascular accident, stenting of coronary arteries/ aorto-coronary noise (p &lt;0.05). As it turned out, there are no differences in the frequency of coronary heart disease, myocardial infarction, diabetes mellitus, hypertension, atherosclerosis of brachiocephalic arteries for PCa and PH. With angina pectoris, the chances of the availability of PCa than the PH, 2.7 times higher compared to the absence of angina pectoris. With dyslipidemia, the chances of the presence of a diagnosis of prource are higher than 3.8 times. With bradyarrhythms and extrasystoles, the chances of the presence of PCa, not PH, are also significantly increased, but the growth intensity is difficult to accurately assess, since there are no data from the CVD in the group of patients with PCa. In chronic heart failure, the chances that the patient has a PH, not PCa, is 2.8 times higher than the lack of chronic heart failure. The presence of the rest of the CVD (percutaneous stenting of coronary arteries/aorto-coronary bypassing and a history of cerebral circulation in the history of cerebral circulation, atherosclerosis, including aorta and coronary arteries, tachyarrhythms) and obesity increases the chances that the patient will have a diagnosis of PH, and not PCa. As for the level of general testosterone of blood, hyposexual men with PCa do not have its reliable effect on the frequency of SVD. Identification of the frequency of a wide range of CVD for PCa showed a strong relationship for some and low communication for other CVD. Moreover, the comparison of the connection of the CVD with PCa and PH confirms more differences in these connections than similarities. The study of the mechanisms of the communication of CVD with PCa promising in terms of influence on individual factors of a young man in order to reduce the risks of the development of PCa.</t>
+  </si>
+  <si>
+    <t>10.70352/scrj.cr.25-0514</t>
+  </si>
+  <si>
+    <t>Capivasertib, a protein kinase B (AKT) inhibitor, has demonstrated robust efficacy against hormone receptor-positive, human epidermal growth factor receptor type 2-negative advanced breast cancer, particularly in patients with AKT pathway mutations. However, serious metabolic complications such as hyperglycemia and diabetic ketoacidosis (DKA) have been reported. This case report describes capivasertib-induced hyperglycemia to support the development of safe treatment and monitoring strategies. The case is notable because early detection and timely intervention following the rapid onset of grade 4 hyperglycemia resulted in a favorable clinical course without long-term glycemic complications. A 69-year-old woman without diabetes developed grade 4 hyperglycemia (522 mg/dL) on day 2 after receiving capivasertib in combination with fulvestrant therapy. Pretreatment glucose tolerance test results were normal. Continuous insulin infusion was promptly initiated in response to the rapid increase in blood glucose levels to prevent ketosis. Her blood glucose levels improved within half a day, and she was discharged on day 6. She did not require further insulin or hypoglycemic agents thereafter. Inpatient glucose monitoring enabled prompt detection of rapid glucose elevation and early intervention before the onset of DKA, resulting in a favorable outcome. Further clinical evidence is required to define optimal intervention strategies for grade 4 hyperglycemia associated with capivasertib therapy.</t>
+  </si>
+  <si>
+    <t>10.7150/ijms.119968</t>
+  </si>
+  <si>
+    <t>Polycystic ovary syndrome (PCOS) is a common endocrine disorder affecting approximately 10% of middle-aged women worldwide. The main clinical features of PCOS include hirsutism, anovulation, irregular menstruation, and polycystic ovaries. However, the exact etiology and underlying mechanisms of PCOS remain incompletely understood. Increasing evidence suggests that a variety of factors-including environmental toxins, chronic low-grade inflammation, oxidative stress, and dysregulated insulin secretion-are involved in the onset and progression of PCOS. Additionally, abnormalities in neurotransmitter metabolism play a significant role in the pathophysiology of PCOS, particularly in relation to weight gain, hyperandrogenemia, and mood disorders. Patients with PCOS often exhibit neuroendocrine system dysfunction, characterized by altered levels of neurotransmitters such as serotonin, norepinephrine, and dopamine. These changes are closely associated with clinical symptoms such as anxiety, depression, obesity, and metabolic disturbances. Current treatment strategies for PCOS primarily focus on lifestyle modifications and pharmacological interventions. These include dietary changes, nutritional supplementation, physical activity, and ovulation induction, all aimed at alleviating symptoms and improving quality of life. Notably, interventions targeting neurotransmitter metabolism are emerging as a novel area of research. The use of antidepressants, anxiolytics, and insulin-sensitizing agents has shown potential in alleviating symptoms and regulating neuroendocrine function. Furthermore, PCOS is significantly associated with metabolic dysfunction, particularly in hormone metabolism, lipid metabolism, and glucose metabolism, which exacerbates the risk of obesity, hyperandrogenemia, and type 2 diabetes. Therefore, understanding alterations in neurotransmitter metabolism and developing new therapeutic strategies may offer novel perspectives and intervention approaches for the diagnosis and treatment of PCOS.</t>
+  </si>
+  <si>
+    <t>10.1071/HC25174</t>
+  </si>
+  <si>
+    <t>General practitioners with special interests (GPwSIs) and extended roles (GPwERs) have been developed internationally to expand access to specialist expertise and relieve secondary care pressure, but their implementation and evaluation in Aotearoa New Zealand (NZ) remain unexplored. This scoping review mapped the roles, service models, and clinical applications of GPwSIs/GPwERs in NZ. An online search was conducted across PubMed, Scopus, CINAHL, and Google Scholar for literature published up to July 2025. The review followed PRISMA-ScR guidelines and included peer-reviewed publications focused on GPwSI/GPwER roles in NZ. Five studies met the inclusion criteria, all of which were retrospective clinical audits conducted between 2007 and 2019. Three were comparative studies, and two were single-practitioner audits. Two studies focused on skin cancer excision, while the remaining addressed diabetes care, varicose vein treatment, and public otolaryngology services. The skin cancer studies, conducted a decade apart (2007 and 2017), reported improved malignant lesion diagnosis by GPwSIs compared to other vocational specialists (general practitioners and surgeons). The GPwSI otolaryngology model demonstrated greater efficiency and effectiveness than standard hospital outpatient clinics. Diabetes and varicose vein audits, both single-practitioner audits, found improved effectiveness and safe clinical outcomes. This review identified a limited body of literature describing GPwSI /GPwER roles in NZ. The findings highlight variation in role implementation, service models, and outcome reporting. Further research is needed to examine the breadth, consistency, sustainability, and potential benefits and unintended impacts of these extended general practice roles within the NZ health system.</t>
+  </si>
+  <si>
+    <t>10.1002/ccd.70420</t>
+  </si>
+  <si>
+    <t>Coronary angiography is the gold standard for assessing coronary artery disease (CAD), while the SYNTAX score (SxS) quantifies lesion complexity. Its prognostic value across clinical settings remains uncertain. This study compared angiographic findings in stable angina and acute coronary syndrome (ACS) using the SxS. A prospective study was conducted at Shaikh Zayed Hospital, Lahore, over 12 months, including 156 patients undergoing coronary angiography: stable angina (n&amp;#x2009;=&amp;#x2009;78) and ACS (n&amp;#x2009;=&amp;#x2009;78). Patients aged 18-80 years undergoing primary PCI or elective angiography were included, excluding prior PCI or CABG. Demographic and clinical data were collected, and SxS was applied post-angiography. Data were analyzed using SPSS v.25, with p&amp;#x2009;&amp;#x2264;&amp;#x2009;0.05 considered significant. A total of 156 patients were enrolled (71.2% male; mean age 59.2&amp;#x2009;&amp;#xb1;&amp;#x2009;10.6 years, BMI 27.2&amp;#x2009;&amp;#xb1;&amp;#x2009;3.5&amp;#x2009;kg/m&amp;#xb2;), equally divided into stable angina (n&amp;#x2009;=&amp;#x2009;78) and ACS (n&amp;#x2009;=&amp;#x2009;78). The overall mean SxS was 26.1&amp;#x2009;&amp;#xb1;&amp;#x2009;11.3. Comparison between groups showed no significant differences in age, BMI, sex distribution, smoking, hypertension, or diabetes (all p&amp;#x2009;&gt;&amp;#x2009;0.05). However, dyslipidemia was more prevalent in ACS patients (p&amp;#x2009;&lt;&amp;#x2009;0.05), and the mean SxS was significantly higher in ACS versus stable angina (28.2&amp;#x2009;&amp;#xb1;&amp;#x2009;9.9 vs. 23.8&amp;#x2009;&amp;#xb1;&amp;#x2009;12.4; p&amp;#x2009;=&amp;#x2009;0.01), indicating greater angiographic complexity. The higher SxS in ACS patients indicated greater angiographic complexity, consistent with prior studies. Scores were also significantly elevated in patients with diabetes and hypertension, supporting the score's prognostic value in CAD stratification. However, the absence of clinical variables limits risk prediction. The single-center design, small sample size, lack of adjusted analyses, and absence of long-term outcomes further constrain generalizability, warranting validation in larger multicenter cohorts. The SxS was significantly higher in ACS than stable angina, supporting its role in guiding management, particularly in patients with comorbidities. Larger multicenter studies are needed to validate its prognostic utility.</t>
+  </si>
+  <si>
+    <t>10.1186/s40001-025-03628-7</t>
+  </si>
+  <si>
+    <t>The De Ritis ratio (AST/ALT) has emerged as a potential biomarker for metabolic dysfunction, but its association with mortality in individuals with diabetes or prediabetes remains inadequately explored. This study investigated the relationship between the De Ritis ratio and mortality in this population. We analyzed data from 23,873 participants with diabetes or prediabetes from the National Health and Nutrition Examination Survey (NHANES) 1999-2018. Participants were stratified into quartiles based on De Ritis ratio values. Cox proportional hazards regression models were employed to assess mortality risk, adjusting for demographic, lifestyle, and clinical factors. Restricted cubic spline (RCS) analysis examined potential non-linear relationships. During follow-up through December 2019, higher De Ritis ratios were associated with increased mortality risk. In fully adjusted models, the highest quartile showed significantly elevated risks for all-cause mortality (HR: 1.79, 95% CI 1.56-2.05) and CVD mortality (HR: 1.66, 95% CI 1.30-2.12) versus the lowest quartile. Each SD increase in De Ritis ratio corresponded to 26% and 28% increased risks for all-cause and CVD mortality, respectively. The association remained linear across examined values, with the De Ritis ratio showing superior predictive performance compared to individual liver enzymes. Elevated De Ritis ratio is independently associated with increased all-cause and CVD mortality in individuals with diabetes or prediabetes, suggesting its potential utility as a prognostic biomarker for clinical risk stratification.</t>
+  </si>
+  <si>
+    <t>10.1038/s42003-025-09322-y</t>
+  </si>
+  <si>
+    <t>The novel long non-coding RNA (lncRNA) Leat1 is extraordinarily conserved in both its location (syntenic with EfnB2, an essential gene in anogenital patterning) and sequence. Here we show that Leat1 is upregulated following the production of testosterone from the developing testis in mice and interacts with EfnB2, positively regulating its expression. Leat1 expression is suppressed by estrogen, which in turn suppresses the expression of EfnB2. Moreover, the loss of Leat1 leads to reduced EfnB2, resulting in a severe hypospadias phenotype. The human LEAT1 gene is also co-expressed with EFNB2 in the developing human penis, suggesting a conserved function for this gene in urethral closure. Together our data identify Leat1 as a novel molecular regulator of urethral closure and implicate it as a target of endocrine disruption in the etiology of hypospadias.</t>
+  </si>
+  <si>
+    <t>10.1007/s00125-025-06631-z</t>
+  </si>
+  <si>
+    <t>Type 2 diabetes has been associated with increased risk of colorectal cancer (CRC), but the specific diabetogenic pathways contributing to this risk remain unclear. We analysed individual-level data from 129,420 participants of European ancestry in the Genetics and Epidemiology of Colorectal Cancer Consortium (GECCO) and the Colon Cancer Family Registry (CCFR), comprising 58,531 patients with CRC and 70,889 control participants. We applied eight validated partitioned polygenic scores (PPSs) representing distinct diabetogenic processes: two related to relative insulin secretion insufficiency and six to insulin resistance with varying degrees of preserved insulin secretion. Adjusted ORs and 95% CIs for CRC and early-onset CRC were estimated using conditional logistic regression. PPSs reflecting insulin resistance-linked hyperinsulinaemia, particularly those related to lipodystrophy, body fat and obesity, were associated with higher odds of CRC (p&lt;0.001 for each). Compared with individuals in the lowest decile, those in the highest decile had ORs of 1.09 (95% CI 1.05, 1.14), 1.13 (1.09, 1.18) and 1.15 (1.10, 1.20) for lipodystrophy, body fat and obesity, respectively. In contrast, PPSs for insulin secretion insufficiency or insulin resistance without hyperinsulinaemia were not associated with CRC. The obesity-related hyperinsulinaemic insulin resistance PPS was also associated with higher odds of early-onset CRC (OR for top vs bottom decile=1.26; 95% CI 1.13, 1.41), with the strongest association among those with obesity (OR 1.75; 95% CI 1.46, 2.11; p value for interaction with BMI &lt;0.001). Diabetogenic processes characterised by insulin resistance-linked hyperinsulinaemia were associated with increased odds of CRC, including early-onset disease. These findings offer new insights into diabetes-CRC pathogenesis, and may inform targeted prevention strategies.</t>
+  </si>
+  <si>
+    <t>10.1002/jhbp.70050</t>
+  </si>
+  <si>
+    <t>Continuous glucose monitoring (CGM) is increasingly used for glycemic control, but its role after total pancreatectomy (TP) in pancreatogenic diabetes mellitus (PDM) is understudied. This study evaluated postoperative CGM utility in this population. Thirty-seven TP patients (2022-2024) at Seoul National University Hospital were grouped by CGM use (CGM users&amp;#x2009;=&amp;#x2009;11) and analyzed for baseline and perioperative diabetes-related factors. In a preoperative non-diabetic subgroup (n&amp;#x2009;=&amp;#x2009;10, CGM users&amp;#x2009;=&amp;#x2009;6), pre- and postoperative hemoglobin A1c (HbA1c) was compared by CGM use. For consenting CGM users, changes in time in range (TIR), time above range (TAR), and time below range (TBR) from 1 to 3&amp;#x2009;months postoperatively were analyzed. CGM users had lower postoperative HbA1c than non-users overall (6.5% vs. 8.0%; p&amp;#x2009;&lt;&amp;#x2009;0.001) and in non-diabetics (6.0% vs. 7.4%; p&amp;#x2009;=&amp;#x2009;0.002). Among 80% sharing CGM data, TIR increased from 62.6% at 1&amp;#x2009;month to 71.8% at 3&amp;#x2009;months (p&amp;#x2009;=&amp;#x2009;0.035), TAR decreased from 36.3% to 26.6% (p&amp;#x2009;=&amp;#x2009;0.037), and TBR was unchanged. Proactive CGM use may improve postoperative glycemic management in PDM after TP by increasing awareness of glycemic patterns, resulting in lower HbA1c and greater time in the target range.</t>
+  </si>
+  <si>
+    <t>10.1186/s12875-025-03064-w</t>
+  </si>
+  <si>
+    <t>Non-Communicable Diseases (NCDs) disproportionately affect marginalized populations, often due to delayed diagnosis and poor continuity of care. "Makkalai Thedi Maruthuvam" (MTM), a state-led initiative in Tamil Nadu, India, delivers home-based screening and care services for NCDs, aiming to overcome access barriers and promote equity. This study evaluates the program's performance in delivering NCD care across key steps of the care cascade. A cross-sectional household survey was conducted across all 38 districts in Tamil Nadu, covering 6,856 adults aged&amp;#x2009;&amp;#x2265;&amp;#x2009;30 years through multi-stage cluster sampling. Data on screening, diagnosis, treatment, and control of diabetes, hypertension, and cancers were collected using handheld digital tools. Descriptive and inferential statistics were used to assess equity across gender, location, caste, and socioeconomic status. Screening coverage for diabetes and hypertension was 79.4% and 82.6%, respectively, with over two-thirds of services delivered by MTM field staff. While over 95% of diagnosed patients were on treatment, control rates remained low (9.8% for diabetes; 35.4% for hypertension). Cancer screening coverage was substantially lower, with notable disparities across caste and economic groups. Rural and SC/ST communities had greater program reach, but urban areas and male populations lagged. Approximately 30% of patients shifted from private to public care within one year. MTM has significantly improved access to NCD care among marginalized populations through a community-based implementation model. However, challenges remain in ensuring equitable cancer screening, improving urban outreach, and achieving disease control. The study underscores the importance of community health workers and doorstep strategies in advancing health equity through primary care systems.</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-025-67169-7</t>
+  </si>
+  <si>
+    <t>The contribution of chemotherapy-induced tissue injury to individual susceptibility to metastasis remains largely unexplored. We report that chemotherapy indirectly prevents colorectal cancer (CRC) liver metastases by inducing a lasting systemic "chemomemory". Chemotherapy-induced intestinal mucositis alters nutrient availability, promoting the expansion of tryptophan-metabolizing bacteria and production of the microbial metabolite indole-3-propionic acid (IPA). IPA reprograms bone marrow myelopoiesis by redirecting common myeloid progenitor fate toward the macrophage lineage, limiting generation of immunosuppressive Ly6CCCR2monocytes. This shift enhances CD4&amp;#x2009;+&amp;#x2009;T cell antitumor function by promoting Th1 differentiation and spatially reorganizing CD8+ and CD4&amp;#x2009;+&amp;#x2009;T cell interactions within the metastatic microenvironment. In a subset of CRC patients, circulating IPA levels increase after chemotherapy and inversely correlate with monocyte abundance, while high monocyte levels were associated with reduced survival. Our findings reveal that chemotherapy-induced intestinal injury normalizes pathological myelopoiesis through a microbiota-derived metabolite and identify IPA as a potential adjuvant to counteract monocyte-driven immunosuppression and metastasis.</t>
+  </si>
+  <si>
+    <t>10.1016/j.cellsig.2025.112324</t>
+  </si>
+  <si>
+    <t>Aldo-keto reductase 1B1 (AKR1B1) is a highly conserved, NADPH-dependent oxidoreductase that plays pivotal roles across multiple metabolic pathways. Although mounting evidence highlights its diverse contributions to disease progression and its potential as a therapeutic target, the literature remains fragmented with respect to how AKR1B1's metabolic functions intersect with pathogenesis. This review article summarizes the key metabolic functions of AKR1B1 under physiological conditions and discusses its pathological involvement in a spectrum of disorders, including diabetic complications, inflammatory diseases, and cancer. In addition, we review the progress of clinical research on AKR1B1 inhibitors over the past two decades, outlining the achievements and persistent challenges. By integrating insights from metabolism and diseases, this work provides a foundation and inspires new research efforts to advance the understanding of AKR1B1.</t>
+  </si>
+  <si>
+    <t>10.1016/j.amjmed.2025.12.010</t>
+  </si>
+  <si>
+    <t>10.1016/j.joms.2025.11.013</t>
+  </si>
+  <si>
+    <t>Implant-retained auricular prostheses are a well-established reconstructive option for patients with facial defects resulting from congenital anomalies, trauma, or oncologic resections. Most temporal implants are 3.0 to 4.0 mm in length. Longer implants could result in improved implant survival, but risk mastoid cell perforation. The study purpose was to measure the association of implant mastoid cell perforation and implant survival. A retrospective cohort study was conducted, including all patients treated with temporal endosseous implants at the University Hospital of Ghent between January 1, 1994, and July 31, 2024, with at least 1 postoperative computed tomography scan and minimal follow-up of 1 postoperative consultation. Patients were excluded if the available computed tomography scans were of insufficient quality or if patients were lost to follow-up. The predictor variable was temporal implant perforation into the mastoid air cells, coded as yes or no. The outcome variable was implant survival defined as the time between implant placement and implant loss, implant removal, or last consultation. The covariates were age, sex, smoking, diabetes, radiotherapy, and reason of deformity. Cox proportional hazards regression analyses were performed to assess the association between implant perforation into the mastoid air cells and implant survival, accounting for clustering of multiple implants within the same subject. A significance level of P &amp;#x2264; .05 was considered statistically significant. The sample was composed of 22 subjects, with a mean age of 50 years (range 10 to 93, SD 24), of which 16 subjects were (73%) males. A total of 46 implants were placed, of which 10 (22%) implants failed, resulting in a 1-year failure rate of 87% (95% CI, 85 to 88%). The median follow-up was 21 months (interquartile range = 108.5). No association was found between mastoid cell perforation and implant survival (hazard ratio 0.31; 95% CI, 0.06 to 1.60; P = .2). Higher age was associated with an increased risk of implant failure over time (hazard ratio 1.10; 95% CI, 1.03 to 1.17; P = .006). Mastoid air cell perforation showed no statistically significant association with implant survival. Larger prospective studies are needed to verify this result.</t>
+  </si>
+  <si>
+    <t>10.1080/17538157.2025.2596948</t>
+  </si>
+  <si>
+    <t>Diagnosis as the initial step in medical practice is one of the most significant aspects of complex clinical decision making which is convoyed by some degree of uncertainty and perplexity. With massive volumes of medical data being collected, there is an urgent need to proficiently use this healthcare data throughout the globe. Among several computational conventions, fuzzy logic conveys an appealing way to control the imprecision and uncertainty in medical data. This article includes a systematic literature review for the investigation of fuzzy logic processes utilized in a variety of medical applications which has recently been published in highly reputed journals. Using PRISMA guidelines, a total of 25 studies selected from an initial pool of 340 recognized records. This review article discusses the role of fuzzy systems in the diagnosis of a variety of diseases including breast cancer, diabetes disease, cardiovascular disease, skin cancer, coronary artery disease, brain and tumor detection, chronic liver disease, fibrosis disease, brain disease, pulmonary and asthmatic disease, diabetes mellitus, musculoskeletal disorders, hypovolaemia disease, pancreatic cancer detection, thyroid, thalassemia disease, etc. Overall, this systematic review provides a suitable foundation for future study by highlighting research requirements in the field of disease diagnostics.</t>
+  </si>
+  <si>
+    <t>10.2196/75672</t>
+  </si>
+  <si>
+    <t>One in 4 Veterans who receive care through the Veterans Health Administration has type 2 diabetes (T2D). Dietary carbohydrate restriction can promote weight loss and improve blood glucose control, but Veterans taking certain medications (eg, insulin) may experience serious complications (eg, hypoglycemia) without adequate support and monitoring. This study aims to develop and evaluate the feasibility, acceptability, and clinical effectiveness of a pilot low-carbohydrate (LC) nutrition counseling program guided by continuous glucose monitoring (CGM) for Veterans with T2D receiving insulin (ie, LC-CGM). This is a pragmatic, nonrandomized, pre-post quality improvement pilot program. Eligible patients were Veterans with T2D who were prescribed &amp;#x2265;3 daily injections of insulin. The 24-week LC-CGM program consisted of virtual visits with a registered dietitian (RD) and clinical pharmacy practitioner (CPP); CGM data were used to guide tailored nutrition counseling and de-escalation or cessation of glucose-lowering medications. To evaluate changes from baseline, intention-to-treat analyses were conducted for all enrollees, with separate analyses for program completers. Primary outcomes were program feasibility and acceptability (ie, program enrollment and completion rates and mean number of RD and CPP visits). Secondary outcomes included mean weight change, percent weight loss, achievement of &amp;#x2265;5% and &amp;#x2265;10% weight loss, change in glucose-lowering medication use, and change in laboratory measures (eg, hemoglobin A1c [HbA1c]). Program evaluation occurred from March 19, 2021, to May 3, 2024. Among 43 Veterans referred to the LC-CGM program, 38 (88%) enrolled. Most were men (37/38, 97%), white (29/38, 76%), with an average age of 63.7 (SD 9.6) years. Mean BMI and HbA1c were 38.1 (SD 5.8) kg/m2 and 7.8% (SD 1.3). Of 38 enrollees, 27 (71%) completed the program. Enrollees averaged 9.5 (SD 3.3) RD visits and 12.8 (SD 4.7) CPP visits. In intention-to-treat analyses, mean weight change was -11.5 kilograms (SD 8.7; 95% CI -14.4 to -8.6), corresponding to 9.5% weight loss (SD 7.2; 95% CI -14.9 to -4.2), with 58% (22/38) achieving &amp;#x2265;5% weight loss and 32% (12/38) achieving &amp;#x2265;10% weight loss. Overall, use of glucose-lowering medications decreased from 3.5 (SD 0.8) per patient at baseline to 2.4 (SD 0.9) per patient at 24 weeks (P&lt;.001), with 72% (26/36) of Veterans discontinuing short-acting insulin and 50% (18/36; P&lt;.001) discontinuing long-acting insulin. Use of glucagon-like peptide-1 receptor agonists increased from 39% (15/38) at baseline to 61% (23/38) at 24 weeks (P=.02). Among program completers (n=27), mean percent weight loss was -11.8% (SD 6.5) and median HbA1c decreased by 0.7% (95% CI -0.9 to -0.3; P=.001). This pilot program provides preliminary evidence that supports feasibility, acceptability, and clinical effectiveness among Veterans with T2D. Additional research is needed to rigorously test longer-term clinical and cost-effectiveness among a larger cohort of eligible Veterans.</t>
+  </si>
+  <si>
+    <t>10.2196/76811</t>
+  </si>
+  <si>
+    <t>The proinflammatory cytokine interleukin 6 (IL-6) contributes to pancreatic tumorigenesis by activating the Janus kinase (JAK)-signal transducer and activator of transcription 3 (STAT3) signaling cascade. Targeting the IL-6/glycoprotein 130 (GP130)/JAK/STAT3 axis may therefore represent a promising therapeutic approach for pancreatic adenocarcinoma. This study investigates the activation of the IL-6/GP130/JAK/STAT3 pathway in archived biopsy samples from patients with pancreatic adenocarcinoma, quantifying its expression in both tumor and stromal compartments. In addition, potential associations between pathway activation and clinical outcomes are explored, including tumor stage, patient survival, and metabolic parameters such as diabetes, use of oral antidiabetic drugs, insulin therapy, and hemoglobin A1c levels. We will conduct a retrospective cross-sectional analysis of patients with pancreatic adenocarcinoma treated at the Cantonal Hospital of Fribourg, Switzerland, between 2010 and 2025. Eligible cases are identified through tumor board records. Archived pathology specimens will be immunostained using a phospho-STAT3 antibody to assess GP130 receptor activation. The percentage of positively stained cells will be quantified separately for tumor tissue, stroma, and adjacent normal tissue using QPath software. Sample size calculations are based on the assumption that patients with higher IL-6 pathway activation have poorer prognoses. Detecting a 5% difference in activation requires 84 patients per group for 90% power or 104 per group for 95% power. Diabetes will be analyzed as a dichotomous variable, while IL-6/GP130/JAK/STAT3 activation will be treated as a continuous variable. Descriptive statistics will summarize pathway activation and clinical variables. Mean differences between groups will be compared, and survival outcomes will be evaluated using Cox proportional hazards models. Hazard ratios will be calculated for all metabolic parameters to assess potential associations between pathway activation and diabetes. All analyses will include 95% CIs, with missing data reported transparently. This project is supported by a research grant from the Cantonal Hospital of Fribourg (HFR 2/2021 and 4/2022). It was approved by the Ethics Committee of Bern, Switzerland (project 2024-01215). As of October 12, 2025, clinical records from 150 patients have been identified. Screening of additional patient records from 2024 to 2025 is ongoing. This study represents one of the first translational investigations of IL-6/GP130/JAK/STAT3 signaling in pancreatic adenocarcinoma. By correlating molecular pathway activation with clinical and metabolic features, it will provide new insights into disease heterogeneity and support the development of personalized, pathway-targeted therapeutic strategies.</t>
+  </si>
+  <si>
+    <t>10.1002/smll.202511219</t>
+  </si>
+  <si>
+    <t>Cuproptosis, a newly discovered cell death mechanism driven by cuprous ions (Cu(I)), faces challenges in achieving efficient pathway activation due to limitations in tumor cell targeting and intracellular copper accumulation. To address these, a NIR-triggered nanoplatform (Cu(I)-TA@HG) is developed for precise Cu(I) delivery to metastatic nasopharyngeal carcinoma (NPC) cells, thereby inducing potent cuproptosis. Drawing inspiration from the critical role of membrane proteins in cancer metastasis, tumor-homing nanovesicles derived from GAS6-overexpressing cell membranes (HG-CMs) are engineered. These membranes exhibit enhanced affinity for the AXL receptor, which is frequently overexpressed in metastatic NPC. The HG-CMs encapsulated cuprous-loaded nanoparticles (Cu(I)-TA), facilitating specific recognition via the GAS6-AXL axis and promoting highly targeted NPC delivery while minimizing off-target effects. Upon reaching the tumor, the Cu(I)-TA@HG can effectively trigger cuproptosis through the synergistic effect originating from the GAS6-AXL axis-directed cell targeting and TA-interfering copper ion excretion. Crucially, in vivo experiments demonstrate that this nanoplatform not only eradicates primary tumor sites but also effectively eliminates early metastatic lesions, leading to significant suppression of lung metastasis in an NPC model. This work establishes a strategic foundation for the rational design of nanotherapeutics that exploit cuproptosis for the treatment of aggressive and metastatic cancers.</t>
+  </si>
+  <si>
+    <t>10.2174/0115734064332208241015154509</t>
+  </si>
+  <si>
+    <t>The imidazole scaffold is a cornerstone in medicinal chemistry, widely recognized for its extensive range of biological activities and ability to form stable metal complexes. This review article provides a detailed overview of recent advancements in synthesizing, characterization, and biological evaluation of metal-complexed imidazole derivatives. We explored various synthetic strategies to create diverse metal-based imidazole complexes, emphasizing innovations that enhance efficiency and yield. Furthermore, we delve into the biological profiling of imidazole derivatives, summarizing key findings from studies investigating their antimicrobial, antifungal, anticancer, and other therapeutic properties. Special attention is given to metal coordination's role in modulating these compounds' biological activity. The review discusses the synthesis of imidazolemetal complexes, illustrating how metal ions such as copper, zinc, and iron enhance the pharmacological profiles of imidazole derivatives. Thus, the data from numerous studies was collated and analyzed to comprehensively understand the current landscape and future prospects in imidazole chemistry associated with metals. It is a valuable resource for researchers, guiding future investigations and fostering the development of novel metal-based imidazole therapeutics.</t>
+  </si>
+  <si>
+    <t>10.3389/fimmu.2025.1671964</t>
+  </si>
+  <si>
+    <t>Immune checkpoint inhibitor (ICI)-associated myocarditis is a rare yet life-threatening immune-related adverse event (irAE), whose management is even more challenging when complicated by an impending crisis of myasthenia gravis (MG). This article presents a case of a 69-year-old woman with bladder malignancy, coexisting MG, diabetes, hypertension, and coronary artery disease. On day 16 after tislelizumab (PD-1 inhibitor) therapy, she exhibited aggravated MG symptoms, with an impending crisis, alongside asymptomatic ICI-associated myocarditis. Clinical manifestations included generalized fatigue, anorexia, bilateral ptosis, dysarthria, neck and limb weakness, shortness of breath, and dyspnea. Laboratory tests revealed elevated troponin T, troponin I, creatine kinase (CK), creatine kinase-myocardial band (CK-MB), aspartate aminotransferase (AST), and alanine aminotransferase (ALT) levels, suggesting a diagnosis of ICI-associated myocarditis and liver injury. Doppler ultrasound indicated thrombosis in the left calf muscle space. Treatment with efgartigimod (10 mg/kg) significantly improved myasthenic symptoms, with Myasthenia Gravis-Activities of Daily Living (MG-ADL) and Quantitative Myasthenia Gravis (QMG) scores decreasing from 11 to 5 and 26 to 11, respectively. Treatment with prednisone acetate (60 mg once daily) resulted in gradual reductions in myocardial enzymes, troponins, and transaminases. Efgartigimod demonstrated notable efficacy as salvage therapy for ICI-associated myocarditis, myositis, liver injury, and impending crisis of MG. Early recognition and tailored treatment strategies are crucial for improving patient outcomes in such complex cases.</t>
+  </si>
+  <si>
+    <t>10.1101/2025.11.24.690266</t>
+  </si>
+  <si>
+    <t>Reductive stress has remained underappreciated as a significant disrupter of redox homeostasis. Recent studies have begun to link the accumulation of NADH and NADPH to the development and progression of metabolic diseases such as cancer, cardiac disease, and diabetes. Further research is needed to understand how cellular responses to reductive stress are governed. In this study we use the nematodeto examine the phenomenon of catastrophic reductive-death caused by combined biguanide treatment anddeficiency. This process of synergistic reductive stress correlates with aberrant alternations in nucleolar morphology. The absence ofactivity blocks phenformin-mediated reduction in nucleolar size in the hypodermis, potentially resulting in enhanced translation. We find that loss-of-function and RNAi-based knockdown of the catalytic RNA exosome subunitsignificantly increases resistance to toxic reductive stress. Multiple other genes involved in rRNA synthesis recapitulate this phenotype. We postulate that this reversal of reductive death can be attributed to impaired ribosomal RNA biogenesis that promotes tolerance of the accumulation of reducing equivalents NADPH and NADH and preventing the accumulation of GSH. Overall, we identify a novel mechanism by which pathologic states of reductive stress-related diseases can be ameliorated.</t>
+  </si>
+  <si>
+    <t>10.1136/bmjph-2025-003414</t>
+  </si>
+  <si>
+    <t>Patients with diabetic foot ulcers (DFUs) have disproportionately high healthcare expenditures, with inpatient treatment accounting for the majority of the cost burden. Patients with multiple comorbidities and complex treatment have notably higher costs. Our study aims to evaluate the cost of inpatient DFU care, focusing on key cost drivers and the economic impact of high-cost users (HCUs). Patients admitted with a primary diagnosis of DFU from 1 January 2021 to 31 December 2023 were identified. Collected data included demographics, clinical variables, treatment details, outcomes and hospital financial records. The cohort was categorised into four cost groups: low (0th-25th percentile), intermediate (25th-75th percentile), high (75th-90th percentile) and extremely high (90th-100th percentile). Multivariable regression analyses were conducted to identify key cost drivers. A total of 1677 patients were included, with a mean age of 65.7&amp;#xb1;12.4 years. The mean length of inpatient stay was 13.2&amp;#xb1;16.6&amp;#x2009;days. The median hospital cost per admission was US$11 790.02 (IQR: US$5456.54-US$25 948.55). The major amputation rate was 9.3%, and in-hospital mortality was 2.27%. Patients in the top 10% cost percentile-classified as HCUs (n=168)-accounted for approximately 40% of total DFU-related inpatient costs. This subgroup demonstrated a significantly higher comorbidity burden (peripheral vascular disease, osteomyelitis, end-stage renal failure and ischaemic heart disease) and underwent more surgical and revascularisation procedures, contributing to the key cost drivers. Despite this, they experienced poorer outcomes, with a major amputation rate of 42.86% and in-hospital mortality rate of 11.9%. DFU patients with multiple associated comorbidities result in complex and costly inpatient management. The simultaneous presence of multiple cost-driving factors gives rise to a HCU cohort that disproportionately contributes to healthcare expenditure while experiencing inferior clinical outcomes. Therefore, alongside clinical care optimisation, cost containment strategies should be integral to the multidisciplinary care model-particularly for patients at risk of becoming HCUs-to ensure the long-term sustainability of inpatient DFU management.</t>
+  </si>
+  <si>
+    <t>10.1136/bmjph-2024-002164</t>
+  </si>
+  <si>
+    <t>Evidence on the health effects of occupational physical activity (OPA) remains inconsistent, and potential sex-based differences in physical activity outcomes are understudied. Our goal was to investigate the relationships between OPA and leisure time physical activity (LTPA), both separately and in combination, and the risk of cancer, cardiovascular disease and all-cause mortality by sex. Using data from the NHANES 2007-2018 database, the study involved 29&amp;#x2009;404 adults aged 20 years and older with OPA. Physical activity was assessed through the Global Physical Activity Questionnaire, subjects were classified as inactive, insufficiently active, sufficiently active or highly active OPA. Mortality outcomes were determined by linking to the National Death Index records. Cox/Fine-Gray regressions were employed to investigate sex-specific multivariable-adjusted associations. Covariates including age, race, body mass index, smoking status, hypertension, diabetes mellitus, alcohol consumption, education, income to poverty ratio, marriage status, access to medical care, self-rated health, LTPA and history of diseases were adjusted in the multivariable models. Over a median follow-up of 6.7 (3.7, 9.8) years for men and 6.8 (3.8,9.8) years for women, 1560 deaths in men and 1150 deaths in women occurred. For men, highly active OPA compared with inactivity was associated with 23% lower risk of all-cause mortality. For women, sufficiently active OPA compared with inactivity was associated with 36% lower risk of all-cause mortality. According to joint analyses that used inactive LTPA and inactive OPA as reference, &amp;#x2265;150&amp;#x2009;min LTPA was linked to the lowest risk of all-cause mortality (HR: 0.25; 95%&amp;#x2009;CI 0.12 to 0.54) and cardiovascular mortality (HR 0.27, 95%&amp;#x2009;CI 0.12 to 0.64) in women when combined with &amp;#x2265;150&amp;#x2009;min OPA. OPA had a beneficial association with cancer mortality in women and risk of all-cause mortality in both sexes. OPA and LTPA were jointly linked to a further decreased risk of death from all causes and cardiovascular disease in women.</t>
+  </si>
+  <si>
+    <t>10.1007/s40200-025-01799-y</t>
+  </si>
+  <si>
+    <t>Poor glycemic control leading to hyperglycemia is a major risk factor for diabetes and its complications. Several primary studies have demonstrated that co-supplementation with curcumin plus piperine (Curc&amp;#x2009;+&amp;#x2009;Pipe) can enhance glycemic control. However, findings across studies are inconsistent. This meta-analysis aims to evaluate the efficacy of Curc&amp;#x2009;+&amp;#x2009;Pipe in glycemic indices in adults. A comprehensive search of major databases was conducted through October 2025 to identify eligible randomized controlled trials (RCTs). Extracted data included fasting blood glucose (FBG), hemoglobin A1c (HbA1c), fasting insulin (FI), and the homeostatic model assessment for insulin resistance (HOMA-IR). Outcomes were pooled using a random-effects model, with weighted mean differences (WMDs) and 95% confidence intervals (CIs). This meta-analysis included 15 RCTs comprising 1,020 participants (514 in the intervention group and 506 in the control group). Pooled analyses demonstrated that Curc&amp;#x2009;+&amp;#x2009;Pipe co-supplementation significantly reduced FBG (WMD: -5.89&amp;#xa0;mg/dL; 95% CI: [-&amp;#x2009;9.52, -&amp;#x2009;2.26],&amp;#x2009;=&amp;#x2009;0.001). However, no significant effects were observed for HbA1c (WMD: -0.34%; 95% CI: [-&amp;#x2009;0.80, 0.11],&amp;#x2009;=&amp;#x2009;0.135), FI (WMD: -0.19 mIU/L; 95% CI: [-&amp;#x2009;1.44, 1.83],&amp;#x2009;=&amp;#x2009;0.815), or HOMA-IR (WMD: -0.02; 95% CI: [-&amp;#x2009;0.67, 0.63],&amp;#x2009;=&amp;#x2009;0.957). According to the GRADE assessment, the certainty of evidence was rated as low for FBG, HbA1c, and FI, and moderate for HOMA-IR, indicating limited confidence in the overall findings. Curc&amp;#x2009;+&amp;#x2009;Pipe co-supplementation may modestly improve FBG in adults, particularly in overweight patients with metabolic disorders, but the low-quality evidence, small effect sizes, and non-significant effects on HbA1c, FI, and HOMA-IR limit its clinical relevance. Well-designed, large-scale RCTs are needed to confirm these findings, clarify mechanisms, and determine their potential role in metabolic health management. The online version contains supplementary material available at 10.1007/s40200-025-01799-y.</t>
+  </si>
+  <si>
+    <t>10.1007/s40200-025-01811-5</t>
+  </si>
+  <si>
+    <t>The aim of this study was to provide a scoping review of the clinically approved tyrosine kinase inhibitors (TKIs) in cancer treatment and focus on the potential effect of these antineoplastic medicines on the metabolic effects of diabetes mellitus (DM), emphasizing how some of these medicines can work as anti-diabetic agents during cancer treatment. TKIs are potential cancer therapeutic targets that have made significant strides in revolutionizing the field of cancer treatment. Notwithstanding their enormous promise, the development of TKIs continues to exhibit multiple endocrine effects, particularly on glycemic control. Given that &amp;#x3b2;-cells are essential for maintaining glucose homeostasis and that the pathophysiology of DM involves a loss of &amp;#x3b2;-cell function and survival, &amp;#x3b2;-cell protection effect may be a significant response for the antidiabetic effects of TKIs. Treatment with TKIs in cancer patients with diagnosis of DM have significant potential to clinically affect glycemic control and produce anti-diabetic effects by maintaining functional &amp;#x3b2;-cell mass, boosting insulin secretion and insulin sensitivity. These functions of TKIs are produced on several targets, including cellular Abelson non&amp;#x2011;receptor tyrosine kinase (c&amp;#x2011;Abl) inhibition, decreased Platelet-Derived Growth Factor Receptor (PDGFR) signaling, suppression of Vascular Endothelial Growth Factor Receptor (VEGFR), inhibition of Epidermal Growth Factor Receptor (EGFR), and obstruction of c-Kit signalling. These metabolic effects on blood glucose level were detected by many clinical reports in patients with type 1 DM (T1DM) and type 2 DM (T2DM) through multiple clinical effects, including, lower blood glucose level and HbA1c, increasing C-peptide levels which were associated with reducing the dose or stopping the treatment with antidiabetic medications. Most of these hypoglycemic effects were observed during the clinical use of imatinib, dasatinib, erlotinib, and sunitinib in cancer patients with diagnosis of DM. TKIs are considered important approaches for the treatment of many cancer types. The use of these antineoplastic agents in patients with DM and a diagnosis of cancer shows that these agents have the ability to lower blood glucose, which can be associated with tapering down or discontinuing the use of anti-diabetic treatment. The online version contains supplementary material available at 10.1007/s40200-025-01811-5.</t>
+  </si>
+  <si>
+    <t>10.1080/07853890.2025.2599619</t>
+  </si>
+  <si>
+    <t>Sellar region tumors, such as craniopharyngiomas, pituitary adenomas, and chordomas, pose substantial surgical complexity. Although outcomes have improved, venous thromboembolism (VTE), particularly deep vein thrombosis (DVT), remains a significant postoperative risk. While prior studies report elevated VTE incidence in neurosurgery, the specific mechanisms and timing of peak vulnerability after sellar tumor surgery are not well established. This study aims to identify the critical shift phase of heightened DVT risk after major sellar region tumor resections and to elucidate the pathophysiologic role of perioperative neuroendocrine disturbances in inducing a hypercoagulable state. A systematic review was performed according to PRISMA guidelines, assessing studies from PubMed, Cochrane Library, and ScienceDirect (October 2024-February 2025). Eligible studies evaluated neuroendocrine changes and DVT outcomes after sellar tumor surgery. Screening involved two independent reviewers with adjudication by a third. The review was registered in PROSPERO (CRD42024616487). Three studies met inclusion criteria. Evidence consistently indicates that the first 10 postoperative days represent the peak DVT-risk interval, corresponding to the neuroendocrine transition from central diabetes insipidus (CDI) to syndrome of inappropriate antidiuretic hormone secretion (SIADH). This shift produces abrupt sodium fluctuations, endothelial irritation, and fluid imbalance, collectively fostering a transient but pronounced hypercoagulable state. Sellar region tumor resection precipitates a critical shift phase in the first 10&amp;#x2009;days postoperatively, during which neuroendocrine-fluid imbalances drive hypercoagulability. Early, individualized thromboprophylaxis, tailored to serum sodium and fluid status from post operative state, may mitigate this risk.</t>
+  </si>
+  <si>
+    <t>10.1186/s13099-025-00788-z</t>
+  </si>
+  <si>
+    <t>Aging is a complex process marked by the gradual accumulation of impairments in molecules and tissues, leading to frailty and dysfunction. This decline is a significant risk factor for many debilitating conditions. Recently, gut microbiota dysbiosis has been identified as one of the hallmarks of aging. This review sheds light on the role of gut microbiota dysbiosis in accelerating aging and its relation to age-associated diseases, including neurodegenerative disorders, cardiovascular diseases, cancer and diabetes. Emerging research demonstrates a strong link between the gut microbiome and the aging process, although the underlying mechanisms remain under investigation. Animal studies suggest that targeting the gut microbiome may offer a promising approach to mitigate aging and related diseases. However, further human studies are needed to confirm these findings.</t>
+  </si>
+  <si>
+    <t>10.1186/s12889-025-25872-6</t>
+  </si>
+  <si>
+    <t>Although the impact of baseline frailty status on chronic disease risks has been well-established, evidence on the associations between changes in frailty status and the incidence of new-onset chronic diseases remains limited. A retrospective study of prospectively collected data from the China Health and Retirement Longitudinal Study (CHARLS) including 7 021 adults aged 45 years or older. Frailty status was evaluated by the Rockwood frailty index and classified as robust, pre-frail, or frail. Changes in frailty status were assessed by frailty status at baseline (2011) and the second survey (2013). All chronic diseases were identified by self-reported physician diagnosis. Cox proportional hazards regression models were used to estimate hazard ratios (HRs) and 95% CIs. Compared to stable robust participants, robust participants who progressed to pre-frail/frail status had significantly elevated risks of all chronic diseases studied (HRs: 1.38-2.73), except for cancer (HR: 1.32; 95% CI: 0.83-2.12). Pre-frail participants who progressed to frail status showed only significantly elevated risks of hypertension (HR: 1.34; 95% CI: 1.01-1.77) and memory disease (HR: 1.63; 95% CI: 1.11-2.39) compared to stable pre-frail participants. In contrast, pre-frail participants who recovered to robust status demonstrated decreased risks of CVD, heart disease, stroke, kidney disease, digestive disease, psychiatric disease, and memory disease than stable pre-frail participants (HRs: 0.39-0.66). Similarly, frail participants who recovered to robust/pre-frail status also showed decreased risks of CVD, stroke, diabetes, psychiatric disease, and memory disease compared to stable frail participants (HRs: 0.39-0.73). Different changes in frailty status are associated with different risks of new-onset chronic diseases. Progression of frailty status increases risks of almost all chronic diseases, while recovery of frailty status decreases risks of approximately half of all chronic diseases.</t>
+  </si>
+  <si>
+    <t>10.1038/s41392-025-02502-6</t>
+  </si>
+  <si>
+    <t>Cellular senescence is deeply involved in physiological homeostasis, development, tissue repair, aging, and diseases. Senescent cells (SnCs) accumulate in aged tissues and exert deleterious effects by secreting proinflammatory molecules that contribute to chronic inflammation and aging-related diseases. We revealed that an aberrant interaction between glycolytic PGAM1 and Chk1 kinase is augmented in SnCs associated with increased glycolysis, whose byproduct, lactate, promotes this binding in a noncell autonomous manner. The pseudo-Warburg effect of SnCs with enhanced PPP (pentose phosphate pathway) activity is maintained by HIF-2&amp;#x3b1; phosphorylation by Chk1 and subsequent upregulation of glycolytic enzymes, creating a vicious cycle reprogramming the glycolytic pathway in SnCs. HIF-2&amp;#x3b1; also activates FoxM1 expression, which transcriptionally suppresses proapoptotic profiles, including BIM, and upregulates DNA repair machineries in SnCs. FoxM1 thus supports the genomic integrity and survival capacity of SnCs during their glycolytic changes. Chemical abrogation of PGAM1-Chk1 binding reverts these phenotypes and eliminates SnCs through senolysis. Inhibition of the PGAM1-Chk1 interaction improves physiological parameters during aging and inhibits lung fibrosis in mouse models. Our study highlights a novel pathway contributing to the metabolic reprogramming of SnCs and how the use of a new senolytic molecule that targets the PGAM-Chk1 interaction creates a specific vulnerability of those cells to potentially fight age-related diseases.</t>
+  </si>
+  <si>
+    <t>10.1002/bcp.70416</t>
+  </si>
+  <si>
+    <t>Sodium-glucose cotransporter 2 inhibitors (SGLT2i) have well-documented cardiovascular benefits. However, the cardiovascular benefits of early SGLT2i use in diabetics experiencing acute myocardial infarction (MI) remain unclear. To evaluate the cardiovascular effects of early initiation of SGLT2i in diabetics experiencing acute MI, this study emulated a target trial using data from Taiwan's Health Research Data Integration Service of the National Health Insurance Administration. This study analysed cardiovascular composite outcomes, including hospitalization for heart failure (HHF), MI re-hospitalization, ischaemic stroke, cardiovascular mortality, and individual outcomes. Adjusted hazard ratios (HRs) with 95% confidence intervals (CIs) were calculated using Cox proportional hazard models. Among 36,103 diabetic patients experiencing acute MI, SGLT2i administration within 14&amp;#x2009;days after acute MI (N&amp;#x2009;=&amp;#x2009;2,149) reduced cardiovascular composite risks relative to dipeptidyl peptidase-4 inhibitors (DPP4i) (N&amp;#x2009;=&amp;#x2009;10,802, HR&amp;#x2009;=&amp;#x2009;0.89, 95% CI: 0.82-0.96, p&amp;#x2009;=&amp;#x2009;0.0017). Compared to DPP4i, SGLT2i significantly reduced HHF (HR&amp;#x2009;=&amp;#x2009;0.86, 0.79-0.95), MI re-hospitalization (HR&amp;#x2009;=&amp;#x2009;0.70, 0.62-0.80), and cardiovascular mortality (HR&amp;#x2009;=&amp;#x2009;0.65, 0.54-0.79) risks, but not ischaemic stroke. Sensitivity analysis confirmed the robust therapeutic efficacy of SGLT2i, and Subgroup analyses suggested that the therapeutic efficacy of SGLT2i may be affected by chronic kidney disease, age, and percutaneous coronary intervention. The cardiovascular benefits were consistent across patients without heart failure and new SGLT2i users. Exploratory analyses revealed comparable results between SGLT2i and glucagon-like peptide-1 receptor agonists. Early SGLT2i use in diabetics experiencing acute MI reduced cardiovascular risk, supporting its potential therapeutic use.</t>
+  </si>
+  <si>
+    <t>10.1016/j.jvsv.2025.102365</t>
+  </si>
+  <si>
+    <t>Chronic venous disease (CVD) arises from venous hypertension secondary to impaired venous return, causing significant morbidity and diminished quality of life. Genetic factors are likely important in the pathogenesis and susceptibility of a patient to develop CVD. This systematic review summarises genome-wide association studies (GWAS) that investigate the link between genetic variants and CVD. A systematic review was conducted in accordance with Preferred Reporting Items for Systematic Reviews and Meta-Analyses (PRISMA), with the search dates ranging from January 11994 to July 172025. Abstract and full-text screening were completed by two independent reviewers, with any conflicts referred to a third senior reviewer. GWAS studies in adults investigating links between genetic variants and CVD were included. Exclusion criteria included patients with venous thromboembolism, arterial or diabetic disease, or animal models. Thirteen studies were included after screening 517 studies from a search of PubMed, EMBASE and Ovid. Database sources included UK Biobank, FinnGen, PopGen and country or hospital-specific databases with a majority Caucasian and European patient cohort. A total of 602,760 patients were identified with varicose veins and 3,664,604 control cases that were studied with GWAS and other statistical methods including two-sample Mendelian randomisation approach, functional mapping, and genetic correlations. A variety of statistically significant genetic polymorphisms were identified that can be attributed to the heritability of varicose veins affecting inflammation and immunity (e.g. PPP3R1, EBF1, GATA2), hypertension (e.g. CASZ1) and vascular architecture (e.g. CASZ1, PIEZO1, STIM2). Protective variants (e.g. GJD3, MMP10, 4EBP1) were also identified in Finnish populations. However, replication studies showed that these genetic polymorphisms are not generalisable to specific populations. This systematic review highlights genes contributing to the development of CVD that have been identified in the literature. Improved understanding of genetic contributions to the pathogenesis of CVD may inform future diagnostics, prognostics and personalised treatment. Further larger scale studies representative of global populations, including meta-analyses of genome-wide association datasets, are required due to individual GWASs being statistically insufficient to draw generalisable conclusions.</t>
+  </si>
+  <si>
+    <t>10.1016/j.jnha.2025.100759</t>
+  </si>
+  <si>
+    <t>Periodontitis is a severe gum disease that can be an indicator of other health conditions such as cardiovascular disease and diabetes. Lycopene has been suggested as an adjunct therapy for periodontitis. This study aims to investigate the association between insufficient lycopene intake and the risk of Periodontitis among non-Hispanic White (NHW) and non-Hispanic Black (NHB) older adults. The study included 1,227 adults aged 65-79 years from the National Health and Nutritional Examination Survey (2009-2014). Total lycopene intake from daily diet was studied with age, race, marital status, smoking status, BMI, diabetes, sex, and education as independent variables in regression model. Overall, 48.7% of the older adults exhibited varying degrees of PD, and 49.1% had insufficient dietary lycopene intake. Adequate lycopene intake was associated with a reduced likelihood of severe PD (odds ratio (O.R.): 0.33; 95%CI: 0.17-0.65). NHBs were more prone to developing severe PD compared to NHWs (O.R.: 2.82, 95%CI: 1.46-5.45). Women exhibiting a lower likelihood of severe PD than men (O.R.: 0.27; 95% CI: 0.14-0.55). NHW females, who were less likely to have severe PD compared to NHW males (O.R.: 0.26; 95% CI: 0.12-0.56). Dietary lycopene intake is associated with reduced risk of severe PD, particularly in NHW individuals over 65 years old. PD was more common in men and NHB individuals, with a latter group showing a higher prevalence of severe PD. Our results suggest that future PD prevention strategies should consider targeted, race-and sex-specific dietary interventions.</t>
+  </si>
+  <si>
+    <t>10.1016/j.atherosclerosis.2025.120608</t>
+  </si>
+  <si>
+    <t>Atherosclerosis is a chronic immunometabolic disease driven by lipid accumulation and immune cell infiltration. Macrophages and T cells play key roles throughout plaque development. Galectin-1 (Gal-1), a glycan-binding protein, modulates immune functions in these cells and has been reported to attenuate atherosclerosis, though its mechanisms remain incompletely understood. Here, we investigated the effects of Gal-1 on macrophages and T cells during plaque formation. Effects of Gal-1 on atherosclerosis, macrophages and T cells during lesion formation were studied in Apoemice treated with recombinant Gal-1. Complementary mouse peritoneal foam cell and in vitro macrophage and T cell culture experiments were performed to study T cell differentiation, macrophage function, polarization and energy metabolism. The impact of Gal-1 on human macrophages was further evaluated in endarterectomy specimens. Gal-1 treatment reduced lesion size and increased circulating IL-10 levels, inversely correlating with plaque burden. Unexpectedly, IL-10 neutralization also mitigated atherosclerosis, indicating that its action is at least partially IL-10-independent. In plaques, Gal-1 promoted anti-inflammatory macrophage phenotypes, mirrored by a quiescent metabolic and anti-inflammatory profile in foamy macrophages ex vivo. The use of the Gal-1variant revealed that these effects were only partly dependent on glycan binding. Beyond IL-10, Gal-1 reshaped cytokine profiles by increasing IL-17, IL-22, and IL-23, consistent with a macrophage-driven regulatory Th17 response, alongside higher frequencies of IL-10-producing and regulatory T cells. Gal-1 protects against atherosclerosis associated with reprogramming macrophages and tuning T cell immunity through glycan-dependent and -independent pathways.</t>
+  </si>
+  <si>
+    <t>10.1186/s12933-025-03023-w</t>
+  </si>
+  <si>
+    <t>Intracellular calcium (Ca) homeostasis is a central determinant of cardiometabolic physiology, integrating excitation-contraction coupling, metabolic signaling, and stress adaptation across multiple organs. The sarco/endoplasmic reticulum Ca-ATPase (SERCA), regulated by the micropeptides phospholamban (PLN) and dwarf open reading frame (DWORF), governs ER/SR Careuptake and thereby shapes Ca-dependent signaling dynamics. Dysregulation of the SERCA-PLN-DWORF axis is increasingly recognized as a shared pathogenic mechanism in type 2 diabetes-related complications, including diabetic cardiomyopathy and heart failure with preserved ejection fraction (HFpEF), where reduced SERCA2a activity prolongs diastolic Caclearance and promotes calcineurin-NFAT activation and mitochondrial Ca&amp;#x207a; overload. In the liver, loss of SERCA2b activity promotes chronic ER stress, Ca-phosphoinositide complex formation, insulin resistance, and fibrotic activation, thereby linking Cadysregulation to progressive metabolic liver injury in metabolic dysfunction-associated fatty liver disease (MAFLD) and steatohepatitis (MASH). These observations position Cadysregulation as a unifying mechanism across the cardiometabolic disease continuum, spanning myocardial dysfunction, systemic insulin resistance, and progressive fatty liver disease. Therapeutic strategies targeting the SERCA-PLN-DWORF axis, including SERCA activators, PLN-directed antisense oligonucleotides, DWORF gene therapy, and CRISPR-based modulation, have demonstrated efficacy in preclinical models by improving Ca&amp;#x207a; handling and alleviating metabolic or contractile stress. Further studies are required to determine the translational feasibility, long-term safety, and optimal patient subsets for SERCA-targeted interventions in cardiometabolic disease.</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-025-66498-x</t>
+  </si>
+  <si>
+    <t>Gut microbiota contributes to prediabetes progression, however, whether microbiota features can guide targeted prevention and treatment for diabetes requires validation through large-scale clinical trials. Here, in a randomized, open-label trial, we randomly assigned 802 prediabetic subjects to a usual care control group (patient education and dietary recommendations, n&amp;#x2009;=&amp;#x2009;393) or a dietary fiber intervention group (n&amp;#x2009;=&amp;#x2009;409) for 6 months. The primary outcome was the percentage change in whole-blood HbA1c, and secondary outcomes were the changes in other glucose, insulin, lipid, liver and kidney function, and anthropometric parameters. There were no statistically significant differences in the primary and secondary outcomes between groups. In post-hoc analysis, we reclassified subjects into four clusters using a multivariate clustering model based on age, BMI, HbA1c, HOMA2-IR and HOMA2-B. These clusters differed in metabolic status, risks of diabetes and its complications, gut microbiome and serum metabolites. Notably, dietary fiber improved glycemic control in Clusters 3 and 4, but not in Clusters 1 and 2, consistent with observed gut microbiota alleviations. By using a LightGBM machine learning model, we calculated a microbiome-based clinical decision score to predict personalized fiber intervention responses and identified individuals who can get glycemic benefits. In conclusion, our study suggests that the gut microbiota response influences the effectiveness of dietary fiber intervention and provides a clinically applicable model to guide microbiome-targeted personalized medicine for prediabetes. Clinical Trial Registry: ChiCTR1900027663.</t>
+  </si>
+  <si>
+    <t>10.1038/s41420-025-02898-8</t>
+  </si>
+  <si>
+    <t>Glutamine: fructose-6-phosphate amidotransferase (GFAT), a conserved enzyme across prokaryotic and eukaryotic species, is the first and rate-limiting step in the hexosamine biosynthetic pathway (HBP), diverting 2-5% of fructose-6-phosphate derived from glucose toward the synthesis of uridine diphosphate N-acetylglucosamine (UDP-GlcNAc), a key substrate for the glycosylation of proteins and lipids. While substantial progress has been made in elucidating the basic biochemical properties and regulatory mechanisms of GFAT, its functional impact on pathological processes remains incompletely understood. Emerging evidence implicates GFAT in a spectrum of human diseases, including cancer, diabetes, cardiovascular disorders, and neurodegenerative conditions such as Alzheimer's disease. This review aims to provide a comprehensive synthesis of current insights into GFAT's role in disease etiology, with the goal of informing future research and therapeutic strategies targeting this essential metabolic regulator.</t>
+  </si>
+  <si>
+    <t>10.1016/j.envpol.2025.127475</t>
+  </si>
+  <si>
+    <t>During the Vietnam War, US military personnel were widely exposed to a tactical defoliant called Agent Orange, contaminated with a toxic endocrine-disrupting chemical, 2, 3, 7, 8-tetrachlorodibenzo-p-dioxin (TCDD). Vietnam-era US Veterans exposed to Agent Orange display increased risk of thyroid cancer, yet the molecular mechanisms behind this risk remain largely unexplored. As aberrant DNA methylation is a hallmark of cancer development, we conducted a retrospective case-case study of Vietnam-era US Veterans to investigate differential DNA methylation profiles of Agent Orange exposed thyroid cancers compared to unexposed thyroid cancers. This exploratory study included 44 Veterans with differentiated thyroid cancer, treated at two Veterans Affairs (VA) medical centers (1990-2020): 23 Agent Orange exposed cases, identified through VA benefits/medical record review, and 21 unexposed cases. We profiled genome-wide tumor DNA methylation with the Infinium Methylation EPICv2 array. We used linear regression models to compare methylation in the exposed compared to unexposed group. Models were adjusted for age, VA location, and cell type proportions. Differentially methylated CpGs were used for gene set enrichment analyses. Agent Orange exposure was associated with differential methylation at 309 CpGs (nominal p-value &lt;0.001) in thyroid tumors from exposed compared to those from the unexposed group. However, we did not detect significant CpGs after adjusting for multiple comparisons. Some of the top associations included CpGs located to cancer-related genes (i.e. CELF2, OTX2, SSR1, and EBF1). Gene set enrichment analysis revealed enrichment of hedgehog signaling and anti-folate resistance pathways. In this exploratory analysis, we identified differentially methylated loci linked to thyroid cancer in Agent Orange exposed Veterans. Further research is necessary to replicate our findings in a larger cohort including Agent Orange exposure determination through biomarker assessment, and to elucidate mechanisms behind these associations in in vitro exposure models.</t>
+  </si>
+  <si>
+    <t>10.1016/S1474-4422(25)00434-X</t>
+  </si>
+  <si>
+    <t>10.1096/fj.202502634R</t>
+  </si>
+  <si>
+    <t>Galicia, at the westernmost edge of Europe, exhibits distinctive genetic traits compared to other Iberian populations. We present the first whole-genome sequencing (WGS) study of a Galician population (GALOMICS; n&amp;#x2009;=&amp;#x2009;91; 17.2&amp;#x2009;M variants; https://galomics.genpob.eu), analyzed alongside WGS data from other Spanish and continental populations (n&amp;#x2009;=&amp;#x2009;1078). Contrary to recent claims of extreme genetic stratification, Galicia's structure reflects broader Iberian patterns, characterized by one major genetic cluster and four minor, localized ones. Analyses of the Spanish National DNA Bank (NDNAB; n&amp;#x2009;=&amp;#x2009;453) confirm this pattern, with three Galician clusters, one clearly predominant. Phylogenetic analysis places Galician clusters on terminal, recently diverged branches, challenging earlier models suggesting ancient separation. Slightly elevated homozygosity, driven by the Porto do Son cluster, suggests mild regional inbreeding. A notable North African/Middle Eastern ancestry component (13.5%-16.5%) appears, likely introduced via trans-Mediterranean contact ca. 620-670&amp;#x2009;ce, predating the Islamic conquest of 711&amp;#x2009;ce, with a subtle south-to-north gradient and a male-biased signal (Y-DNA: 21.2%; mtDNA: 1.1%). This calls for reexamining assumptions about Islamic-era ancestry. Finally, Polygenic Risk Scores for common diseases (e.g., cancer, Alzheimer's disease, diabetes, autism) show geographic variability aligned with genetic substructure, highlighting the relevance of regional genomics to public health policy.</t>
+  </si>
+  <si>
+    <t>10.1002/edm2.70147</t>
+  </si>
+  <si>
+    <t>To investigate the effects of a high-protein (HP) diet on insulin resistance in a type 2 diabetes (T2D) mouse model. A high-fat diet combined with streptozotocin (STZ, 25&amp;#x2009;mg/kg) was used to induce a T2D model. Fasting blood glucose levels &gt;&amp;#x2009;7&amp;#x2009;mmol/L were considered successful modelling. The models were further divided into three groups: the Normal-Protein-T2D (TN, n&amp;#x2009;=&amp;#x2009;8), High-Protein-T2D (TH, n&amp;#x2009;=&amp;#x2009;8), and High-Fat-T2D (TF, n&amp;#x2009;=&amp;#x2009;8) groups. These groups were fed diets containing 20% protein, 60% protein, and 60% fat, respectively. Additionally, 24 Kunming (KM) mice, serving as non-T2D controls, were divided into a Normal-Protein-Control (N, n&amp;#x2009;=&amp;#x2009;8), a High-Protein-Control (H, n&amp;#x2009;=&amp;#x2009;8), and a Low-Protein-Control (L, n&amp;#x2009;=&amp;#x2009;8), fed 20% protein, 60% protein, and 5% protein diets, respectively. After 6&amp;#x2009;weeks of dietary intervention, FBG, serum biochemical markers, hepatic inflammatory factors and pathological changes, and pancreatic immunohistochemistry were assessed. Expression of IRS-1, JNK, IKK&amp;#x3b2;, and their phosphorylated proteins were analysed. Mice in the H group exhibited significantly impaired glucose tolerance, exacerbated insulin resistance, and reduced liver function. In the T2D model, TH mice exhibited more severe hyperglycemia, insulin resistance, and &amp;#x3b2;-cell dysfunction than TN mice, accompanied by increased hepatic TNF-&amp;#x3b1; and IL-6 expression, enhanced lipid accumulation, suppressed IRS-1 phosphorylation, and enhanced JNK and IKK&amp;#x3b2; phosphorylation. A HP diet induces insulin resistance in normal mice and further exacerbates glucose metabolism disorders in T2D models, suggesting that restricting HP intake may serve as a strategy for preventing T2D.</t>
+  </si>
+  <si>
+    <t>10.1002/cam4.71434</t>
+  </si>
+  <si>
+    <t>While glucagon-like peptide-1 receptor agonists (GLP-1RAs) show promise for hepatoprotection in type 2 diabetes mellitus (T2DM), the magnitude of hepatocellular carcinoma (HCC) risk reduction and optimal patient selection remain unclear. This is particularly relevant given that metabolic dysfunction-associated steatotic liver disease (MASLD) affects 70% of patients with T2DM and represents a major HCC risk factor. We conducted a comprehensive meta-analysis to quantify GLP-1RA efficacy in HCC prevention and inform clinical implementation strategies. We systematically searched PubMed, Embase, and Web of Science through June 2025 for cohort studies comparing HCC incidence between GLP-1RA users and nonusers with T2DM. Random-effects meta-analysis, network meta-analysis, and meta-regression were performed. Heterogeneity was explored through stratified analyses and quantitative bias assessment. Nine studies encompassing 2,283,835 total patients (analyzed cohorts: 1,012,482) were included. GLP-1RA use was associated with a 42% reduced HCC risk (pooled HR 0.60, 95% CI: 0.41-0.88; I&amp;#x2009;=&amp;#x2009;86.2%). Effect magnitude varied significantly by comparator: versus insulin (HR 0.29, 95% CI: 0.13-0.67), versus oral agents (HR 0.81, 95% CI: 0.63-1.05), versus no treatment (HR 0.77, 95% CI: 0.52-1.14). Meta-regression identified insulin as comparator as the primary driver of heterogeneity, explaining 55% of the between-study variance. Benefits were greatest in patients without cirrhosis (HR 0.41, 95% CI: 0.29-0.58). Network meta-analysis ranked GLP-1RAs highest for HCC prevention (SUCRA 0.89), with insulin ranking lowest (0.08). The number needed to treat ranged from 24 to 476. GLP-1RAs substantially reduce HCC risk in T2DM, with benefits partly attributable to avoiding insulin's potential hepatotoxicity. These findings support the preferential use of GLP-1RAs over insulin in patients at HCC risk.</t>
+  </si>
+  <si>
+    <t>10.1002/ijc.70294</t>
+  </si>
+  <si>
+    <t>This study examined the associations of diabetes status, duration, and age at onset with lung cancer risk in the China Kadoorie Biobank. We prospectively assessed the association between diabetes status and lung cancer risk in 510,148 cancer-free participants, with analyses of duration and age at onset among 29,962 participants with diabetes at baseline. Multivariable-adjusted hazard ratios (HRs) and 95% confidence intervals (CIs) were estimated using Cox regression models, and effect modification was assessed across stratified subgroups using likelihood ratio tests. During a median 9.17-year follow-up, 5007 lung cancer cases occurred. Compared with participants without diabetes, those with diabetes had a higher lung cancer risk (HR&amp;#x2009;=&amp;#x2009;1.15, 95% CI: 1.01-1.32). Diabetic patients with onset &lt;40&amp;#x2009;years showed a 2.81-fold higher lung cancer risk (95% CI: 1.31-6.02) compared to &amp;#x2265;60-year onset groups. Longer duration (&amp;#x2265;15 vs. &lt;1&amp;#x2009;year) was associated with increased risk (HR&amp;#x2009;=&amp;#x2009;2.06, 95% CI: 1.33-3.19). The association with diabetes status was stronger among individuals with below-median physical activity, while the association with diabetes duration was more pronounced in overweight participants. Overall, these findings indicate that diabetes, especially with earlier onset and longer duration, significantly increases lung cancer risk, highlighting the need for screening and targeted management in high-risk populations.</t>
+  </si>
+  <si>
+    <t>10.1186/s13058-025-02194-4</t>
+  </si>
+  <si>
+    <t>Breast cancer (BC) remains the most commonly diagnosed malignancy among women worldwide, with metabolic dysregulation of glucose and hyperinsulinemia increasingly recognised as contributors to its development and progression. However, despite accumulating evidence linking metabolic imbalances to tumorigenesis, the precise therapeutic opportunities arising from targeting these metabolic pathways remain insufficiently defined. To explore the potential of metformin and its derivatives, in combination with other anticancer agents, to suppress BC cell proliferation by targeting glucose metabolism. Preclinical and epidemiological evidence indicates that metformin may reduce BC incidence and improve survival, with particularly pronounced benefits observed in triple-negative and Human Epidermal Growth Factor Receptor 2(HER2) positive subtypes, especially when used in combination with chemotherapy or targeted therapies. The drug's anticancer potential is mediated through both systemic and tumor-intrinsic mechanisms. Systemically, metformin enhances insulin sensitivity and suppresses hepatic glucose production, thereby lowering circulating insulin and IGF-1 levels and attenuating growth factor-driven proliferation. At the tumor level, it activates AMP-activated protein kinase, inhibits the mammalian target of rapamycin pathway, disrupts mitochondrial oxidative phosphorylation, and induces apoptosis through metabolic stress. In addition, novel biguanide derivatives have demonstrated superior antitumor efficacy by inducing cell-cycle arrest at the G0/G1 and G2/M phases and inhibiting cancer cell migration, underscoring the therapeutic promise of structural modifications. However, despite these encouraging findings, restuls from large clinical trials have been inconsistent, particularly in non-diabetic populations, and the extent to which metformin's metabolic effects translate into direct oncologic benefit remains unclear. Importantly, elevated systemic insulin and IGF-1 remain key drivers of mitogenic and anti-apoptotic signaling in breast epithelial cells, reinforcing the rationale for targeting metabolic vulnerabilities in BC prevention and therapy. Metformin and its derivatives exert dual anticancer effects by modulating systemic insulin signaling and targeting tumor-intrinsic pathways. Nevertheless, inconsistencies between preclinical efficacy and clinical outcomes highlight the need for biomarker-guided approaches and deeper investigation into tumour-specific metabolic contects. These complementary mechanisms highlight their potential in precision BC therapy, warranting biomarker-driven studies and optimized therapeutic combinations.</t>
+  </si>
+  <si>
+    <t>10.1002/pds.70301</t>
+  </si>
+  <si>
+    <t>To evaluate trends and disparities in herpes zoster vaccination among US older adults with diabetes. Data from the 2008 to 2023 National Health Interview Survey were used. Joinpoint regression analysis was performed to analyze trends in herpes zoster vaccination. A multivariable logistic regression model was used to identify factors associated with herpes zoster vaccination. A total of 42&amp;#x2009;377 participants with diabetes were included, representing approximately 18 million US older adults with diabetes. From 2008 to 2023, the prevalence of herpes zoster vaccination increased nearly tenfold, from 4.2% in 2008 to 42.2% in 2023 (average annual percent change&amp;#x2009;=&amp;#x2009;14.09, p&amp;#x2009;&lt;&amp;#x2009;0.01), with similar overall trends observed in adults without diabetes (p&amp;#x2009;=&amp;#x2009;0.08). Upward trends were also observed across age groups and diabetes types. Several factors, including age, race/ethnicity, region, educational level, health insurance, income, perceived health status, flu and pneumococcal vaccination, comorbid atherosclerotic cardiovascular disease and cancer, were associated with herpes zoster vaccination. Herpes zoster vaccine coverage has surged among US older adults with diabetes over the past 16&amp;#x2009;years. However, disparities in vaccination remain, underscoring the need for targeted policies and interventions to improve coverage.</t>
+  </si>
+  <si>
+    <t>10.1186/s12964-025-02360-3</t>
+  </si>
+  <si>
+    <t>Head and neck squamous cell carcinoma (HNSCC) exhibits substantial genetic and functional heterogeneities. We generated clonal spheroids (CS) from HNSCC cell lines and patient tumor cells, uncovering distinct functional differences. Hyperproliferative spheroids (HRPS) showed increased proliferation and tumorigenic potential, whereas hypoproliferative spheroids (HOPS) demonstrated enhanced migration and resistance to cisplatin and radiation. In patient tumor-derived spheroids, spheroid size distribution analysis across various TNM stages indicated that early-stage tumors (T2N0M0) predominantly formed HRPS, while later-stage tumors (T4N2M0) exhibited a higher prevalence of HOPS. Single-cell RNA sequencing (scRNA-seq) identified six clusters in the HOPS and four in the HRPS, each defined by unique gene expression profiles and pathway enrichment. HOPS were enriched with fibroblast, mesenchymal, and keratinizing epithelial cells, indicating a metastatic phenotype. They also expressed genes associated with stemness (KRT15 and ALDH3A1). Conversely, HRPS was characterized by proliferative genes, including TOP2A, AURKA, CKS2, AREG, and ANLN, suggesting an advanced HNSCC proliferative signature. Despite being generated from only two cells/well, the various clusters in both spheroid types mirrored the diverse tumor microenvironment in HNSCC, including neoplastic, epithelial, basal, fibroblast, and mesenchymal cells. Notably, the gene expression profiles of Cluster 3 in the HOPS and Cluster 1 in the HRPS closely matched the expression patterns observed in the HNSCC-TCGA dataset. These clusters also displayed a high transcriptional correlation between patient tumors and their xenografts, reinforcing the clonal nature of HNSCC's genetic and functional diversity of HNSCC.</t>
+  </si>
+  <si>
+    <t>10.1186/s12876-025-04452-3</t>
+  </si>
+  <si>
+    <t>As a major etiological factor of the gastrointestinal diseases, the presence ofposes a serious concern to the clinical management; however, the confirmation of the eradication post-therapy is of utmost crucial. The purpose of this study was to use theC Urea Breath Test (UBT) in measuring the effectiveness of second-line quadruple therapy in assessing treatment failure due to the infection with resistant strains of, particularly in the state of Odisha. The study included 70 adult patients (mean age 42.5&amp;#x2009;&amp;#xb1;&amp;#x2009;12.7 years) withinfection who participated in first-line eradication therapy. TheC UBT was performed approximately 50.4&amp;#x2009;&amp;#xb1;&amp;#x2009;14.4 days after therapy to determine the eradication success. Patients who have tested positive in the initial treatment were subjected to second-line quadruple therapy. The collected data in a designed proforma and excel sheet were analyzed using statistical software SPSS version 21. Descriptive statistics summarized demographic and clinical variables. Among the study participants, 75.75% had negativein UBT, indicating successful eradication, and 24.29% were still positive and received second-line quadruple therapy. In situations wherewas not eradicated, the likelihood of geographic fatalstrains that were also not eradicated using conventional methods was established. In more than two-thirds of the patients, an improvement in their symptoms was observed, and among their common complaints were bloating (61%) and heartburn (40%). A subset of the patients had comorbidities, such as diabetes and metabolic-associated steatohepatitis (MASLD), which were also noted. TheC UBT is crucial and non-invasive test and is used to verify whetherhas been eradicated after treatment. Since the efficacy of UBT has already been proven, it plays a significantly important role in cases of treatment failure, especially in regions resistant to strains. Regional variations in strain identification should be studied for more efficient treatment.</t>
+  </si>
+  <si>
+    <t>10.1111/aor.70071</t>
+  </si>
+  <si>
+    <t>Obesity and advanced heart failure (HF) increasingly intersect in clinical practice, yet their combined influence on outcomes following durable left ventricular assist device (LVAD) implantation remains uncertain. We conducted a systematic review and meta-analysis in accordance with PRISMA 2020, searching six databases to June 2025. Twenty-six cohort studies encompassing 14&amp;#x2009;100 adults (4982 obese; 9118 non-obese) met inclusion criteria. Pooled odds ratios (ORs) and risk ratios (RRs) were generated using random-effects models for mortality and adverse events. Obese LVAD recipients were younger, more often female, and had higher prevalences of diabetes, hypertension, and sleep apnea than non-obese patients. Short-term mortality did not differ significantly between groups (OR 0.80, 95% CI 0.59-1.08). Similarly, follow-up mortality at &amp;#x2265;&amp;#x2009;1&amp;#x2009;year showed no significant difference, although obese patients tended to have lower risk (RR 0.81, 95% CI 0.56-1.17). In contrast, obesity was associated with a distinct complication profile: higher risks of device-related infection (RR 1.48, 95% CI 1.26-1.75), pump thrombosis/device malfunction (OR 1.57, 95% CI 1.37-1.81), and right heart failure (RR 1.23, 95% CI 1.08-1.39). Rates of stroke, arrhythmia, respiratory failure, and major bleeding did not differ significantly between obese and non-obese patients. Obesity does not confer excess short-term or long-term mortality after durable LVAD implantation but is associated with substantially higher risks of infection, pump thrombosis, and right heart failure. These findings suggest that obesity alone should not preclude LVAD candidacy, while underscoring the need to recognize and manage the increased morbidity burden in this population and to further investigate outcomes in contemporary, device-specific cohorts.</t>
+  </si>
+  <si>
+    <t>10.1038/s41467-025-67238-x</t>
+  </si>
+  <si>
+    <t>Elucidating the genetic regulation of protein expression in specific disease states is important for understanding how genetic variation impact disease pathology. To this end, we conduct a large-scale genome-proteome-wide pQTL analysis on 2901 plasma proteins among 7626 healthy individuals and 28,064 patients across 42 disease statuses. We find 25,987 independent pQTL associations across 2224 regions, and investigate similarities and differences in their regulatory effects across various diseases and health states. We find that pQTL identified in specific diseases are more likely to be disease risk variants. We then integrate the association findings with Mendelian randomisation to identify 110 high-confidence causal proteins associated with 21 diseases, including Apolipoprotein(a) for cardiovascular diseases and angiotensin-converting enzyme for type 2 diabetes. Finally, we develop risk prediction models by integrating pQTL-derived polygenic risk scores and causal-protein-derived protein risk scores, which demonstrate good performance in discriminating populations at high risk for 21 disease types. These results indicate that disease state partly determines the impact of genetic variation on protein expression, implicating disease-related and disease-discordant pQTL associations as regulators of disease progression.</t>
+  </si>
+  <si>
+    <t>10.1016/j.clgc.2025.102473</t>
+  </si>
+  <si>
+    <t>We compared toxicity profiles of moderate hypofractionated radiotherapy (HFRT) and conventional radiotherapy (CFRT) in salvage radiotherapy (SRT) for prostate cancer patients who underwent radical prostatectomy. We retrospectively reviewed prostate cancer patients who underwent SRT between 2022 and 2023. Two groups were analyzed: CFRT (66 Gy in 30 fractions) and HFRT (55 Gy in 20 fractions). Propensity score matching was performed using variables associated with toxicity outcomes including androgen deprivation therapy usage, anticoagulant usage, diabetes mellitus, baseline genitourinary symptoms, SRT field, and boost irradiation. Follow-up evaluations were conducted every 3 months for the first year and every 6 months thereafter, for up to 2 years. The primary endpoint was acute and late genitourinary (GU) and gastrointestinal (GI) toxicity. A total of 70 CFRT and 66 HFRT patients were included. After matching, 112 patients (56 per group) were analyzed with median follow-up of 27.8 and 24.8 months, respectively. There was no significant difference in baseline toxicities before SRT between the 2 groups. GU toxicities at 3 months were comparable except for grade 1 urgency, which was more frequent in CFRT (30.4% vs. 14.3%, P = .041) but resolved by 1 year. Late GU toxicities at 1 or 2 years were not significantly different between the 2 groups. No grade &amp;#x2265; 3 late GU toxicities were observed. For GI toxicities, grade 3 rectal bleeding occurred in 3.6% of CFRT and 1.8% of HFRT patients within 1 year (P = 1.000). Aside from more grade 2 diarrhea at 3 months in CFRT (26.8% vs. 8.9%, P = .014), no significant differences in GI toxicity were found. Four-week HFRT for SRT showed favorable long-term toxicity outcomes, sustained for up to 2 years and comparable to those of 6-week CFRT.</t>
+  </si>
+  <si>
+    <t>10.1002/advs.202518813</t>
+  </si>
+  <si>
+    <t>Evidence on pre-transplant metabolic therapy remains limited. We evaluated whether concurrent glucagon-like peptide-1 receptor agonist (GLP-1 RA) plus sodium-glucose cotransporter 2 inhibitor (SGLT2i) use before solid-organ transplantation was associated with post-transplant outcomes in adults with obesity and type 2 diabetes. A target trial is emulated using de-identified electronic health records from TriNetX US. Dual therapy is compared with GLP-1 RA, SGLT2i, and usual care using 1:1 propensity-score matching. The primary outcome is all-cause mortality at 12 months; kidney graft failure, rejection, complications, and infections are secondary. Sensitivity analyses included the global network,&amp;#xa0;landmark, extensions at 24 and 36 months. Three matched cohorts are constructed, dual versus GLP-1 RA (n = 4718 pairs), dual versus SGLT2i (n = 4282), and dual versus usual care (n = 3787). At 12 months, dual therapy is associated with lower mortality versus GLP-1 RA (hazard ratio [HR] 0.69, 95% confidence interval [CI] 0.57-0.85), SGLT2i (0.59, 0.48-0.72), and usual care (0.52, 0.43-0.64).&amp;#xa0;Infection endpoints are neutral or lower. Estimates are consistent across sensitivity analyses. In transplant candidates with obesity and type 2 diabetes, pre-transplant GLP-1 RA+SGLT2i use is associated with lower&amp;#xa0;mortality&amp;#xa0;than monotherapy or usual care. Prospective evaluation is warranted.</t>
+  </si>
+  <si>
+    <t>10.1016/j.numecd.2025.104430</t>
+  </si>
+  <si>
+    <t>Traditional measures of obesity such as body mass index (BMI) and waist circumference (WC) have shown inconsistent predictive utility for diabetes across diverse populations. Novel anthropometric measures that focus on abdominal adiposity and body shape may offer better risk assessment for diabetes. Yet, the utility of traditional and novel anthropometric measures in postmenopausal women and in different racial and ethnic groups remains unclear. The predictive utilities of traditional and novel anthropometric measures for diabetes risk were comprehensively assessed, among postmenopausal women, overall, and across racial and ethnic groups. Using data from 91,392 diabetes-free Women's Health Initiative participants, predictive values of anthropometric measures were examined using Receiver Operating Characteristic (ROC) and Cox regression with Harrell's c-statistics. ROC analyses suggested that novel anthropometric measures with best predictive abilities were 'a Body Shape Index' (ABSI), 'Abdominal Volume Index', and 'Body Roundness Index', although WC and novel anthropometric measures had similarly modest predictive abilities to BMI (Areas Under the Curve &lt;0.6). Cut-off points for anthropometric measures varied by race/ethnicity. Multivariable Cox regression modeling suggested that 'Clinica Universidad de Navarra-Body Adiposity Estimator', WC, ABSI, and BMI had the strongest associations with diabetes risk (adjusted hazard ratios [HRs]: 1.27, 1.26, 1.23, and 1.22 per 1-SD increase, respectively), although predictive accuracies involving any measure were modest (Harrell's c-statistics&amp;#x223c;0.58-0.59). In this comprehensive evaluation, anthropometric measures were marginally predictive of diabetes risk, and novel measures did not outperform traditional measures among postmenopausal women, irrespective of race/ethnicity.</t>
+  </si>
+  <si>
+    <t>10.1016/j.surg.2025.109965</t>
+  </si>
+  <si>
+    <t>Undocumented immigrants face significant barriers to health care access, including organ transplantation. However, their post-liver transplant outcomes remain poorly understood. This study evaluates graft survival and overall survival among undocumented immigrants undergoing liver transplant compared with US citizens. A retrospective cohort study was conducted using the Scientific Registry of Transplant Recipients database, including adult liver transplant recipients from 1987 to 2022. The primary outcomes were 1-year graft survival and 5-year overall survival, analyzed using Fine-Gray competing risks and Cox proportional hazards models. A total of 88,603 adult liver transplant recipients were included, with 1,331 (1.5%) identified as undocumented immigrants. Compared with US citizens, undocumented immigrants had a lower body mass index (27.4 vs 28.1 kg/m), lower diabetes prevalence (0.2% vs 4.4%), and higher rates of alcohol-associated liver disease (53.9% vs 43.9%) (all P &lt; .05). Median Model for End-Stage Liver Disease with Sodium Adjustment scores (undocumented immigrant: 21 vs US citizen: 18) and wait times (undocumented immigrant: 105 vs US citizen: 95 days) were statistically different (P &lt; .001) but clinically similar. In unadjusted analyses, undocumented immigrants had higher 1-year graft survival (hazard ratio: 0.27, 95% confidence interval: 0.19-0.39) and 5-year overall survival (hazard ratio: 0.49, 95% confidence interval: 0.42-0.58) than US citizens (P &lt; .05). Adjusted analyses found no significant differences in 1-year graft survival (hazard ratio: 0.79, 95% confidence interval: 0.20-3.15) or 5-year overall survival (hazard ratio: 0.68, 95% confidence interval: 0.35-1.32) (both P &gt; .05). Post-liver transplant survival among undocumented immigrants was comparable to US citizens after adjustment. These findings support policies that enhance equitable liver transplant access while maintaining comparable outcomes.</t>
+  </si>
+  <si>
+    <t>10.1016/j.jacl.2025.10.060</t>
+  </si>
+  <si>
+    <t>Familial hypercholesterolemia (FH) is caused by genetic mutations in lipid metabolism that increase atherosclerotic cardiovascular disease (ASCVD) risk. We wanted to assess lipid profile effects of liver transplant in i) a donor patient with heterozygous FH (HeFH), and ii) a HeFH recipient patient with colorectal adenocarcinoma with isolated liver metastasis. A 34-year-old donor female with HeFH and intolerance to all lipid lowering therapies underwent living donor HeFH-negative liver transplant (LT). Her HeFH liver was subsequently transplanted into a 49-year-old recipient female with colorectal adenocarcinoma with isolated liver metastasis, despite surgery and chemotherapy. Donor patient with HeFH who got HeF H negative liver transplant had significant improvement in lipid panel to the point of no l o nger requiring lipid lowering therapy. Post-LT, hyperlipidemia developed in the recipient of the HeFH liver, though not quite to the level of the donor baseline, su ggesting physiologically functioning extrahepatic LDL receptors' contribution to some LDL-C clearance. Utilizing HeFH liver transplant, combined with aggressive treatment of dyslipidemia can be used to potentially salvage higher risk patients with isolated liver metastasis from colon cancer.</t>
+  </si>
+  <si>
+    <t>10.1136/bmjhci-2025-101620</t>
+  </si>
+  <si>
+    <t>This study aims to develop an algorithm to detect steatotic liver disease (SLD) risk in low-resource settings without requiring imaging. This retrospective cohort study included 826 measurements from 444 participants aged 45-60 years who participated in the MAUCO+ study. Data included ultrasound, vibration-controlled transient elastography (VCTE), anthropometrics and biomarkers. Logistic multivariable regression was used to develop two predictive models for SLD risk, with and without ultrasound, using VCTE as gold standard. Missing data were minimal and retained in the analysis, as their proportion was not statistically relevant. Predictive performance (sensitivity, specificity, positive predictive value and negative predictive value) was compared with the clinically used Fatty Liver Index (FLI). The algorithm without ultrasound achieved a sensitivity of 81.1% (95% CI 71.7% to 88.4%) and specificity of 71.4% (95% CI 57.9% to 80.4%). The model with ultrasound demonstrated a sensitivity of 91.5% (95% CI 84.1% to 95.6%) and specificity of 70% (95% CI 59.9% to 80.7%). FLI showed an area under the curve (AUC) of 0.762, while our models achieved higher AUCs: 0.878 (with ultrasound) and 0.794 (without ultrasound). Our models offer screening tools for SLD in low-resource primary care. The model without ultrasound outperformed FLI, making it a feasible alternative where imaging is unavailable. The ultrasound-based model demonstrated higher performance, underscoring the value of ultrasound when it is accessible. Integrating these algorithms into preventive programmes could improve early diagnosis, especially in populations with a high burden of obesity and diabetes. We developed two predictive models for SLD screening in a Chilean cohort. Both showed strong performance and potential for implementation in primary care to support early detection and better disease management.</t>
+  </si>
+  <si>
+    <t>10.1007/s11248-025-00470-9</t>
+  </si>
+  <si>
+    <t>Nuclear factor-&amp;#x3ba;B protein c-Rel is a critical regulator of autoimmune diabetes. We found that c-Rel O-GlcNAcylation at serine-350 increases with hyperglycemia, which results in increased transcription of proautoimmune Th1 cytokines, interleukin-2 (IL-2) and interferon-gamma (IFN-&amp;#x3b3;), and decreased transcription of the T regulatory cell transcription factor forkhead box 3 (FOXP3). To further study the translational relevance of c-Rel S350 O-GlcNAcylation in autoimmune diabetes, we sought to generate transgenic non-obese diabetic (NOD) mice conditionally expressing wildtype or mutant S350A human c-Rel cDNA in T cells downstream of the endogenous mouse REL promoter. We used CRISPR-Cas9 gene editing to insert a unique designer cassette containing floxed mouse c-Rel cDNA-STOP sequence to maintain whole body c-Rel expression, followed by a linker and human c-Rel cDNA-STOP sequence. Using comprehensive PCR analyses and high-throughput sequencing, we confirmed successful insertion of the cassette at the mouse REL locus and the expected deletion of the mouse c-Rel cDNA specifically in T cells following CD4-Cre mating. Additional characterization revealed that the knock-in transgenic mice lacked endogenous mouse c-Rel, further confirming desired interference with its natural start codon. Unexpectedly, these mice lacked mouse and human c-Rel protein expression from inserted cDNAs, which mechanistically correlated with increased CpG methylation of the c-Rel promoter region. Thus, our study presents a unique, universal molecular design and method for the generation of conditional knock-in transgenic mice expressing human genes at the endogenous mouse promoter. It also reveals a potential locus-specific challenge that may arise during the development of such novel transgenic mouse models.</t>
+  </si>
+  <si>
+    <t>ENROLLING_BY_INVITATION</t>
+  </si>
+  <si>
+    <t>Diabetes and cancer</t>
+  </si>
+  <si>
+    <t>P Vigneri, F Frasca, L Sciacca</t>
+  </si>
+  <si>
+    <t>… had an increase in mortality similar to that of diabetic women with breast cancer, suggesting that diabetes, rather than breast cancer, was the major factor contributing to the raised …</t>
+  </si>
+  <si>
+    <t>Diabetes and cancer: is diabetes causally related to cancer?</t>
+  </si>
+  <si>
+    <t>S Suh, KW Kim</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>… Type 2 diabetes and cancer share many risk factors, but potential biologic … diabetes and cancer, and the possible mechanisms involved. The link between diabetes treatment and cancer …</t>
+  </si>
+  <si>
+    <t>Latest insights into the risk of cancer in diabetes</t>
+  </si>
+  <si>
+    <t>H Noto, A Goto, T Tsujimoto, K Osame</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>… factors common to both diabetes and cancer, possible biological links between diabetes and cancer risk, and whether diabetes treatments influence risk of cancer or cancer prognosis9. …</t>
+  </si>
+  <si>
+    <t>TA Chowdhury</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>… the pathogenesis of cancer amongst patients with diabetes, and recently, diabetes therapies … metformin may decrease the risk of cancer amongst diabetic patients. Much more research …</t>
+  </si>
+  <si>
+    <t>Diabetes and cancer: A comprehensive review</t>
+  </si>
+  <si>
+    <t>M Abudawood</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>… cancer … diabetes could be related to cancer. Yet, the results from most of the studies are obscure and conflicting and need a robust research so that the link between diabetes and cancer …</t>
+  </si>
+  <si>
+    <t>The global implications of diabetes and cancer</t>
+  </si>
+  <si>
+    <t>Y Shi, FB Hu</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>… 5 Diabetes is associated with reduced incidence of prostate cancer, 6 but people with diabetes have an increased risk of mortality if they do develop prostate cancer. 7 …</t>
+  </si>
+  <si>
+    <t>Probability of pancreatic cancer following diabetes: a population-based study</t>
+  </si>
+  <si>
+    <t>ST Chari, CL Leibson, KG Rabe, J Ransom</t>
+  </si>
+  <si>
+    <t>… The observed-to-expected ratio of pancreatic cancer in the cohort was 7.94 (95% CI, 4.70–… cancer, diabetic subjects with pancreatic cancer were more likely to have met diabetes criteria …</t>
+  </si>
+  <si>
+    <t>Diabetes and cancer: risk, challenges, management and outcomes</t>
+  </si>
+  <si>
+    <t>RK Shahid, S Ahmed, D Le, S Yadav</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>… of cancer therapy. This review highlights the relationship between diabetes and cancer and … This review highlights the relationship between diabetes and cancer and various aspects of …</t>
+  </si>
+  <si>
+    <t>Diabetes mellitus and breast cancer</t>
+  </si>
+  <si>
+    <t>I Wolf, S Sadetzki, R Catane, A Karasik</t>
+  </si>
+  <si>
+    <t>… types of cancer, including endometrial cancer and … diabetes, especially type 2 diabetes, and breast cancer. These associations include the biological effects of diabetes on breast-cancer …</t>
+  </si>
+  <si>
+    <t>Diabetes and cancer: a review of current knowledge</t>
+  </si>
+  <si>
+    <t>J Wojciechowska, W Krajewski</t>
+  </si>
+  <si>
+    <t>… the influence of diabetes mellitus and anti-diabetic medications on … diabetes mellitus and anti-diabetic medications and cancer … head and neck cancers in diabetics, rarely analysed and …</t>
+  </si>
+  <si>
+    <t>Diabetes and cancer: Epidemiological and biological links</t>
+  </si>
+  <si>
+    <t>M Wang, Y Yang, Z Liao</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>… cancers, have a modest growth in diabetics. However, diabetes may work as a protective factor for prostate cancer. … and biological links between diabetes and various types of cancer. …</t>
+  </si>
+  <si>
+    <t>A Marble</t>
+  </si>
+  <si>
+    <t>1934</t>
+  </si>
+  <si>
+    <t>… the onset of diabetes preceded that of cancer symptoms, in … the onset of cancer symptoms precede that of diabetes. In other … group of diabetic patients who later developed cancer rather …</t>
+  </si>
+  <si>
+    <t>Diabetes and risk of cancer</t>
+  </si>
+  <si>
+    <t>SL Habib, M Rojna</t>
+  </si>
+  <si>
+    <t>… diabetes and cancer will … diabetes and cancer including studies relating to the general all-site increase of malignancies in diabetes and elevated organ-specific cancer rate in diabetes …</t>
+  </si>
+  <si>
+    <t>The epidemiology of diabetes and cancer</t>
+  </si>
+  <si>
+    <t>B Carstensen, ME Jørgensen, S Friis</t>
+  </si>
+  <si>
+    <t>… population impact of diabetes and cancer rather than … diabetes and cancer occurrence. Specifically, we will evaluate the high mortality among cancer patients with pre-existing diabetes, …</t>
+  </si>
+  <si>
+    <t>Diabetes and pancreatic cancer</t>
+  </si>
+  <si>
+    <t>D Li</t>
+  </si>
+  <si>
+    <t>… risk factors for both type 2 diabetes mellitus and pancreatic cancer, whether diabetes is an independent risk factor for pancreatic cancer remains questionable. Limited by the sample …</t>
+  </si>
+  <si>
+    <t>Cancer and diabetes‐a follow‐up study of two populationbased cohorts of diabetic patients</t>
+  </si>
+  <si>
+    <t>H Hjalgrim, M Frisch, A Ekbom, KO Kyvik</t>
+  </si>
+  <si>
+    <t>… as the result of cancer induced DM (eg pancreatic cancer) we wanted to evaluate whether such selection bias was likely to have taken place. Thus, we calculated SIRS for cancer in two …</t>
+  </si>
+  <si>
+    <t>Diabetes and cancer (2): evaluating the impact of diabetes on mortality in patients with cancer</t>
+  </si>
+  <si>
+    <t>, H Møller, Diabetes and Cancer Research Consortium</t>
+  </si>
+  <si>
+    <t>… that glucose-lowering treatments may modulate cancer risk but many of these … diabetes and cancer risk report cancer incidence as the primary endpoint [2–8], while others report cancer …</t>
+  </si>
+  <si>
+    <t>Cancer and diabetes: are we ready for prime time?</t>
+  </si>
+  <si>
+    <t>U Smith, EAM Gale</t>
+  </si>
+  <si>
+    <t>… An association between diabetes and cancer was first reported as an … either diabetics tend to develop cancer or that cancer patients tend to develop symptoms recognised as diabetic’. …</t>
+  </si>
+  <si>
+    <t>Z Zelenko, EJ Gallagher</t>
+  </si>
+  <si>
+    <t>… of developing breast cancer compared with women without diabetes, but no increased risk in … breast cancer was observed in this study. Other cancers, such as hepatocellular cancer, …</t>
+  </si>
+  <si>
+    <t>Diabetes and cancer: two diseases with obesity as a common risk factor</t>
+  </si>
+  <si>
+    <t>SK Garg, H Maurer, K Reed</t>
+  </si>
+  <si>
+    <t>… diabetes and cancer. Here, we examine the relationship between diabetes, obesity and cancer… underlying causes of increased cancer risk in individuals with diabetes. Current treatment …</t>
   </si>
 </sst>
 </file>
@@ -787,7 +1501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K201"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="24" customWidth="1"/>
@@ -2201,16 +2915,16 @@
         <v>12</v>
       </c>
       <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
         <v>71</v>
       </c>
-      <c r="D41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" t="s">
-        <v>22</v>
-      </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="G41" t="s">
         <v>13</v>
@@ -2236,16 +2950,16 @@
         <v>12</v>
       </c>
       <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" t="s">
         <v>72</v>
       </c>
-      <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" t="s">
-        <v>23</v>
-      </c>
       <c r="F42" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="G42" t="s">
         <v>13</v>
@@ -2271,16 +2985,16 @@
         <v>12</v>
       </c>
       <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
         <v>73</v>
       </c>
-      <c r="D43" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" t="s">
-        <v>24</v>
-      </c>
       <c r="F43" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
@@ -2306,16 +3020,16 @@
         <v>12</v>
       </c>
       <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
         <v>74</v>
       </c>
-      <c r="D44" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" t="s">
-        <v>75</v>
-      </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
@@ -2341,16 +3055,16 @@
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G45" t="s">
         <v>13</v>
@@ -2376,16 +3090,16 @@
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
       </c>
       <c r="E46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G46" t="s">
         <v>13</v>
@@ -2411,16 +3125,16 @@
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s">
         <v>13</v>
@@ -2446,16 +3160,16 @@
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
@@ -2481,16 +3195,16 @@
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F49" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s">
         <v>13</v>
@@ -2516,16 +3230,16 @@
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F50" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s">
         <v>13</v>
@@ -2551,16 +3265,16 @@
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
         <v>13</v>
       </c>
       <c r="E51" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G51" t="s">
         <v>13</v>
@@ -2586,16 +3300,16 @@
         <v>12</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
       </c>
       <c r="E52" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F52" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G52" t="s">
         <v>13</v>
@@ -2621,16 +3335,16 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
       </c>
       <c r="E53" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="F53" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s">
         <v>13</v>
@@ -2656,16 +3370,16 @@
         <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
       </c>
       <c r="E54" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F54" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G54" t="s">
         <v>13</v>
@@ -2691,16 +3405,16 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
       </c>
       <c r="E55" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F55" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G55" t="s">
         <v>13</v>
@@ -2726,16 +3440,16 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
       </c>
       <c r="E56" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F56" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s">
         <v>13</v>
@@ -2761,16 +3475,16 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
       </c>
       <c r="E57" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F57" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="G57" t="s">
         <v>13</v>
@@ -2796,16 +3510,16 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
       </c>
       <c r="E58" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="F58" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s">
         <v>13</v>
@@ -2831,16 +3545,16 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="D59" t="s">
         <v>13</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F59" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s">
         <v>13</v>
@@ -2866,16 +3580,16 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
       </c>
       <c r="E60" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F60" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="G60" t="s">
         <v>13</v>
@@ -2901,16 +3615,16 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
       </c>
       <c r="E61" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F61" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="G61" t="s">
         <v>13</v>
@@ -2936,16 +3650,16 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
         <v>13</v>
       </c>
       <c r="E62" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F62" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="G62" t="s">
         <v>13</v>
@@ -2971,16 +3685,16 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
       </c>
       <c r="E63" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F63" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="G63" t="s">
         <v>13</v>
@@ -3006,16 +3720,16 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
       </c>
       <c r="E64" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F64" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="G64" t="s">
         <v>13</v>
@@ -3041,16 +3755,16 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="F65" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="G65" t="s">
         <v>13</v>
@@ -3076,16 +3790,16 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
       </c>
       <c r="E66" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="F66" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G66" t="s">
         <v>13</v>
@@ -3111,16 +3825,16 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="D67" t="s">
         <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="F67" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="G67" t="s">
         <v>13</v>
@@ -3146,16 +3860,16 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
       </c>
       <c r="E68" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="F68" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="G68" t="s">
         <v>13</v>
@@ -3181,16 +3895,16 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
       </c>
       <c r="E69" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="F69" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="G69" t="s">
         <v>13</v>
@@ -3216,16 +3930,16 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
       </c>
       <c r="E70" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="F70" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="G70" t="s">
         <v>13</v>
@@ -3251,16 +3965,16 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
       </c>
       <c r="E71" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="F71" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="G71" t="s">
         <v>13</v>
@@ -3286,16 +4000,16 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
       <c r="D72" t="s">
         <v>13</v>
       </c>
       <c r="E72" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F72" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="G72" t="s">
         <v>13</v>
@@ -3315,106 +4029,4516 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D73" t="s">
         <v>13</v>
       </c>
       <c r="E73" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>128</v>
-      </c>
-      <c r="G73" t="s">
-        <v>13</v>
+        <v>104</v>
+      </c>
+      <c r="G73">
+        <v>2025</v>
       </c>
       <c r="H73" t="s">
         <v>13</v>
       </c>
       <c r="I73" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="J73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K73" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
         <v>13</v>
       </c>
       <c r="E74" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>130</v>
-      </c>
-      <c r="G74" t="s">
-        <v>13</v>
+        <v>107</v>
+      </c>
+      <c r="G74">
+        <v>2025</v>
       </c>
       <c r="H74" t="s">
         <v>13</v>
       </c>
       <c r="I74" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="J74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K74" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
+        <v>109</v>
+      </c>
+      <c r="G75">
+        <v>2025</v>
+      </c>
+      <c r="H75" t="s">
+        <v>13</v>
+      </c>
+      <c r="I75" t="s">
+        <v>110</v>
+      </c>
+      <c r="J75" t="s">
+        <v>11</v>
+      </c>
+      <c r="K75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>11</v>
+      </c>
+      <c r="B76" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
+        <v>111</v>
+      </c>
+      <c r="G76">
+        <v>2025</v>
+      </c>
+      <c r="H76" t="s">
+        <v>13</v>
+      </c>
+      <c r="I76" t="s">
+        <v>112</v>
+      </c>
+      <c r="J76" t="s">
+        <v>11</v>
+      </c>
+      <c r="K76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" t="s">
+        <v>113</v>
+      </c>
+      <c r="G77">
+        <v>2025</v>
+      </c>
+      <c r="H77" t="s">
+        <v>13</v>
+      </c>
+      <c r="I77" t="s">
+        <v>114</v>
+      </c>
+      <c r="J77" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>11</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" t="s">
+        <v>115</v>
+      </c>
+      <c r="G78">
+        <v>2025</v>
+      </c>
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" t="s">
+        <v>116</v>
+      </c>
+      <c r="J78" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
+        <v>117</v>
+      </c>
+      <c r="G79">
+        <v>2025</v>
+      </c>
+      <c r="H79" t="s">
+        <v>13</v>
+      </c>
+      <c r="I79" t="s">
+        <v>118</v>
+      </c>
+      <c r="J79" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
+        <v>119</v>
+      </c>
+      <c r="G80">
+        <v>2025</v>
+      </c>
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+      <c r="I80" t="s">
+        <v>120</v>
+      </c>
+      <c r="J80" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F81" t="s">
+        <v>121</v>
+      </c>
+      <c r="G81">
+        <v>2025</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+      <c r="I81" t="s">
+        <v>122</v>
+      </c>
+      <c r="J81" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>11</v>
+      </c>
+      <c r="B82" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" t="s">
+        <v>123</v>
+      </c>
+      <c r="G82">
+        <v>2025</v>
+      </c>
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+      <c r="I82" t="s">
+        <v>124</v>
+      </c>
+      <c r="J82" t="s">
+        <v>11</v>
+      </c>
+      <c r="K82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
+        <v>125</v>
+      </c>
+      <c r="G83">
+        <v>2025</v>
+      </c>
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+      <c r="I83" t="s">
+        <v>13</v>
+      </c>
+      <c r="J83" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" t="s">
+        <v>126</v>
+      </c>
+      <c r="G84">
+        <v>2026</v>
+      </c>
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+      <c r="I84" t="s">
+        <v>127</v>
+      </c>
+      <c r="J84" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
+        <v>128</v>
+      </c>
+      <c r="G85">
+        <v>2025</v>
+      </c>
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+      <c r="I85" t="s">
         <v>129</v>
       </c>
-      <c r="D75" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="J85" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" t="s">
+        <v>13</v>
+      </c>
+      <c r="F86" t="s">
+        <v>130</v>
+      </c>
+      <c r="G86">
+        <v>2025</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" t="s">
         <v>131</v>
       </c>
-      <c r="F75" t="s">
-        <v>131</v>
-      </c>
-      <c r="G75" t="s">
-        <v>13</v>
-      </c>
-      <c r="H75" t="s">
-        <v>13</v>
-      </c>
-      <c r="I75" t="s">
-        <v>13</v>
-      </c>
-      <c r="J75" t="s">
-        <v>13</v>
-      </c>
-      <c r="K75" t="s">
+      <c r="J86" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>11</v>
+      </c>
+      <c r="B87" t="s">
+        <v>103</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
+        <v>132</v>
+      </c>
+      <c r="G87">
+        <v>2025</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" t="s">
+        <v>133</v>
+      </c>
+      <c r="J87" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" t="s">
+        <v>103</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" t="s">
+        <v>134</v>
+      </c>
+      <c r="G88">
+        <v>2025</v>
+      </c>
+      <c r="H88" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" t="s">
+        <v>135</v>
+      </c>
+      <c r="J88" t="s">
+        <v>11</v>
+      </c>
+      <c r="K88" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
+        <v>136</v>
+      </c>
+      <c r="G89">
+        <v>2025</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+      <c r="I89" t="s">
+        <v>137</v>
+      </c>
+      <c r="J89" t="s">
+        <v>11</v>
+      </c>
+      <c r="K89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s">
+        <v>138</v>
+      </c>
+      <c r="G90">
+        <v>2025</v>
+      </c>
+      <c r="H90" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" t="s">
+        <v>139</v>
+      </c>
+      <c r="J90" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
+        <v>140</v>
+      </c>
+      <c r="G91">
+        <v>2025</v>
+      </c>
+      <c r="H91" t="s">
+        <v>13</v>
+      </c>
+      <c r="I91" t="s">
+        <v>141</v>
+      </c>
+      <c r="J91" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
+        <v>142</v>
+      </c>
+      <c r="G92">
+        <v>2025</v>
+      </c>
+      <c r="H92" t="s">
+        <v>13</v>
+      </c>
+      <c r="I92" t="s">
+        <v>143</v>
+      </c>
+      <c r="J92" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" t="s">
+        <v>13</v>
+      </c>
+      <c r="F93" t="s">
+        <v>144</v>
+      </c>
+      <c r="G93">
+        <v>2025</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+      <c r="I93" t="s">
+        <v>145</v>
+      </c>
+      <c r="J93" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
+        <v>146</v>
+      </c>
+      <c r="G94">
+        <v>2025</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" t="s">
+        <v>147</v>
+      </c>
+      <c r="J94" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
+        <v>148</v>
+      </c>
+      <c r="G95">
+        <v>2025</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" t="s">
+        <v>149</v>
+      </c>
+      <c r="J95" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
+        <v>150</v>
+      </c>
+      <c r="G96">
+        <v>2025</v>
+      </c>
+      <c r="H96" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" t="s">
+        <v>151</v>
+      </c>
+      <c r="J96" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>152</v>
+      </c>
+      <c r="G97">
+        <v>2025</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I97" t="s">
+        <v>153</v>
+      </c>
+      <c r="J97" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>11</v>
+      </c>
+      <c r="B98" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s">
+        <v>154</v>
+      </c>
+      <c r="G98">
+        <v>2025</v>
+      </c>
+      <c r="H98" t="s">
+        <v>13</v>
+      </c>
+      <c r="I98" t="s">
+        <v>155</v>
+      </c>
+      <c r="J98" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
+        <v>156</v>
+      </c>
+      <c r="G99">
+        <v>2025</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+      <c r="I99" t="s">
+        <v>157</v>
+      </c>
+      <c r="J99" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" t="s">
+        <v>13</v>
+      </c>
+      <c r="F100" t="s">
+        <v>158</v>
+      </c>
+      <c r="G100">
+        <v>2025</v>
+      </c>
+      <c r="H100" t="s">
+        <v>13</v>
+      </c>
+      <c r="I100" t="s">
+        <v>159</v>
+      </c>
+      <c r="J100" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>160</v>
+      </c>
+      <c r="G101">
+        <v>2025</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" t="s">
+        <v>161</v>
+      </c>
+      <c r="J101" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>162</v>
+      </c>
+      <c r="G102">
+        <v>2025</v>
+      </c>
+      <c r="H102" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" t="s">
+        <v>163</v>
+      </c>
+      <c r="J102" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" t="s">
+        <v>13</v>
+      </c>
+      <c r="F103" t="s">
+        <v>164</v>
+      </c>
+      <c r="G103">
+        <v>2025</v>
+      </c>
+      <c r="H103" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" t="s">
+        <v>165</v>
+      </c>
+      <c r="J103" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
+        <v>166</v>
+      </c>
+      <c r="G104">
+        <v>2025</v>
+      </c>
+      <c r="H104" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" t="s">
+        <v>167</v>
+      </c>
+      <c r="J104" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>168</v>
+      </c>
+      <c r="G105">
+        <v>2025</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" t="s">
+        <v>169</v>
+      </c>
+      <c r="J105" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>13</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>170</v>
+      </c>
+      <c r="G106">
+        <v>2025</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" t="s">
+        <v>171</v>
+      </c>
+      <c r="J106" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>172</v>
+      </c>
+      <c r="G107">
+        <v>2025</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" t="s">
+        <v>173</v>
+      </c>
+      <c r="J107" t="s">
+        <v>11</v>
+      </c>
+      <c r="K107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108" t="s">
+        <v>174</v>
+      </c>
+      <c r="G108">
+        <v>2025</v>
+      </c>
+      <c r="H108" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" t="s">
+        <v>175</v>
+      </c>
+      <c r="J108" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" t="s">
+        <v>103</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109" t="s">
+        <v>176</v>
+      </c>
+      <c r="G109">
+        <v>2025</v>
+      </c>
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" t="s">
+        <v>177</v>
+      </c>
+      <c r="J109" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" t="s">
+        <v>178</v>
+      </c>
+      <c r="G110">
+        <v>2025</v>
+      </c>
+      <c r="H110" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" t="s">
+        <v>179</v>
+      </c>
+      <c r="J110" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" t="s">
+        <v>103</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
+        <v>180</v>
+      </c>
+      <c r="G111">
+        <v>2025</v>
+      </c>
+      <c r="H111" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" t="s">
+        <v>181</v>
+      </c>
+      <c r="J111" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>103</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112" t="s">
+        <v>182</v>
+      </c>
+      <c r="G112">
+        <v>2025</v>
+      </c>
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" t="s">
+        <v>183</v>
+      </c>
+      <c r="J112" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
+        <v>184</v>
+      </c>
+      <c r="G113">
+        <v>2025</v>
+      </c>
+      <c r="H113" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" t="s">
+        <v>185</v>
+      </c>
+      <c r="J113" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>103</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s">
+        <v>186</v>
+      </c>
+      <c r="G114">
+        <v>2025</v>
+      </c>
+      <c r="H114" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" t="s">
+        <v>187</v>
+      </c>
+      <c r="J114" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s">
+        <v>188</v>
+      </c>
+      <c r="G115">
+        <v>2025</v>
+      </c>
+      <c r="H115" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" t="s">
+        <v>189</v>
+      </c>
+      <c r="J115" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" t="s">
+        <v>103</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
+        <v>190</v>
+      </c>
+      <c r="G116">
+        <v>2025</v>
+      </c>
+      <c r="H116" t="s">
+        <v>13</v>
+      </c>
+      <c r="I116" t="s">
+        <v>191</v>
+      </c>
+      <c r="J116" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>103</v>
+      </c>
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" t="s">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s">
+        <v>192</v>
+      </c>
+      <c r="G117">
+        <v>2025</v>
+      </c>
+      <c r="H117" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" t="s">
+        <v>193</v>
+      </c>
+      <c r="J117" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>103</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>194</v>
+      </c>
+      <c r="G118">
+        <v>2025</v>
+      </c>
+      <c r="H118" t="s">
+        <v>13</v>
+      </c>
+      <c r="I118" t="s">
+        <v>195</v>
+      </c>
+      <c r="J118" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s">
+        <v>196</v>
+      </c>
+      <c r="G119">
+        <v>2025</v>
+      </c>
+      <c r="H119" t="s">
+        <v>13</v>
+      </c>
+      <c r="I119" t="s">
+        <v>197</v>
+      </c>
+      <c r="J119" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" t="s">
+        <v>103</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" t="s">
+        <v>13</v>
+      </c>
+      <c r="F120" t="s">
+        <v>198</v>
+      </c>
+      <c r="G120">
+        <v>2025</v>
+      </c>
+      <c r="H120" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" t="s">
+        <v>199</v>
+      </c>
+      <c r="J120" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" t="s">
+        <v>103</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" t="s">
+        <v>200</v>
+      </c>
+      <c r="G121">
+        <v>2026</v>
+      </c>
+      <c r="H121" t="s">
+        <v>13</v>
+      </c>
+      <c r="I121" t="s">
+        <v>201</v>
+      </c>
+      <c r="J121" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s">
+        <v>103</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
+        <v>202</v>
+      </c>
+      <c r="G122">
+        <v>2025</v>
+      </c>
+      <c r="H122" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122" t="s">
+        <v>203</v>
+      </c>
+      <c r="J122" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" t="s">
+        <v>103</v>
+      </c>
+      <c r="C123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" t="s">
+        <v>13</v>
+      </c>
+      <c r="F123" t="s">
+        <v>204</v>
+      </c>
+      <c r="G123">
+        <v>2025</v>
+      </c>
+      <c r="H123" t="s">
+        <v>13</v>
+      </c>
+      <c r="I123" t="s">
+        <v>205</v>
+      </c>
+      <c r="J123" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" t="s">
+        <v>103</v>
+      </c>
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" t="s">
+        <v>206</v>
+      </c>
+      <c r="G124">
+        <v>2025</v>
+      </c>
+      <c r="H124" t="s">
+        <v>13</v>
+      </c>
+      <c r="I124" t="s">
+        <v>207</v>
+      </c>
+      <c r="J124" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" t="s">
+        <v>103</v>
+      </c>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
+        <v>208</v>
+      </c>
+      <c r="G125">
+        <v>2025</v>
+      </c>
+      <c r="H125" t="s">
+        <v>13</v>
+      </c>
+      <c r="I125" t="s">
+        <v>209</v>
+      </c>
+      <c r="J125" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" t="s">
+        <v>103</v>
+      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126" t="s">
+        <v>210</v>
+      </c>
+      <c r="G126">
+        <v>2025</v>
+      </c>
+      <c r="H126" t="s">
+        <v>13</v>
+      </c>
+      <c r="I126" t="s">
+        <v>211</v>
+      </c>
+      <c r="J126" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" t="s">
+        <v>103</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
+        <v>212</v>
+      </c>
+      <c r="G127">
+        <v>2025</v>
+      </c>
+      <c r="H127" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" t="s">
+        <v>213</v>
+      </c>
+      <c r="J127" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" t="s">
+        <v>103</v>
+      </c>
+      <c r="C128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
+        <v>214</v>
+      </c>
+      <c r="G128">
+        <v>2025</v>
+      </c>
+      <c r="H128" t="s">
+        <v>13</v>
+      </c>
+      <c r="I128" t="s">
+        <v>215</v>
+      </c>
+      <c r="J128" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>103</v>
+      </c>
+      <c r="C129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
+        <v>216</v>
+      </c>
+      <c r="G129">
+        <v>2025</v>
+      </c>
+      <c r="H129" t="s">
+        <v>13</v>
+      </c>
+      <c r="I129" t="s">
+        <v>217</v>
+      </c>
+      <c r="J129" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>103</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
+        <v>218</v>
+      </c>
+      <c r="G130">
+        <v>2025</v>
+      </c>
+      <c r="H130" t="s">
+        <v>13</v>
+      </c>
+      <c r="I130" t="s">
+        <v>219</v>
+      </c>
+      <c r="J130" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" t="s">
+        <v>103</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
+        <v>220</v>
+      </c>
+      <c r="G131">
+        <v>2025</v>
+      </c>
+      <c r="H131" t="s">
+        <v>13</v>
+      </c>
+      <c r="I131" t="s">
+        <v>13</v>
+      </c>
+      <c r="J131" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>103</v>
+      </c>
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s">
+        <v>221</v>
+      </c>
+      <c r="G132">
+        <v>2025</v>
+      </c>
+      <c r="H132" t="s">
+        <v>13</v>
+      </c>
+      <c r="I132" t="s">
+        <v>222</v>
+      </c>
+      <c r="J132" t="s">
+        <v>11</v>
+      </c>
+      <c r="K132" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>103</v>
+      </c>
+      <c r="C133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" t="s">
+        <v>223</v>
+      </c>
+      <c r="G133">
+        <v>2025</v>
+      </c>
+      <c r="H133" t="s">
+        <v>13</v>
+      </c>
+      <c r="I133" t="s">
+        <v>224</v>
+      </c>
+      <c r="J133" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>103</v>
+      </c>
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" t="s">
+        <v>225</v>
+      </c>
+      <c r="G134">
+        <v>2025</v>
+      </c>
+      <c r="H134" t="s">
+        <v>13</v>
+      </c>
+      <c r="I134" t="s">
+        <v>226</v>
+      </c>
+      <c r="J134" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>103</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" t="s">
+        <v>227</v>
+      </c>
+      <c r="G135">
+        <v>2025</v>
+      </c>
+      <c r="H135" t="s">
+        <v>13</v>
+      </c>
+      <c r="I135" t="s">
+        <v>228</v>
+      </c>
+      <c r="J135" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" t="s">
+        <v>103</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
+        <v>229</v>
+      </c>
+      <c r="G136">
+        <v>2025</v>
+      </c>
+      <c r="H136" t="s">
+        <v>13</v>
+      </c>
+      <c r="I136" t="s">
+        <v>230</v>
+      </c>
+      <c r="J136" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" t="s">
+        <v>103</v>
+      </c>
+      <c r="C137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" t="s">
+        <v>13</v>
+      </c>
+      <c r="F137" t="s">
+        <v>231</v>
+      </c>
+      <c r="G137">
+        <v>2025</v>
+      </c>
+      <c r="H137" t="s">
+        <v>13</v>
+      </c>
+      <c r="I137" t="s">
+        <v>232</v>
+      </c>
+      <c r="J137" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" t="s">
+        <v>103</v>
+      </c>
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" t="s">
+        <v>13</v>
+      </c>
+      <c r="F138" t="s">
+        <v>233</v>
+      </c>
+      <c r="G138">
+        <v>2025</v>
+      </c>
+      <c r="H138" t="s">
+        <v>13</v>
+      </c>
+      <c r="I138" t="s">
+        <v>234</v>
+      </c>
+      <c r="J138" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>103</v>
+      </c>
+      <c r="C139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" t="s">
+        <v>13</v>
+      </c>
+      <c r="F139" t="s">
+        <v>235</v>
+      </c>
+      <c r="G139">
+        <v>2025</v>
+      </c>
+      <c r="H139" t="s">
+        <v>13</v>
+      </c>
+      <c r="I139" t="s">
+        <v>236</v>
+      </c>
+      <c r="J139" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" t="s">
+        <v>103</v>
+      </c>
+      <c r="C140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" t="s">
+        <v>13</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" t="s">
+        <v>237</v>
+      </c>
+      <c r="G140">
+        <v>2025</v>
+      </c>
+      <c r="H140" t="s">
+        <v>13</v>
+      </c>
+      <c r="I140" t="s">
+        <v>238</v>
+      </c>
+      <c r="J140" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" t="s">
+        <v>103</v>
+      </c>
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
+        <v>239</v>
+      </c>
+      <c r="G141">
+        <v>2025</v>
+      </c>
+      <c r="H141" t="s">
+        <v>13</v>
+      </c>
+      <c r="I141" t="s">
+        <v>240</v>
+      </c>
+      <c r="J141" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" t="s">
+        <v>103</v>
+      </c>
+      <c r="C142" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
+        <v>241</v>
+      </c>
+      <c r="G142">
+        <v>2025</v>
+      </c>
+      <c r="H142" t="s">
+        <v>13</v>
+      </c>
+      <c r="I142" t="s">
+        <v>242</v>
+      </c>
+      <c r="J142" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" t="s">
+        <v>103</v>
+      </c>
+      <c r="C143" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
+        <v>243</v>
+      </c>
+      <c r="G143">
+        <v>2025</v>
+      </c>
+      <c r="H143" t="s">
+        <v>13</v>
+      </c>
+      <c r="I143" t="s">
+        <v>244</v>
+      </c>
+      <c r="J143" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" t="s">
+        <v>103</v>
+      </c>
+      <c r="C144" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" t="s">
+        <v>245</v>
+      </c>
+      <c r="G144">
+        <v>2025</v>
+      </c>
+      <c r="H144" t="s">
+        <v>13</v>
+      </c>
+      <c r="I144" t="s">
+        <v>246</v>
+      </c>
+      <c r="J144" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" t="s">
+        <v>103</v>
+      </c>
+      <c r="C145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
+        <v>247</v>
+      </c>
+      <c r="G145">
+        <v>2025</v>
+      </c>
+      <c r="H145" t="s">
+        <v>13</v>
+      </c>
+      <c r="I145" t="s">
+        <v>248</v>
+      </c>
+      <c r="J145" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" t="s">
+        <v>103</v>
+      </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>249</v>
+      </c>
+      <c r="G146">
+        <v>2025</v>
+      </c>
+      <c r="H146" t="s">
+        <v>13</v>
+      </c>
+      <c r="I146" t="s">
+        <v>250</v>
+      </c>
+      <c r="J146" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" t="s">
+        <v>103</v>
+      </c>
+      <c r="C147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>251</v>
+      </c>
+      <c r="G147">
+        <v>2025</v>
+      </c>
+      <c r="H147" t="s">
+        <v>13</v>
+      </c>
+      <c r="I147" t="s">
+        <v>252</v>
+      </c>
+      <c r="J147" t="s">
+        <v>11</v>
+      </c>
+      <c r="K147" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" t="s">
+        <v>103</v>
+      </c>
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" t="s">
+        <v>13</v>
+      </c>
+      <c r="F148" t="s">
+        <v>253</v>
+      </c>
+      <c r="G148">
+        <v>2025</v>
+      </c>
+      <c r="H148" t="s">
+        <v>13</v>
+      </c>
+      <c r="I148" t="s">
+        <v>254</v>
+      </c>
+      <c r="J148" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" t="s">
+        <v>103</v>
+      </c>
+      <c r="C149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" t="s">
+        <v>13</v>
+      </c>
+      <c r="F149" t="s">
+        <v>255</v>
+      </c>
+      <c r="G149">
+        <v>2025</v>
+      </c>
+      <c r="H149" t="s">
+        <v>13</v>
+      </c>
+      <c r="I149" t="s">
+        <v>256</v>
+      </c>
+      <c r="J149" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" t="s">
+        <v>103</v>
+      </c>
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150" t="s">
+        <v>13</v>
+      </c>
+      <c r="F150" t="s">
+        <v>257</v>
+      </c>
+      <c r="G150">
+        <v>2025</v>
+      </c>
+      <c r="H150" t="s">
+        <v>13</v>
+      </c>
+      <c r="I150" t="s">
+        <v>258</v>
+      </c>
+      <c r="J150" t="s">
+        <v>11</v>
+      </c>
+      <c r="K150" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" t="s">
+        <v>103</v>
+      </c>
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" t="s">
+        <v>259</v>
+      </c>
+      <c r="G151">
+        <v>2025</v>
+      </c>
+      <c r="H151" t="s">
+        <v>13</v>
+      </c>
+      <c r="I151" t="s">
+        <v>260</v>
+      </c>
+      <c r="J151" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" t="s">
+        <v>103</v>
+      </c>
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" t="s">
+        <v>13</v>
+      </c>
+      <c r="E152" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
+        <v>261</v>
+      </c>
+      <c r="G152">
+        <v>2025</v>
+      </c>
+      <c r="H152" t="s">
+        <v>13</v>
+      </c>
+      <c r="I152" t="s">
+        <v>262</v>
+      </c>
+      <c r="J152" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" t="s">
+        <v>103</v>
+      </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153" t="s">
+        <v>263</v>
+      </c>
+      <c r="G153">
+        <v>2025</v>
+      </c>
+      <c r="H153" t="s">
+        <v>13</v>
+      </c>
+      <c r="I153" t="s">
+        <v>264</v>
+      </c>
+      <c r="J153" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" t="s">
+        <v>103</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" t="s">
+        <v>13</v>
+      </c>
+      <c r="E154" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s">
+        <v>265</v>
+      </c>
+      <c r="G154">
+        <v>2025</v>
+      </c>
+      <c r="H154" t="s">
+        <v>13</v>
+      </c>
+      <c r="I154" t="s">
+        <v>266</v>
+      </c>
+      <c r="J154" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" t="s">
+        <v>103</v>
+      </c>
+      <c r="C155" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s">
+        <v>267</v>
+      </c>
+      <c r="G155">
+        <v>2025</v>
+      </c>
+      <c r="H155" t="s">
+        <v>13</v>
+      </c>
+      <c r="I155" t="s">
+        <v>268</v>
+      </c>
+      <c r="J155" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" t="s">
+        <v>103</v>
+      </c>
+      <c r="C156" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s">
+        <v>269</v>
+      </c>
+      <c r="G156">
+        <v>2026</v>
+      </c>
+      <c r="H156" t="s">
+        <v>13</v>
+      </c>
+      <c r="I156" t="s">
+        <v>13</v>
+      </c>
+      <c r="J156" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" t="s">
+        <v>103</v>
+      </c>
+      <c r="C157" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s">
+        <v>270</v>
+      </c>
+      <c r="G157">
+        <v>2025</v>
+      </c>
+      <c r="H157" t="s">
+        <v>13</v>
+      </c>
+      <c r="I157" t="s">
+        <v>271</v>
+      </c>
+      <c r="J157" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" t="s">
+        <v>103</v>
+      </c>
+      <c r="C158" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s">
+        <v>272</v>
+      </c>
+      <c r="G158">
+        <v>2026</v>
+      </c>
+      <c r="H158" t="s">
+        <v>13</v>
+      </c>
+      <c r="I158" t="s">
+        <v>273</v>
+      </c>
+      <c r="J158" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" t="s">
+        <v>103</v>
+      </c>
+      <c r="C159" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" t="s">
+        <v>13</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>274</v>
+      </c>
+      <c r="G159">
+        <v>2025</v>
+      </c>
+      <c r="H159" t="s">
+        <v>13</v>
+      </c>
+      <c r="I159" t="s">
+        <v>275</v>
+      </c>
+      <c r="J159" t="s">
+        <v>11</v>
+      </c>
+      <c r="K159" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" t="s">
+        <v>103</v>
+      </c>
+      <c r="C160" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
+      <c r="E160" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>276</v>
+      </c>
+      <c r="G160">
+        <v>2025</v>
+      </c>
+      <c r="H160" t="s">
+        <v>13</v>
+      </c>
+      <c r="I160" t="s">
+        <v>277</v>
+      </c>
+      <c r="J160" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" t="s">
+        <v>103</v>
+      </c>
+      <c r="C161" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" t="s">
+        <v>13</v>
+      </c>
+      <c r="E161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s">
+        <v>278</v>
+      </c>
+      <c r="G161">
+        <v>2025</v>
+      </c>
+      <c r="H161" t="s">
+        <v>13</v>
+      </c>
+      <c r="I161" t="s">
+        <v>279</v>
+      </c>
+      <c r="J161" t="s">
+        <v>11</v>
+      </c>
+      <c r="K161" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" t="s">
+        <v>103</v>
+      </c>
+      <c r="C162" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s">
+        <v>280</v>
+      </c>
+      <c r="G162">
+        <v>2025</v>
+      </c>
+      <c r="H162" t="s">
+        <v>13</v>
+      </c>
+      <c r="I162" t="s">
+        <v>281</v>
+      </c>
+      <c r="J162" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" t="s">
+        <v>103</v>
+      </c>
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s">
+        <v>282</v>
+      </c>
+      <c r="G163">
+        <v>2025</v>
+      </c>
+      <c r="H163" t="s">
+        <v>13</v>
+      </c>
+      <c r="I163" t="s">
+        <v>283</v>
+      </c>
+      <c r="J163" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" t="s">
+        <v>103</v>
+      </c>
+      <c r="C164" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" t="s">
+        <v>13</v>
+      </c>
+      <c r="E164" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s">
+        <v>284</v>
+      </c>
+      <c r="G164">
+        <v>2025</v>
+      </c>
+      <c r="H164" t="s">
+        <v>13</v>
+      </c>
+      <c r="I164" t="s">
+        <v>285</v>
+      </c>
+      <c r="J164" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" t="s">
+        <v>103</v>
+      </c>
+      <c r="C165" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
+      <c r="E165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
+        <v>286</v>
+      </c>
+      <c r="G165">
+        <v>2025</v>
+      </c>
+      <c r="H165" t="s">
+        <v>13</v>
+      </c>
+      <c r="I165" t="s">
+        <v>287</v>
+      </c>
+      <c r="J165" t="s">
+        <v>11</v>
+      </c>
+      <c r="K165" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" t="s">
+        <v>103</v>
+      </c>
+      <c r="C166" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" t="s">
+        <v>13</v>
+      </c>
+      <c r="E166" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
+        <v>288</v>
+      </c>
+      <c r="G166">
+        <v>2025</v>
+      </c>
+      <c r="H166" t="s">
+        <v>13</v>
+      </c>
+      <c r="I166" t="s">
+        <v>289</v>
+      </c>
+      <c r="J166" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" t="s">
+        <v>103</v>
+      </c>
+      <c r="C167" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
+        <v>290</v>
+      </c>
+      <c r="G167">
+        <v>2025</v>
+      </c>
+      <c r="H167" t="s">
+        <v>13</v>
+      </c>
+      <c r="I167" t="s">
+        <v>291</v>
+      </c>
+      <c r="J167" t="s">
+        <v>11</v>
+      </c>
+      <c r="K167" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" t="s">
+        <v>103</v>
+      </c>
+      <c r="C168" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" t="s">
+        <v>292</v>
+      </c>
+      <c r="G168">
+        <v>2025</v>
+      </c>
+      <c r="H168" t="s">
+        <v>13</v>
+      </c>
+      <c r="I168" t="s">
+        <v>293</v>
+      </c>
+      <c r="J168" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>11</v>
+      </c>
+      <c r="B169" t="s">
+        <v>103</v>
+      </c>
+      <c r="C169" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169" t="s">
+        <v>13</v>
+      </c>
+      <c r="E169" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
+        <v>294</v>
+      </c>
+      <c r="G169">
+        <v>2025</v>
+      </c>
+      <c r="H169" t="s">
+        <v>13</v>
+      </c>
+      <c r="I169" t="s">
+        <v>295</v>
+      </c>
+      <c r="J169" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170" t="s">
+        <v>103</v>
+      </c>
+      <c r="C170" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" t="s">
+        <v>13</v>
+      </c>
+      <c r="E170" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" t="s">
+        <v>296</v>
+      </c>
+      <c r="G170">
+        <v>2025</v>
+      </c>
+      <c r="H170" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" t="s">
+        <v>297</v>
+      </c>
+      <c r="J170" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" t="s">
+        <v>103</v>
+      </c>
+      <c r="C171" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" t="s">
+        <v>13</v>
+      </c>
+      <c r="E171" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s">
+        <v>298</v>
+      </c>
+      <c r="G171">
+        <v>2025</v>
+      </c>
+      <c r="H171" t="s">
+        <v>13</v>
+      </c>
+      <c r="I171" t="s">
+        <v>299</v>
+      </c>
+      <c r="J171" t="s">
+        <v>11</v>
+      </c>
+      <c r="K171" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" t="s">
+        <v>103</v>
+      </c>
+      <c r="C172" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" t="s">
+        <v>300</v>
+      </c>
+      <c r="G172">
+        <v>2025</v>
+      </c>
+      <c r="H172" t="s">
+        <v>13</v>
+      </c>
+      <c r="I172" t="s">
+        <v>301</v>
+      </c>
+      <c r="J172" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" t="s">
+        <v>103</v>
+      </c>
+      <c r="C173" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" t="s">
+        <v>302</v>
+      </c>
+      <c r="G173">
+        <v>2025</v>
+      </c>
+      <c r="H173" t="s">
+        <v>13</v>
+      </c>
+      <c r="I173" t="s">
+        <v>303</v>
+      </c>
+      <c r="J173" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>25</v>
+      </c>
+      <c r="B174" t="s">
+        <v>103</v>
+      </c>
+      <c r="C174" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
+      <c r="H174" t="s">
+        <v>26</v>
+      </c>
+      <c r="I174" t="s">
+        <v>13</v>
+      </c>
+      <c r="J174" t="s">
+        <v>13</v>
+      </c>
+      <c r="K174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>25</v>
+      </c>
+      <c r="B175" t="s">
+        <v>103</v>
+      </c>
+      <c r="C175" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" t="s">
+        <v>13</v>
+      </c>
+      <c r="E175" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175" t="s">
+        <v>13</v>
+      </c>
+      <c r="H175" t="s">
+        <v>38</v>
+      </c>
+      <c r="I175" t="s">
+        <v>13</v>
+      </c>
+      <c r="J175" t="s">
+        <v>13</v>
+      </c>
+      <c r="K175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>25</v>
+      </c>
+      <c r="B176" t="s">
+        <v>103</v>
+      </c>
+      <c r="C176" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" t="s">
+        <v>13</v>
+      </c>
+      <c r="E176" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" t="s">
+        <v>13</v>
+      </c>
+      <c r="G176" t="s">
+        <v>13</v>
+      </c>
+      <c r="H176" t="s">
+        <v>27</v>
+      </c>
+      <c r="I176" t="s">
+        <v>13</v>
+      </c>
+      <c r="J176" t="s">
+        <v>13</v>
+      </c>
+      <c r="K176" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>25</v>
+      </c>
+      <c r="B177" t="s">
+        <v>103</v>
+      </c>
+      <c r="C177" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" t="s">
+        <v>13</v>
+      </c>
+      <c r="E177" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
+        <v>13</v>
+      </c>
+      <c r="G177" t="s">
+        <v>13</v>
+      </c>
+      <c r="H177" t="s">
+        <v>35</v>
+      </c>
+      <c r="I177" t="s">
+        <v>13</v>
+      </c>
+      <c r="J177" t="s">
+        <v>13</v>
+      </c>
+      <c r="K177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>25</v>
+      </c>
+      <c r="B178" t="s">
+        <v>103</v>
+      </c>
+      <c r="C178" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
+      <c r="H178" t="s">
+        <v>37</v>
+      </c>
+      <c r="I178" t="s">
+        <v>13</v>
+      </c>
+      <c r="J178" t="s">
+        <v>13</v>
+      </c>
+      <c r="K178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>25</v>
+      </c>
+      <c r="B179" t="s">
+        <v>103</v>
+      </c>
+      <c r="C179" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s">
+        <v>13</v>
+      </c>
+      <c r="G179" t="s">
+        <v>13</v>
+      </c>
+      <c r="H179" t="s">
+        <v>36</v>
+      </c>
+      <c r="I179" t="s">
+        <v>13</v>
+      </c>
+      <c r="J179" t="s">
+        <v>13</v>
+      </c>
+      <c r="K179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>25</v>
+      </c>
+      <c r="B180" t="s">
+        <v>103</v>
+      </c>
+      <c r="C180" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" t="s">
+        <v>13</v>
+      </c>
+      <c r="E180" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" t="s">
+        <v>13</v>
+      </c>
+      <c r="G180" t="s">
+        <v>13</v>
+      </c>
+      <c r="H180" t="s">
+        <v>304</v>
+      </c>
+      <c r="I180" t="s">
+        <v>13</v>
+      </c>
+      <c r="J180" t="s">
+        <v>13</v>
+      </c>
+      <c r="K180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>25</v>
+      </c>
+      <c r="B181" t="s">
+        <v>103</v>
+      </c>
+      <c r="C181" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" t="s">
+        <v>13</v>
+      </c>
+      <c r="E181" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" t="s">
+        <v>39</v>
+      </c>
+      <c r="I181" t="s">
+        <v>13</v>
+      </c>
+      <c r="J181" t="s">
+        <v>13</v>
+      </c>
+      <c r="K181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>28</v>
+      </c>
+      <c r="B182" t="s">
+        <v>103</v>
+      </c>
+      <c r="C182" t="s">
+        <v>305</v>
+      </c>
+      <c r="D182" t="s">
+        <v>306</v>
+      </c>
+      <c r="E182" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" t="s">
+        <v>43</v>
+      </c>
+      <c r="G182" t="s">
+        <v>44</v>
+      </c>
+      <c r="H182" t="s">
+        <v>13</v>
+      </c>
+      <c r="I182" t="s">
+        <v>307</v>
+      </c>
+      <c r="J182" t="s">
+        <v>28</v>
+      </c>
+      <c r="K182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>28</v>
+      </c>
+      <c r="B183" t="s">
+        <v>103</v>
+      </c>
+      <c r="C183" t="s">
+        <v>308</v>
+      </c>
+      <c r="D183" t="s">
+        <v>309</v>
+      </c>
+      <c r="E183" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" t="s">
+        <v>43</v>
+      </c>
+      <c r="G183" t="s">
+        <v>310</v>
+      </c>
+      <c r="H183" t="s">
+        <v>13</v>
+      </c>
+      <c r="I183" t="s">
+        <v>311</v>
+      </c>
+      <c r="J183" t="s">
+        <v>28</v>
+      </c>
+      <c r="K183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>28</v>
+      </c>
+      <c r="B184" t="s">
+        <v>103</v>
+      </c>
+      <c r="C184" t="s">
+        <v>312</v>
+      </c>
+      <c r="D184" t="s">
+        <v>313</v>
+      </c>
+      <c r="E184" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" t="s">
+        <v>43</v>
+      </c>
+      <c r="G184" t="s">
+        <v>314</v>
+      </c>
+      <c r="H184" t="s">
+        <v>13</v>
+      </c>
+      <c r="I184" t="s">
+        <v>315</v>
+      </c>
+      <c r="J184" t="s">
+        <v>28</v>
+      </c>
+      <c r="K184" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>28</v>
+      </c>
+      <c r="B185" t="s">
+        <v>103</v>
+      </c>
+      <c r="C185" t="s">
+        <v>305</v>
+      </c>
+      <c r="D185" t="s">
+        <v>316</v>
+      </c>
+      <c r="E185" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" t="s">
+        <v>43</v>
+      </c>
+      <c r="G185" t="s">
+        <v>317</v>
+      </c>
+      <c r="H185" t="s">
+        <v>13</v>
+      </c>
+      <c r="I185" t="s">
+        <v>318</v>
+      </c>
+      <c r="J185" t="s">
+        <v>28</v>
+      </c>
+      <c r="K185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>28</v>
+      </c>
+      <c r="B186" t="s">
+        <v>103</v>
+      </c>
+      <c r="C186" t="s">
+        <v>319</v>
+      </c>
+      <c r="D186" t="s">
+        <v>320</v>
+      </c>
+      <c r="E186" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" t="s">
+        <v>43</v>
+      </c>
+      <c r="G186" t="s">
+        <v>321</v>
+      </c>
+      <c r="H186" t="s">
+        <v>13</v>
+      </c>
+      <c r="I186" t="s">
+        <v>322</v>
+      </c>
+      <c r="J186" t="s">
+        <v>28</v>
+      </c>
+      <c r="K186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>28</v>
+      </c>
+      <c r="B187" t="s">
+        <v>103</v>
+      </c>
+      <c r="C187" t="s">
+        <v>323</v>
+      </c>
+      <c r="D187" t="s">
+        <v>324</v>
+      </c>
+      <c r="E187" t="s">
+        <v>13</v>
+      </c>
+      <c r="F187" t="s">
+        <v>43</v>
+      </c>
+      <c r="G187" t="s">
+        <v>325</v>
+      </c>
+      <c r="H187" t="s">
+        <v>13</v>
+      </c>
+      <c r="I187" t="s">
+        <v>326</v>
+      </c>
+      <c r="J187" t="s">
+        <v>28</v>
+      </c>
+      <c r="K187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>28</v>
+      </c>
+      <c r="B188" t="s">
+        <v>103</v>
+      </c>
+      <c r="C188" t="s">
+        <v>327</v>
+      </c>
+      <c r="D188" t="s">
+        <v>328</v>
+      </c>
+      <c r="E188" t="s">
+        <v>13</v>
+      </c>
+      <c r="F188" t="s">
+        <v>43</v>
+      </c>
+      <c r="G188" t="s">
+        <v>55</v>
+      </c>
+      <c r="H188" t="s">
+        <v>13</v>
+      </c>
+      <c r="I188" t="s">
+        <v>329</v>
+      </c>
+      <c r="J188" t="s">
+        <v>28</v>
+      </c>
+      <c r="K188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>28</v>
+      </c>
+      <c r="B189" t="s">
+        <v>103</v>
+      </c>
+      <c r="C189" t="s">
+        <v>330</v>
+      </c>
+      <c r="D189" t="s">
+        <v>331</v>
+      </c>
+      <c r="E189" t="s">
+        <v>13</v>
+      </c>
+      <c r="F189" t="s">
+        <v>43</v>
+      </c>
+      <c r="G189" t="s">
+        <v>332</v>
+      </c>
+      <c r="H189" t="s">
+        <v>13</v>
+      </c>
+      <c r="I189" t="s">
+        <v>333</v>
+      </c>
+      <c r="J189" t="s">
+        <v>28</v>
+      </c>
+      <c r="K189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>28</v>
+      </c>
+      <c r="B190" t="s">
+        <v>103</v>
+      </c>
+      <c r="C190" t="s">
+        <v>334</v>
+      </c>
+      <c r="D190" t="s">
+        <v>335</v>
+      </c>
+      <c r="E190" t="s">
+        <v>13</v>
+      </c>
+      <c r="F190" t="s">
+        <v>43</v>
+      </c>
+      <c r="G190" t="s">
+        <v>55</v>
+      </c>
+      <c r="H190" t="s">
+        <v>13</v>
+      </c>
+      <c r="I190" t="s">
+        <v>336</v>
+      </c>
+      <c r="J190" t="s">
+        <v>28</v>
+      </c>
+      <c r="K190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>28</v>
+      </c>
+      <c r="B191" t="s">
+        <v>103</v>
+      </c>
+      <c r="C191" t="s">
+        <v>337</v>
+      </c>
+      <c r="D191" t="s">
+        <v>338</v>
+      </c>
+      <c r="E191" t="s">
+        <v>13</v>
+      </c>
+      <c r="F191" t="s">
+        <v>43</v>
+      </c>
+      <c r="G191" t="s">
+        <v>53</v>
+      </c>
+      <c r="H191" t="s">
+        <v>13</v>
+      </c>
+      <c r="I191" t="s">
+        <v>339</v>
+      </c>
+      <c r="J191" t="s">
+        <v>28</v>
+      </c>
+      <c r="K191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>28</v>
+      </c>
+      <c r="B192" t="s">
+        <v>103</v>
+      </c>
+      <c r="C192" t="s">
+        <v>340</v>
+      </c>
+      <c r="D192" t="s">
+        <v>341</v>
+      </c>
+      <c r="E192" t="s">
+        <v>13</v>
+      </c>
+      <c r="F192" t="s">
+        <v>43</v>
+      </c>
+      <c r="G192" t="s">
+        <v>342</v>
+      </c>
+      <c r="H192" t="s">
+        <v>13</v>
+      </c>
+      <c r="I192" t="s">
+        <v>343</v>
+      </c>
+      <c r="J192" t="s">
+        <v>28</v>
+      </c>
+      <c r="K192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>28</v>
+      </c>
+      <c r="B193" t="s">
+        <v>103</v>
+      </c>
+      <c r="C193" t="s">
+        <v>305</v>
+      </c>
+      <c r="D193" t="s">
+        <v>344</v>
+      </c>
+      <c r="E193" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" t="s">
+        <v>43</v>
+      </c>
+      <c r="G193" t="s">
+        <v>345</v>
+      </c>
+      <c r="H193" t="s">
+        <v>13</v>
+      </c>
+      <c r="I193" t="s">
+        <v>346</v>
+      </c>
+      <c r="J193" t="s">
+        <v>28</v>
+      </c>
+      <c r="K193" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>28</v>
+      </c>
+      <c r="B194" t="s">
+        <v>103</v>
+      </c>
+      <c r="C194" t="s">
+        <v>347</v>
+      </c>
+      <c r="D194" t="s">
+        <v>348</v>
+      </c>
+      <c r="E194" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" t="s">
+        <v>43</v>
+      </c>
+      <c r="G194" t="s">
+        <v>314</v>
+      </c>
+      <c r="H194" t="s">
+        <v>13</v>
+      </c>
+      <c r="I194" t="s">
+        <v>349</v>
+      </c>
+      <c r="J194" t="s">
+        <v>28</v>
+      </c>
+      <c r="K194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>28</v>
+      </c>
+      <c r="B195" t="s">
+        <v>103</v>
+      </c>
+      <c r="C195" t="s">
+        <v>350</v>
+      </c>
+      <c r="D195" t="s">
+        <v>351</v>
+      </c>
+      <c r="E195" t="s">
+        <v>13</v>
+      </c>
+      <c r="F195" t="s">
+        <v>43</v>
+      </c>
+      <c r="G195" t="s">
+        <v>325</v>
+      </c>
+      <c r="H195" t="s">
+        <v>13</v>
+      </c>
+      <c r="I195" t="s">
+        <v>352</v>
+      </c>
+      <c r="J195" t="s">
+        <v>28</v>
+      </c>
+      <c r="K195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>28</v>
+      </c>
+      <c r="B196" t="s">
+        <v>103</v>
+      </c>
+      <c r="C196" t="s">
+        <v>353</v>
+      </c>
+      <c r="D196" t="s">
+        <v>354</v>
+      </c>
+      <c r="E196" t="s">
+        <v>13</v>
+      </c>
+      <c r="F196" t="s">
+        <v>43</v>
+      </c>
+      <c r="G196" t="s">
+        <v>46</v>
+      </c>
+      <c r="H196" t="s">
+        <v>13</v>
+      </c>
+      <c r="I196" t="s">
+        <v>355</v>
+      </c>
+      <c r="J196" t="s">
+        <v>28</v>
+      </c>
+      <c r="K196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>28</v>
+      </c>
+      <c r="B197" t="s">
+        <v>103</v>
+      </c>
+      <c r="C197" t="s">
+        <v>356</v>
+      </c>
+      <c r="D197" t="s">
+        <v>357</v>
+      </c>
+      <c r="E197" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197" t="s">
+        <v>43</v>
+      </c>
+      <c r="G197" t="s">
+        <v>33</v>
+      </c>
+      <c r="H197" t="s">
+        <v>13</v>
+      </c>
+      <c r="I197" t="s">
+        <v>358</v>
+      </c>
+      <c r="J197" t="s">
+        <v>28</v>
+      </c>
+      <c r="K197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>28</v>
+      </c>
+      <c r="B198" t="s">
+        <v>103</v>
+      </c>
+      <c r="C198" t="s">
+        <v>359</v>
+      </c>
+      <c r="D198" t="s">
+        <v>360</v>
+      </c>
+      <c r="E198" t="s">
+        <v>13</v>
+      </c>
+      <c r="F198" t="s">
+        <v>43</v>
+      </c>
+      <c r="G198" t="s">
+        <v>46</v>
+      </c>
+      <c r="H198" t="s">
+        <v>13</v>
+      </c>
+      <c r="I198" t="s">
+        <v>361</v>
+      </c>
+      <c r="J198" t="s">
+        <v>28</v>
+      </c>
+      <c r="K198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>28</v>
+      </c>
+      <c r="B199" t="s">
+        <v>103</v>
+      </c>
+      <c r="C199" t="s">
+        <v>362</v>
+      </c>
+      <c r="D199" t="s">
+        <v>363</v>
+      </c>
+      <c r="E199" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" t="s">
+        <v>43</v>
+      </c>
+      <c r="G199" t="s">
+        <v>317</v>
+      </c>
+      <c r="H199" t="s">
+        <v>13</v>
+      </c>
+      <c r="I199" t="s">
+        <v>364</v>
+      </c>
+      <c r="J199" t="s">
+        <v>28</v>
+      </c>
+      <c r="K199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>28</v>
+      </c>
+      <c r="B200" t="s">
+        <v>103</v>
+      </c>
+      <c r="C200" t="s">
+        <v>305</v>
+      </c>
+      <c r="D200" t="s">
+        <v>365</v>
+      </c>
+      <c r="E200" t="s">
+        <v>13</v>
+      </c>
+      <c r="F200" t="s">
+        <v>43</v>
+      </c>
+      <c r="G200" t="s">
+        <v>325</v>
+      </c>
+      <c r="H200" t="s">
+        <v>13</v>
+      </c>
+      <c r="I200" t="s">
+        <v>366</v>
+      </c>
+      <c r="J200" t="s">
+        <v>28</v>
+      </c>
+      <c r="K200" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>28</v>
+      </c>
+      <c r="B201" t="s">
+        <v>103</v>
+      </c>
+      <c r="C201" t="s">
+        <v>367</v>
+      </c>
+      <c r="D201" t="s">
+        <v>368</v>
+      </c>
+      <c r="E201" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201" t="s">
+        <v>43</v>
+      </c>
+      <c r="G201" t="s">
+        <v>325</v>
+      </c>
+      <c r="H201" t="s">
+        <v>13</v>
+      </c>
+      <c r="I201" t="s">
+        <v>369</v>
+      </c>
+      <c r="J201" t="s">
+        <v>28</v>
+      </c>
+      <c r="K201" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Backend/consolidated_search_results.xlsx
+++ b/Backend/consolidated_search_results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2877" uniqueCount="363">
   <si>
     <t>Source Database</t>
   </si>
@@ -928,199 +928,178 @@
     <t>ENROLLING_BY_INVITATION</t>
   </si>
   <si>
-    <t>Diabetes and cancer</t>
-  </si>
-  <si>
-    <t>P Vigneri, F Frasca, L Sciacca</t>
-  </si>
-  <si>
     <t>… had an increase in mortality similar to that of diabetic women with breast cancer, suggesting that diabetes, rather than breast cancer, was the major factor contributing to the raised …</t>
   </si>
   <si>
-    <t>Diabetes and cancer: is diabetes causally related to cancer?</t>
-  </si>
-  <si>
-    <t>S Suh, KW Kim</t>
-  </si>
-  <si>
     <t>2011</t>
   </si>
   <si>
     <t>… Type 2 diabetes and cancer share many risk factors, but potential biologic … diabetes and cancer, and the possible mechanisms involved. The link between diabetes treatment and cancer …</t>
   </si>
   <si>
-    <t>Latest insights into the risk of cancer in diabetes</t>
-  </si>
-  <si>
-    <t>H Noto, A Goto, T Tsujimoto, K Osame</t>
-  </si>
-  <si>
     <t>2013</t>
   </si>
   <si>
     <t>… factors common to both diabetes and cancer, possible biological links between diabetes and cancer risk, and whether diabetes treatments influence risk of cancer or cancer prognosis9. …</t>
   </si>
   <si>
-    <t>TA Chowdhury</t>
-  </si>
-  <si>
     <t>2010</t>
   </si>
   <si>
     <t>… the pathogenesis of cancer amongst patients with diabetes, and recently, diabetes therapies … metformin may decrease the risk of cancer amongst diabetic patients. Much more research …</t>
   </si>
   <si>
-    <t>Diabetes and cancer: A comprehensive review</t>
-  </si>
-  <si>
-    <t>M Abudawood</t>
-  </si>
-  <si>
     <t>2019</t>
   </si>
   <si>
     <t>… cancer … diabetes could be related to cancer. Yet, the results from most of the studies are obscure and conflicting and need a robust research so that the link between diabetes and cancer …</t>
   </si>
   <si>
-    <t>The global implications of diabetes and cancer</t>
-  </si>
-  <si>
-    <t>Y Shi, FB Hu</t>
-  </si>
-  <si>
     <t>2014</t>
   </si>
   <si>
     <t>… 5 Diabetes is associated with reduced incidence of prostate cancer, 6 but people with diabetes have an increased risk of mortality if they do develop prostate cancer. 7 …</t>
   </si>
   <si>
-    <t>Probability of pancreatic cancer following diabetes: a population-based study</t>
-  </si>
-  <si>
-    <t>ST Chari, CL Leibson, KG Rabe, J Ransom</t>
-  </si>
-  <si>
     <t>… The observed-to-expected ratio of pancreatic cancer in the cohort was 7.94 (95% CI, 4.70–… cancer, diabetic subjects with pancreatic cancer were more likely to have met diabetes criteria …</t>
   </si>
   <si>
-    <t>Diabetes and cancer: risk, challenges, management and outcomes</t>
-  </si>
-  <si>
-    <t>RK Shahid, S Ahmed, D Le, S Yadav</t>
-  </si>
-  <si>
     <t>2021</t>
   </si>
   <si>
     <t>… of cancer therapy. This review highlights the relationship between diabetes and cancer and … This review highlights the relationship between diabetes and cancer and various aspects of …</t>
   </si>
   <si>
-    <t>Diabetes mellitus and breast cancer</t>
-  </si>
-  <si>
-    <t>I Wolf, S Sadetzki, R Catane, A Karasik</t>
-  </si>
-  <si>
     <t>… types of cancer, including endometrial cancer and … diabetes, especially type 2 diabetes, and breast cancer. These associations include the biological effects of diabetes on breast-cancer …</t>
   </si>
   <si>
-    <t>Diabetes and cancer: a review of current knowledge</t>
-  </si>
-  <si>
-    <t>J Wojciechowska, W Krajewski</t>
-  </si>
-  <si>
     <t>… the influence of diabetes mellitus and anti-diabetic medications on … diabetes mellitus and anti-diabetic medications and cancer … head and neck cancers in diabetics, rarely analysed and …</t>
   </si>
   <si>
-    <t>Diabetes and cancer: Epidemiological and biological links</t>
-  </si>
-  <si>
-    <t>M Wang, Y Yang, Z Liao</t>
-  </si>
-  <si>
     <t>2020</t>
   </si>
   <si>
     <t>… cancers, have a modest growth in diabetics. However, diabetes may work as a protective factor for prostate cancer. … and biological links between diabetes and various types of cancer. …</t>
   </si>
   <si>
-    <t>A Marble</t>
-  </si>
-  <si>
     <t>1934</t>
   </si>
   <si>
     <t>… the onset of diabetes preceded that of cancer symptoms, in … the onset of cancer symptoms precede that of diabetes. In other … group of diabetic patients who later developed cancer rather …</t>
   </si>
   <si>
-    <t>Diabetes and risk of cancer</t>
-  </si>
-  <si>
-    <t>SL Habib, M Rojna</t>
-  </si>
-  <si>
     <t>… diabetes and cancer will … diabetes and cancer including studies relating to the general all-site increase of malignancies in diabetes and elevated organ-specific cancer rate in diabetes …</t>
   </si>
   <si>
-    <t>The epidemiology of diabetes and cancer</t>
-  </si>
-  <si>
-    <t>B Carstensen, ME Jørgensen, S Friis</t>
-  </si>
-  <si>
     <t>… population impact of diabetes and cancer rather than … diabetes and cancer occurrence. Specifically, we will evaluate the high mortality among cancer patients with pre-existing diabetes, …</t>
   </si>
   <si>
-    <t>Diabetes and pancreatic cancer</t>
-  </si>
-  <si>
-    <t>D Li</t>
-  </si>
-  <si>
     <t>… risk factors for both type 2 diabetes mellitus and pancreatic cancer, whether diabetes is an independent risk factor for pancreatic cancer remains questionable. Limited by the sample …</t>
   </si>
   <si>
-    <t>Cancer and diabetes‐a follow‐up study of two populationbased cohorts of diabetic patients</t>
-  </si>
-  <si>
-    <t>H Hjalgrim, M Frisch, A Ekbom, KO Kyvik</t>
-  </si>
-  <si>
     <t>… as the result of cancer induced DM (eg pancreatic cancer) we wanted to evaluate whether such selection bias was likely to have taken place. Thus, we calculated SIRS for cancer in two …</t>
   </si>
   <si>
-    <t>Diabetes and cancer (2): evaluating the impact of diabetes on mortality in patients with cancer</t>
-  </si>
-  <si>
-    <t>, H Møller, Diabetes and Cancer Research Consortium</t>
-  </si>
-  <si>
     <t>… that glucose-lowering treatments may modulate cancer risk but many of these … diabetes and cancer risk report cancer incidence as the primary endpoint [2–8], while others report cancer …</t>
   </si>
   <si>
-    <t>Cancer and diabetes: are we ready for prime time?</t>
-  </si>
-  <si>
-    <t>U Smith, EAM Gale</t>
-  </si>
-  <si>
     <t>… An association between diabetes and cancer was first reported as an … either diabetics tend to develop cancer or that cancer patients tend to develop symptoms recognised as diabetic’. …</t>
   </si>
   <si>
-    <t>Z Zelenko, EJ Gallagher</t>
-  </si>
-  <si>
     <t>… of developing breast cancer compared with women without diabetes, but no increased risk in … breast cancer was observed in this study. Other cancers, such as hepatocellular cancer, …</t>
   </si>
   <si>
-    <t>Diabetes and cancer: two diseases with obesity as a common risk factor</t>
-  </si>
-  <si>
-    <t>SK Garg, H Maurer, K Reed</t>
-  </si>
-  <si>
     <t>… diabetes and cancer. Here, we examine the relationship between diabetes, obesity and cancer… underlying causes of increased cancer risk in individuals with diabetes. Current treatment …</t>
+  </si>
+  <si>
+    <t>2025-12-20</t>
+  </si>
+  <si>
+    <t>COMPOSITIONS AND METHODS FOR TREATING CANCER</t>
+  </si>
+  <si>
+    <t>Cancer Res Cpn Tech Ltd</t>
+  </si>
+  <si>
+    <t>CANCERI; Adam</t>
+  </si>
+  <si>
+    <t>Treatment of Cancer Using Chimeric A</t>
+  </si>
+  <si>
+    <t>Progastrine et Cancers S.a.r.l.</t>
+  </si>
+  <si>
+    <t>COMBINED CANCERTREATMENT METHODS USING ANTIBODIES</t>
+  </si>
+  <si>
+    <t>Dana Farber Cancer Inst</t>
+  </si>
+  <si>
+    <t>Ludwig Inst. Cancer Res.</t>
+  </si>
+  <si>
+    <t>REVELLES MIGUEL CANCER</t>
+  </si>
+  <si>
+    <t>TREATMENT OF PROSTATE CANCER</t>
+  </si>
+  <si>
+    <t>Cancer Research Technolog</t>
+  </si>
+  <si>
+    <t>BREAST CANCER TREATMENT WITH TAXANE THERAPY</t>
+  </si>
+  <si>
+    <t>Cancer Inst Chinese Acad</t>
+  </si>
+  <si>
+    <t>Methods for treating cancer</t>
+  </si>
+  <si>
+    <t>Methods for cancer and immunotherapy using prodrug</t>
+  </si>
+  <si>
+    <t>Combination therapy for treating cancer</t>
+  </si>
+  <si>
+    <t>COMPOSITION FOR TREATING CANCER AND USE AND MEDICA</t>
+  </si>
+  <si>
+    <t>COMBINATION THERAPY FOR TREATING CANCER</t>
+  </si>
+  <si>
+    <t>Cancer Abreu et al.</t>
+  </si>
+  <si>
+    <t>COMBINATION THERAPES FOR TREATMENT OF CANCER</t>
+  </si>
+  <si>
+    <t>COMPOUNDS FOR TREATMENT OF CANCER</t>
+  </si>
+  <si>
+    <t>Gene Expression Profiles to Predict Breast Cancer</t>
+  </si>
+  <si>
+    <t>Method of treating cancer using selective estrogen</t>
+  </si>
+  <si>
+    <t>Use of EZH2 inhibitors for treating cancer</t>
+  </si>
+  <si>
+    <t>National Cancer Center</t>
+  </si>
+  <si>
+    <t>Dana Farber Cancer Institute, Inc.</t>
+  </si>
+  <si>
+    <t>Cancer treatment using docetaxel by controlling</t>
+  </si>
+  <si>
+    <t>Cancer Treatment Useing Docetaxel by Controlling</t>
+  </si>
+  <si>
+    <t>Dana-Farber Cancer Institute</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K201"/>
+  <dimension ref="A1:K271"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="11" width="24" customWidth="1"/>
@@ -7850,10 +7829,10 @@
         <v>103</v>
       </c>
       <c r="C182" t="s">
-        <v>305</v>
+        <v>13</v>
       </c>
       <c r="D182" t="s">
-        <v>306</v>
+        <v>13</v>
       </c>
       <c r="E182" t="s">
         <v>13</v>
@@ -7868,7 +7847,7 @@
         <v>13</v>
       </c>
       <c r="I182" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J182" t="s">
         <v>28</v>
@@ -7885,10 +7864,10 @@
         <v>103</v>
       </c>
       <c r="C183" t="s">
-        <v>308</v>
+        <v>13</v>
       </c>
       <c r="D183" t="s">
-        <v>309</v>
+        <v>13</v>
       </c>
       <c r="E183" t="s">
         <v>13</v>
@@ -7897,13 +7876,13 @@
         <v>43</v>
       </c>
       <c r="G183" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="H183" t="s">
         <v>13</v>
       </c>
       <c r="I183" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J183" t="s">
         <v>28</v>
@@ -7920,10 +7899,10 @@
         <v>103</v>
       </c>
       <c r="C184" t="s">
-        <v>312</v>
+        <v>13</v>
       </c>
       <c r="D184" t="s">
-        <v>313</v>
+        <v>13</v>
       </c>
       <c r="E184" t="s">
         <v>13</v>
@@ -7932,13 +7911,13 @@
         <v>43</v>
       </c>
       <c r="G184" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H184" t="s">
         <v>13</v>
       </c>
       <c r="I184" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="J184" t="s">
         <v>28</v>
@@ -7955,10 +7934,10 @@
         <v>103</v>
       </c>
       <c r="C185" t="s">
-        <v>305</v>
+        <v>13</v>
       </c>
       <c r="D185" t="s">
-        <v>316</v>
+        <v>13</v>
       </c>
       <c r="E185" t="s">
         <v>13</v>
@@ -7967,13 +7946,13 @@
         <v>43</v>
       </c>
       <c r="G185" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H185" t="s">
         <v>13</v>
       </c>
       <c r="I185" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="J185" t="s">
         <v>28</v>
@@ -7990,10 +7969,10 @@
         <v>103</v>
       </c>
       <c r="C186" t="s">
-        <v>319</v>
+        <v>13</v>
       </c>
       <c r="D186" t="s">
-        <v>320</v>
+        <v>13</v>
       </c>
       <c r="E186" t="s">
         <v>13</v>
@@ -8002,13 +7981,13 @@
         <v>43</v>
       </c>
       <c r="G186" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="H186" t="s">
         <v>13</v>
       </c>
       <c r="I186" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="J186" t="s">
         <v>28</v>
@@ -8025,10 +8004,10 @@
         <v>103</v>
       </c>
       <c r="C187" t="s">
-        <v>323</v>
+        <v>13</v>
       </c>
       <c r="D187" t="s">
-        <v>324</v>
+        <v>13</v>
       </c>
       <c r="E187" t="s">
         <v>13</v>
@@ -8037,13 +8016,13 @@
         <v>43</v>
       </c>
       <c r="G187" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="H187" t="s">
         <v>13</v>
       </c>
       <c r="I187" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="J187" t="s">
         <v>28</v>
@@ -8060,10 +8039,10 @@
         <v>103</v>
       </c>
       <c r="C188" t="s">
-        <v>327</v>
+        <v>13</v>
       </c>
       <c r="D188" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
       <c r="E188" t="s">
         <v>13</v>
@@ -8078,7 +8057,7 @@
         <v>13</v>
       </c>
       <c r="I188" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="J188" t="s">
         <v>28</v>
@@ -8095,10 +8074,10 @@
         <v>103</v>
       </c>
       <c r="C189" t="s">
-        <v>330</v>
+        <v>13</v>
       </c>
       <c r="D189" t="s">
-        <v>331</v>
+        <v>13</v>
       </c>
       <c r="E189" t="s">
         <v>13</v>
@@ -8107,13 +8086,13 @@
         <v>43</v>
       </c>
       <c r="G189" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="H189" t="s">
         <v>13</v>
       </c>
       <c r="I189" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="J189" t="s">
         <v>28</v>
@@ -8130,10 +8109,10 @@
         <v>103</v>
       </c>
       <c r="C190" t="s">
-        <v>334</v>
+        <v>13</v>
       </c>
       <c r="D190" t="s">
-        <v>335</v>
+        <v>13</v>
       </c>
       <c r="E190" t="s">
         <v>13</v>
@@ -8148,7 +8127,7 @@
         <v>13</v>
       </c>
       <c r="I190" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="J190" t="s">
         <v>28</v>
@@ -8165,10 +8144,10 @@
         <v>103</v>
       </c>
       <c r="C191" t="s">
-        <v>337</v>
+        <v>13</v>
       </c>
       <c r="D191" t="s">
-        <v>338</v>
+        <v>13</v>
       </c>
       <c r="E191" t="s">
         <v>13</v>
@@ -8183,7 +8162,7 @@
         <v>13</v>
       </c>
       <c r="I191" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="J191" t="s">
         <v>28</v>
@@ -8200,10 +8179,10 @@
         <v>103</v>
       </c>
       <c r="C192" t="s">
-        <v>340</v>
+        <v>13</v>
       </c>
       <c r="D192" t="s">
-        <v>341</v>
+        <v>13</v>
       </c>
       <c r="E192" t="s">
         <v>13</v>
@@ -8212,13 +8191,13 @@
         <v>43</v>
       </c>
       <c r="G192" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="H192" t="s">
         <v>13</v>
       </c>
       <c r="I192" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="J192" t="s">
         <v>28</v>
@@ -8235,10 +8214,10 @@
         <v>103</v>
       </c>
       <c r="C193" t="s">
-        <v>305</v>
+        <v>13</v>
       </c>
       <c r="D193" t="s">
-        <v>344</v>
+        <v>13</v>
       </c>
       <c r="E193" t="s">
         <v>13</v>
@@ -8247,13 +8226,13 @@
         <v>43</v>
       </c>
       <c r="G193" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="H193" t="s">
         <v>13</v>
       </c>
       <c r="I193" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="J193" t="s">
         <v>28</v>
@@ -8270,10 +8249,10 @@
         <v>103</v>
       </c>
       <c r="C194" t="s">
-        <v>347</v>
+        <v>13</v>
       </c>
       <c r="D194" t="s">
-        <v>348</v>
+        <v>13</v>
       </c>
       <c r="E194" t="s">
         <v>13</v>
@@ -8282,13 +8261,13 @@
         <v>43</v>
       </c>
       <c r="G194" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H194" t="s">
         <v>13</v>
       </c>
       <c r="I194" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="J194" t="s">
         <v>28</v>
@@ -8305,10 +8284,10 @@
         <v>103</v>
       </c>
       <c r="C195" t="s">
-        <v>350</v>
+        <v>13</v>
       </c>
       <c r="D195" t="s">
-        <v>351</v>
+        <v>13</v>
       </c>
       <c r="E195" t="s">
         <v>13</v>
@@ -8317,13 +8296,13 @@
         <v>43</v>
       </c>
       <c r="G195" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="H195" t="s">
         <v>13</v>
       </c>
       <c r="I195" t="s">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="J195" t="s">
         <v>28</v>
@@ -8340,10 +8319,10 @@
         <v>103</v>
       </c>
       <c r="C196" t="s">
-        <v>353</v>
+        <v>13</v>
       </c>
       <c r="D196" t="s">
-        <v>354</v>
+        <v>13</v>
       </c>
       <c r="E196" t="s">
         <v>13</v>
@@ -8358,7 +8337,7 @@
         <v>13</v>
       </c>
       <c r="I196" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="J196" t="s">
         <v>28</v>
@@ -8375,10 +8354,10 @@
         <v>103</v>
       </c>
       <c r="C197" t="s">
-        <v>356</v>
+        <v>13</v>
       </c>
       <c r="D197" t="s">
-        <v>357</v>
+        <v>13</v>
       </c>
       <c r="E197" t="s">
         <v>13</v>
@@ -8393,7 +8372,7 @@
         <v>13</v>
       </c>
       <c r="I197" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="J197" t="s">
         <v>28</v>
@@ -8410,10 +8389,10 @@
         <v>103</v>
       </c>
       <c r="C198" t="s">
-        <v>359</v>
+        <v>13</v>
       </c>
       <c r="D198" t="s">
-        <v>360</v>
+        <v>13</v>
       </c>
       <c r="E198" t="s">
         <v>13</v>
@@ -8428,7 +8407,7 @@
         <v>13</v>
       </c>
       <c r="I198" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="J198" t="s">
         <v>28</v>
@@ -8445,10 +8424,10 @@
         <v>103</v>
       </c>
       <c r="C199" t="s">
-        <v>362</v>
+        <v>13</v>
       </c>
       <c r="D199" t="s">
-        <v>363</v>
+        <v>13</v>
       </c>
       <c r="E199" t="s">
         <v>13</v>
@@ -8457,13 +8436,13 @@
         <v>43</v>
       </c>
       <c r="G199" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H199" t="s">
         <v>13</v>
       </c>
       <c r="I199" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="J199" t="s">
         <v>28</v>
@@ -8480,10 +8459,10 @@
         <v>103</v>
       </c>
       <c r="C200" t="s">
-        <v>305</v>
+        <v>13</v>
       </c>
       <c r="D200" t="s">
-        <v>365</v>
+        <v>13</v>
       </c>
       <c r="E200" t="s">
         <v>13</v>
@@ -8492,13 +8471,13 @@
         <v>43</v>
       </c>
       <c r="G200" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="H200" t="s">
         <v>13</v>
       </c>
       <c r="I200" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="J200" t="s">
         <v>28</v>
@@ -8515,10 +8494,10 @@
         <v>103</v>
       </c>
       <c r="C201" t="s">
-        <v>367</v>
+        <v>13</v>
       </c>
       <c r="D201" t="s">
-        <v>368</v>
+        <v>13</v>
       </c>
       <c r="E201" t="s">
         <v>13</v>
@@ -8527,18 +8506,2468 @@
         <v>43</v>
       </c>
       <c r="G201" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="H201" t="s">
         <v>13</v>
       </c>
       <c r="I201" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="J201" t="s">
         <v>28</v>
       </c>
       <c r="K201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>21</v>
+      </c>
+      <c r="B202" t="s">
+        <v>333</v>
+      </c>
+      <c r="C202" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" t="s">
+        <v>22</v>
+      </c>
+      <c r="F202" t="s">
+        <v>22</v>
+      </c>
+      <c r="G202" t="s">
+        <v>13</v>
+      </c>
+      <c r="H202" t="s">
+        <v>13</v>
+      </c>
+      <c r="I202" t="s">
+        <v>13</v>
+      </c>
+      <c r="J202" t="s">
+        <v>13</v>
+      </c>
+      <c r="K202" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>21</v>
+      </c>
+      <c r="B203" t="s">
+        <v>333</v>
+      </c>
+      <c r="C203" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203" t="s">
+        <v>23</v>
+      </c>
+      <c r="F203" t="s">
+        <v>23</v>
+      </c>
+      <c r="G203" t="s">
+        <v>13</v>
+      </c>
+      <c r="H203" t="s">
+        <v>13</v>
+      </c>
+      <c r="I203" t="s">
+        <v>13</v>
+      </c>
+      <c r="J203" t="s">
+        <v>13</v>
+      </c>
+      <c r="K203" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>21</v>
+      </c>
+      <c r="B204" t="s">
+        <v>333</v>
+      </c>
+      <c r="C204" t="s">
+        <v>13</v>
+      </c>
+      <c r="D204" t="s">
+        <v>13</v>
+      </c>
+      <c r="E204" t="s">
+        <v>24</v>
+      </c>
+      <c r="F204" t="s">
+        <v>24</v>
+      </c>
+      <c r="G204" t="s">
+        <v>13</v>
+      </c>
+      <c r="H204" t="s">
+        <v>13</v>
+      </c>
+      <c r="I204" t="s">
+        <v>13</v>
+      </c>
+      <c r="J204" t="s">
+        <v>13</v>
+      </c>
+      <c r="K204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>21</v>
+      </c>
+      <c r="B205" t="s">
+        <v>333</v>
+      </c>
+      <c r="C205" t="s">
+        <v>13</v>
+      </c>
+      <c r="D205" t="s">
+        <v>13</v>
+      </c>
+      <c r="E205" t="s">
+        <v>71</v>
+      </c>
+      <c r="F205" t="s">
+        <v>71</v>
+      </c>
+      <c r="G205" t="s">
+        <v>13</v>
+      </c>
+      <c r="H205" t="s">
+        <v>13</v>
+      </c>
+      <c r="I205" t="s">
+        <v>13</v>
+      </c>
+      <c r="J205" t="s">
+        <v>13</v>
+      </c>
+      <c r="K205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>21</v>
+      </c>
+      <c r="B206" t="s">
+        <v>333</v>
+      </c>
+      <c r="C206" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206" t="s">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>72</v>
+      </c>
+      <c r="F206" t="s">
+        <v>72</v>
+      </c>
+      <c r="G206" t="s">
+        <v>13</v>
+      </c>
+      <c r="H206" t="s">
+        <v>13</v>
+      </c>
+      <c r="I206" t="s">
+        <v>13</v>
+      </c>
+      <c r="J206" t="s">
+        <v>13</v>
+      </c>
+      <c r="K206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>21</v>
+      </c>
+      <c r="B207" t="s">
+        <v>333</v>
+      </c>
+      <c r="C207" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" t="s">
+        <v>13</v>
+      </c>
+      <c r="E207" t="s">
+        <v>73</v>
+      </c>
+      <c r="F207" t="s">
+        <v>73</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
+      <c r="H207" t="s">
+        <v>13</v>
+      </c>
+      <c r="I207" t="s">
+        <v>13</v>
+      </c>
+      <c r="J207" t="s">
+        <v>13</v>
+      </c>
+      <c r="K207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>21</v>
+      </c>
+      <c r="B208" t="s">
+        <v>333</v>
+      </c>
+      <c r="C208" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" t="s">
+        <v>13</v>
+      </c>
+      <c r="E208" t="s">
+        <v>74</v>
+      </c>
+      <c r="F208" t="s">
+        <v>74</v>
+      </c>
+      <c r="G208" t="s">
+        <v>13</v>
+      </c>
+      <c r="H208" t="s">
+        <v>13</v>
+      </c>
+      <c r="I208" t="s">
+        <v>13</v>
+      </c>
+      <c r="J208" t="s">
+        <v>13</v>
+      </c>
+      <c r="K208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>21</v>
+      </c>
+      <c r="B209" t="s">
+        <v>333</v>
+      </c>
+      <c r="C209" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" t="s">
+        <v>13</v>
+      </c>
+      <c r="E209" t="s">
+        <v>75</v>
+      </c>
+      <c r="F209" t="s">
+        <v>75</v>
+      </c>
+      <c r="G209" t="s">
+        <v>13</v>
+      </c>
+      <c r="H209" t="s">
+        <v>13</v>
+      </c>
+      <c r="I209" t="s">
+        <v>13</v>
+      </c>
+      <c r="J209" t="s">
+        <v>13</v>
+      </c>
+      <c r="K209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>21</v>
+      </c>
+      <c r="B210" t="s">
+        <v>333</v>
+      </c>
+      <c r="C210" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" t="s">
+        <v>13</v>
+      </c>
+      <c r="E210" t="s">
+        <v>76</v>
+      </c>
+      <c r="F210" t="s">
+        <v>76</v>
+      </c>
+      <c r="G210" t="s">
+        <v>13</v>
+      </c>
+      <c r="H210" t="s">
+        <v>13</v>
+      </c>
+      <c r="I210" t="s">
+        <v>13</v>
+      </c>
+      <c r="J210" t="s">
+        <v>13</v>
+      </c>
+      <c r="K210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>21</v>
+      </c>
+      <c r="B211" t="s">
+        <v>333</v>
+      </c>
+      <c r="C211" t="s">
+        <v>13</v>
+      </c>
+      <c r="D211" t="s">
+        <v>13</v>
+      </c>
+      <c r="E211" t="s">
+        <v>77</v>
+      </c>
+      <c r="F211" t="s">
+        <v>77</v>
+      </c>
+      <c r="G211" t="s">
+        <v>13</v>
+      </c>
+      <c r="H211" t="s">
+        <v>13</v>
+      </c>
+      <c r="I211" t="s">
+        <v>13</v>
+      </c>
+      <c r="J211" t="s">
+        <v>13</v>
+      </c>
+      <c r="K211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>21</v>
+      </c>
+      <c r="B212" t="s">
+        <v>333</v>
+      </c>
+      <c r="C212" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" t="s">
+        <v>13</v>
+      </c>
+      <c r="E212" t="s">
+        <v>78</v>
+      </c>
+      <c r="F212" t="s">
+        <v>78</v>
+      </c>
+      <c r="G212" t="s">
+        <v>13</v>
+      </c>
+      <c r="H212" t="s">
+        <v>13</v>
+      </c>
+      <c r="I212" t="s">
+        <v>13</v>
+      </c>
+      <c r="J212" t="s">
+        <v>13</v>
+      </c>
+      <c r="K212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>21</v>
+      </c>
+      <c r="B213" t="s">
+        <v>333</v>
+      </c>
+      <c r="C213" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" t="s">
+        <v>13</v>
+      </c>
+      <c r="E213" t="s">
+        <v>79</v>
+      </c>
+      <c r="F213" t="s">
+        <v>79</v>
+      </c>
+      <c r="G213" t="s">
+        <v>13</v>
+      </c>
+      <c r="H213" t="s">
+        <v>13</v>
+      </c>
+      <c r="I213" t="s">
+        <v>13</v>
+      </c>
+      <c r="J213" t="s">
+        <v>13</v>
+      </c>
+      <c r="K213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>21</v>
+      </c>
+      <c r="B214" t="s">
+        <v>333</v>
+      </c>
+      <c r="C214" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" t="s">
+        <v>13</v>
+      </c>
+      <c r="E214" t="s">
+        <v>80</v>
+      </c>
+      <c r="F214" t="s">
+        <v>80</v>
+      </c>
+      <c r="G214" t="s">
+        <v>13</v>
+      </c>
+      <c r="H214" t="s">
+        <v>13</v>
+      </c>
+      <c r="I214" t="s">
+        <v>13</v>
+      </c>
+      <c r="J214" t="s">
+        <v>13</v>
+      </c>
+      <c r="K214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>21</v>
+      </c>
+      <c r="B215" t="s">
+        <v>333</v>
+      </c>
+      <c r="C215" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" t="s">
+        <v>13</v>
+      </c>
+      <c r="E215" t="s">
+        <v>81</v>
+      </c>
+      <c r="F215" t="s">
+        <v>81</v>
+      </c>
+      <c r="G215" t="s">
+        <v>13</v>
+      </c>
+      <c r="H215" t="s">
+        <v>13</v>
+      </c>
+      <c r="I215" t="s">
+        <v>13</v>
+      </c>
+      <c r="J215" t="s">
+        <v>13</v>
+      </c>
+      <c r="K215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>21</v>
+      </c>
+      <c r="B216" t="s">
+        <v>333</v>
+      </c>
+      <c r="C216" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216" t="s">
+        <v>13</v>
+      </c>
+      <c r="E216" t="s">
+        <v>82</v>
+      </c>
+      <c r="F216" t="s">
+        <v>82</v>
+      </c>
+      <c r="G216" t="s">
+        <v>13</v>
+      </c>
+      <c r="H216" t="s">
+        <v>13</v>
+      </c>
+      <c r="I216" t="s">
+        <v>13</v>
+      </c>
+      <c r="J216" t="s">
+        <v>13</v>
+      </c>
+      <c r="K216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>21</v>
+      </c>
+      <c r="B217" t="s">
+        <v>333</v>
+      </c>
+      <c r="C217" t="s">
+        <v>13</v>
+      </c>
+      <c r="D217" t="s">
+        <v>13</v>
+      </c>
+      <c r="E217" t="s">
+        <v>83</v>
+      </c>
+      <c r="F217" t="s">
+        <v>83</v>
+      </c>
+      <c r="G217" t="s">
+        <v>13</v>
+      </c>
+      <c r="H217" t="s">
+        <v>13</v>
+      </c>
+      <c r="I217" t="s">
+        <v>13</v>
+      </c>
+      <c r="J217" t="s">
+        <v>13</v>
+      </c>
+      <c r="K217" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>21</v>
+      </c>
+      <c r="B218" t="s">
+        <v>333</v>
+      </c>
+      <c r="C218" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" t="s">
+        <v>13</v>
+      </c>
+      <c r="E218" t="s">
+        <v>84</v>
+      </c>
+      <c r="F218" t="s">
+        <v>84</v>
+      </c>
+      <c r="G218" t="s">
+        <v>13</v>
+      </c>
+      <c r="H218" t="s">
+        <v>13</v>
+      </c>
+      <c r="I218" t="s">
+        <v>13</v>
+      </c>
+      <c r="J218" t="s">
+        <v>13</v>
+      </c>
+      <c r="K218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>21</v>
+      </c>
+      <c r="B219" t="s">
+        <v>333</v>
+      </c>
+      <c r="C219" t="s">
+        <v>13</v>
+      </c>
+      <c r="D219" t="s">
+        <v>13</v>
+      </c>
+      <c r="E219" t="s">
+        <v>85</v>
+      </c>
+      <c r="F219" t="s">
+        <v>85</v>
+      </c>
+      <c r="G219" t="s">
+        <v>13</v>
+      </c>
+      <c r="H219" t="s">
+        <v>13</v>
+      </c>
+      <c r="I219" t="s">
+        <v>13</v>
+      </c>
+      <c r="J219" t="s">
+        <v>13</v>
+      </c>
+      <c r="K219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>21</v>
+      </c>
+      <c r="B220" t="s">
+        <v>333</v>
+      </c>
+      <c r="C220" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" t="s">
+        <v>13</v>
+      </c>
+      <c r="E220" t="s">
+        <v>86</v>
+      </c>
+      <c r="F220" t="s">
+        <v>86</v>
+      </c>
+      <c r="G220" t="s">
+        <v>13</v>
+      </c>
+      <c r="H220" t="s">
+        <v>13</v>
+      </c>
+      <c r="I220" t="s">
+        <v>13</v>
+      </c>
+      <c r="J220" t="s">
+        <v>13</v>
+      </c>
+      <c r="K220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>21</v>
+      </c>
+      <c r="B221" t="s">
+        <v>333</v>
+      </c>
+      <c r="C221" t="s">
+        <v>13</v>
+      </c>
+      <c r="D221" t="s">
+        <v>13</v>
+      </c>
+      <c r="E221" t="s">
+        <v>87</v>
+      </c>
+      <c r="F221" t="s">
+        <v>87</v>
+      </c>
+      <c r="G221" t="s">
+        <v>13</v>
+      </c>
+      <c r="H221" t="s">
+        <v>13</v>
+      </c>
+      <c r="I221" t="s">
+        <v>13</v>
+      </c>
+      <c r="J221" t="s">
+        <v>13</v>
+      </c>
+      <c r="K221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>21</v>
+      </c>
+      <c r="B222" t="s">
+        <v>333</v>
+      </c>
+      <c r="C222" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222" t="s">
+        <v>13</v>
+      </c>
+      <c r="E222" t="s">
+        <v>88</v>
+      </c>
+      <c r="F222" t="s">
+        <v>88</v>
+      </c>
+      <c r="G222" t="s">
+        <v>13</v>
+      </c>
+      <c r="H222" t="s">
+        <v>13</v>
+      </c>
+      <c r="I222" t="s">
+        <v>13</v>
+      </c>
+      <c r="J222" t="s">
+        <v>13</v>
+      </c>
+      <c r="K222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>21</v>
+      </c>
+      <c r="B223" t="s">
+        <v>333</v>
+      </c>
+      <c r="C223" t="s">
+        <v>13</v>
+      </c>
+      <c r="D223" t="s">
+        <v>13</v>
+      </c>
+      <c r="E223" t="s">
+        <v>89</v>
+      </c>
+      <c r="F223" t="s">
+        <v>89</v>
+      </c>
+      <c r="G223" t="s">
+        <v>13</v>
+      </c>
+      <c r="H223" t="s">
+        <v>13</v>
+      </c>
+      <c r="I223" t="s">
+        <v>13</v>
+      </c>
+      <c r="J223" t="s">
+        <v>13</v>
+      </c>
+      <c r="K223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>21</v>
+      </c>
+      <c r="B224" t="s">
+        <v>333</v>
+      </c>
+      <c r="C224" t="s">
+        <v>13</v>
+      </c>
+      <c r="D224" t="s">
+        <v>13</v>
+      </c>
+      <c r="E224" t="s">
+        <v>90</v>
+      </c>
+      <c r="F224" t="s">
+        <v>90</v>
+      </c>
+      <c r="G224" t="s">
+        <v>13</v>
+      </c>
+      <c r="H224" t="s">
+        <v>13</v>
+      </c>
+      <c r="I224" t="s">
+        <v>13</v>
+      </c>
+      <c r="J224" t="s">
+        <v>13</v>
+      </c>
+      <c r="K224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>21</v>
+      </c>
+      <c r="B225" t="s">
+        <v>333</v>
+      </c>
+      <c r="C225" t="s">
+        <v>13</v>
+      </c>
+      <c r="D225" t="s">
+        <v>13</v>
+      </c>
+      <c r="E225" t="s">
+        <v>91</v>
+      </c>
+      <c r="F225" t="s">
+        <v>91</v>
+      </c>
+      <c r="G225" t="s">
+        <v>13</v>
+      </c>
+      <c r="H225" t="s">
+        <v>13</v>
+      </c>
+      <c r="I225" t="s">
+        <v>13</v>
+      </c>
+      <c r="J225" t="s">
+        <v>13</v>
+      </c>
+      <c r="K225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>21</v>
+      </c>
+      <c r="B226" t="s">
+        <v>333</v>
+      </c>
+      <c r="C226" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" t="s">
+        <v>13</v>
+      </c>
+      <c r="E226" t="s">
+        <v>92</v>
+      </c>
+      <c r="F226" t="s">
+        <v>92</v>
+      </c>
+      <c r="G226" t="s">
+        <v>13</v>
+      </c>
+      <c r="H226" t="s">
+        <v>13</v>
+      </c>
+      <c r="I226" t="s">
+        <v>13</v>
+      </c>
+      <c r="J226" t="s">
+        <v>13</v>
+      </c>
+      <c r="K226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>21</v>
+      </c>
+      <c r="B227" t="s">
+        <v>333</v>
+      </c>
+      <c r="C227" t="s">
+        <v>13</v>
+      </c>
+      <c r="D227" t="s">
+        <v>13</v>
+      </c>
+      <c r="E227" t="s">
+        <v>93</v>
+      </c>
+      <c r="F227" t="s">
+        <v>93</v>
+      </c>
+      <c r="G227" t="s">
+        <v>13</v>
+      </c>
+      <c r="H227" t="s">
+        <v>13</v>
+      </c>
+      <c r="I227" t="s">
+        <v>13</v>
+      </c>
+      <c r="J227" t="s">
+        <v>13</v>
+      </c>
+      <c r="K227" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>21</v>
+      </c>
+      <c r="B228" t="s">
+        <v>333</v>
+      </c>
+      <c r="C228" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" t="s">
+        <v>13</v>
+      </c>
+      <c r="E228" t="s">
+        <v>94</v>
+      </c>
+      <c r="F228" t="s">
+        <v>94</v>
+      </c>
+      <c r="G228" t="s">
+        <v>13</v>
+      </c>
+      <c r="H228" t="s">
+        <v>13</v>
+      </c>
+      <c r="I228" t="s">
+        <v>13</v>
+      </c>
+      <c r="J228" t="s">
+        <v>13</v>
+      </c>
+      <c r="K228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>21</v>
+      </c>
+      <c r="B229" t="s">
+        <v>333</v>
+      </c>
+      <c r="C229" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229" t="s">
+        <v>13</v>
+      </c>
+      <c r="E229" t="s">
+        <v>95</v>
+      </c>
+      <c r="F229" t="s">
+        <v>95</v>
+      </c>
+      <c r="G229" t="s">
+        <v>13</v>
+      </c>
+      <c r="H229" t="s">
+        <v>13</v>
+      </c>
+      <c r="I229" t="s">
+        <v>13</v>
+      </c>
+      <c r="J229" t="s">
+        <v>13</v>
+      </c>
+      <c r="K229" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>21</v>
+      </c>
+      <c r="B230" t="s">
+        <v>333</v>
+      </c>
+      <c r="C230" t="s">
+        <v>13</v>
+      </c>
+      <c r="D230" t="s">
+        <v>13</v>
+      </c>
+      <c r="E230" t="s">
+        <v>96</v>
+      </c>
+      <c r="F230" t="s">
+        <v>96</v>
+      </c>
+      <c r="G230" t="s">
+        <v>13</v>
+      </c>
+      <c r="H230" t="s">
+        <v>13</v>
+      </c>
+      <c r="I230" t="s">
+        <v>13</v>
+      </c>
+      <c r="J230" t="s">
+        <v>13</v>
+      </c>
+      <c r="K230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>21</v>
+      </c>
+      <c r="B231" t="s">
+        <v>333</v>
+      </c>
+      <c r="C231" t="s">
+        <v>13</v>
+      </c>
+      <c r="D231" t="s">
+        <v>13</v>
+      </c>
+      <c r="E231" t="s">
+        <v>97</v>
+      </c>
+      <c r="F231" t="s">
+        <v>97</v>
+      </c>
+      <c r="G231" t="s">
+        <v>13</v>
+      </c>
+      <c r="H231" t="s">
+        <v>13</v>
+      </c>
+      <c r="I231" t="s">
+        <v>13</v>
+      </c>
+      <c r="J231" t="s">
+        <v>13</v>
+      </c>
+      <c r="K231" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>21</v>
+      </c>
+      <c r="B232" t="s">
+        <v>333</v>
+      </c>
+      <c r="C232" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" t="s">
+        <v>13</v>
+      </c>
+      <c r="E232" t="s">
+        <v>98</v>
+      </c>
+      <c r="F232" t="s">
+        <v>98</v>
+      </c>
+      <c r="G232" t="s">
+        <v>13</v>
+      </c>
+      <c r="H232" t="s">
+        <v>13</v>
+      </c>
+      <c r="I232" t="s">
+        <v>13</v>
+      </c>
+      <c r="J232" t="s">
+        <v>13</v>
+      </c>
+      <c r="K232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>21</v>
+      </c>
+      <c r="B233" t="s">
+        <v>333</v>
+      </c>
+      <c r="C233" t="s">
+        <v>13</v>
+      </c>
+      <c r="D233" t="s">
+        <v>13</v>
+      </c>
+      <c r="E233" t="s">
+        <v>99</v>
+      </c>
+      <c r="F233" t="s">
+        <v>99</v>
+      </c>
+      <c r="G233" t="s">
+        <v>13</v>
+      </c>
+      <c r="H233" t="s">
+        <v>13</v>
+      </c>
+      <c r="I233" t="s">
+        <v>13</v>
+      </c>
+      <c r="J233" t="s">
+        <v>13</v>
+      </c>
+      <c r="K233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>21</v>
+      </c>
+      <c r="B234" t="s">
+        <v>333</v>
+      </c>
+      <c r="C234" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" t="s">
+        <v>13</v>
+      </c>
+      <c r="E234" t="s">
+        <v>100</v>
+      </c>
+      <c r="F234" t="s">
+        <v>100</v>
+      </c>
+      <c r="G234" t="s">
+        <v>13</v>
+      </c>
+      <c r="H234" t="s">
+        <v>13</v>
+      </c>
+      <c r="I234" t="s">
+        <v>13</v>
+      </c>
+      <c r="J234" t="s">
+        <v>13</v>
+      </c>
+      <c r="K234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>21</v>
+      </c>
+      <c r="B235" t="s">
+        <v>333</v>
+      </c>
+      <c r="C235" t="s">
+        <v>13</v>
+      </c>
+      <c r="D235" t="s">
+        <v>13</v>
+      </c>
+      <c r="E235" t="s">
+        <v>101</v>
+      </c>
+      <c r="F235" t="s">
+        <v>101</v>
+      </c>
+      <c r="G235" t="s">
+        <v>13</v>
+      </c>
+      <c r="H235" t="s">
+        <v>13</v>
+      </c>
+      <c r="I235" t="s">
+        <v>13</v>
+      </c>
+      <c r="J235" t="s">
+        <v>13</v>
+      </c>
+      <c r="K235" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>21</v>
+      </c>
+      <c r="B236" t="s">
+        <v>333</v>
+      </c>
+      <c r="C236" t="s">
+        <v>13</v>
+      </c>
+      <c r="D236" t="s">
+        <v>13</v>
+      </c>
+      <c r="E236" t="s">
+        <v>102</v>
+      </c>
+      <c r="F236" t="s">
+        <v>102</v>
+      </c>
+      <c r="G236" t="s">
+        <v>13</v>
+      </c>
+      <c r="H236" t="s">
+        <v>13</v>
+      </c>
+      <c r="I236" t="s">
+        <v>13</v>
+      </c>
+      <c r="J236" t="s">
+        <v>13</v>
+      </c>
+      <c r="K236" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>21</v>
+      </c>
+      <c r="B237" t="s">
+        <v>333</v>
+      </c>
+      <c r="C237" t="s">
+        <v>334</v>
+      </c>
+      <c r="D237" t="s">
+        <v>13</v>
+      </c>
+      <c r="E237" t="s">
+        <v>22</v>
+      </c>
+      <c r="F237" t="s">
+        <v>22</v>
+      </c>
+      <c r="G237" t="s">
+        <v>13</v>
+      </c>
+      <c r="H237" t="s">
+        <v>13</v>
+      </c>
+      <c r="I237" t="s">
+        <v>13</v>
+      </c>
+      <c r="J237" t="s">
+        <v>13</v>
+      </c>
+      <c r="K237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>21</v>
+      </c>
+      <c r="B238" t="s">
+        <v>333</v>
+      </c>
+      <c r="C238" t="s">
+        <v>335</v>
+      </c>
+      <c r="D238" t="s">
+        <v>13</v>
+      </c>
+      <c r="E238" t="s">
+        <v>23</v>
+      </c>
+      <c r="F238" t="s">
+        <v>23</v>
+      </c>
+      <c r="G238" t="s">
+        <v>13</v>
+      </c>
+      <c r="H238" t="s">
+        <v>13</v>
+      </c>
+      <c r="I238" t="s">
+        <v>13</v>
+      </c>
+      <c r="J238" t="s">
+        <v>13</v>
+      </c>
+      <c r="K238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>21</v>
+      </c>
+      <c r="B239" t="s">
+        <v>333</v>
+      </c>
+      <c r="C239" t="s">
+        <v>336</v>
+      </c>
+      <c r="D239" t="s">
+        <v>13</v>
+      </c>
+      <c r="E239" t="s">
+        <v>24</v>
+      </c>
+      <c r="F239" t="s">
+        <v>24</v>
+      </c>
+      <c r="G239" t="s">
+        <v>13</v>
+      </c>
+      <c r="H239" t="s">
+        <v>13</v>
+      </c>
+      <c r="I239" t="s">
+        <v>13</v>
+      </c>
+      <c r="J239" t="s">
+        <v>13</v>
+      </c>
+      <c r="K239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>21</v>
+      </c>
+      <c r="B240" t="s">
+        <v>333</v>
+      </c>
+      <c r="C240" t="s">
+        <v>337</v>
+      </c>
+      <c r="D240" t="s">
+        <v>13</v>
+      </c>
+      <c r="E240" t="s">
+        <v>71</v>
+      </c>
+      <c r="F240" t="s">
+        <v>71</v>
+      </c>
+      <c r="G240" t="s">
+        <v>13</v>
+      </c>
+      <c r="H240" t="s">
+        <v>13</v>
+      </c>
+      <c r="I240" t="s">
+        <v>13</v>
+      </c>
+      <c r="J240" t="s">
+        <v>13</v>
+      </c>
+      <c r="K240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>21</v>
+      </c>
+      <c r="B241" t="s">
+        <v>333</v>
+      </c>
+      <c r="C241" t="s">
+        <v>338</v>
+      </c>
+      <c r="D241" t="s">
+        <v>13</v>
+      </c>
+      <c r="E241" t="s">
+        <v>72</v>
+      </c>
+      <c r="F241" t="s">
+        <v>72</v>
+      </c>
+      <c r="G241" t="s">
+        <v>13</v>
+      </c>
+      <c r="H241" t="s">
+        <v>13</v>
+      </c>
+      <c r="I241" t="s">
+        <v>13</v>
+      </c>
+      <c r="J241" t="s">
+        <v>13</v>
+      </c>
+      <c r="K241" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>21</v>
+      </c>
+      <c r="B242" t="s">
+        <v>333</v>
+      </c>
+      <c r="C242" t="s">
+        <v>334</v>
+      </c>
+      <c r="D242" t="s">
+        <v>13</v>
+      </c>
+      <c r="E242" t="s">
+        <v>73</v>
+      </c>
+      <c r="F242" t="s">
+        <v>73</v>
+      </c>
+      <c r="G242" t="s">
+        <v>13</v>
+      </c>
+      <c r="H242" t="s">
+        <v>13</v>
+      </c>
+      <c r="I242" t="s">
+        <v>13</v>
+      </c>
+      <c r="J242" t="s">
+        <v>13</v>
+      </c>
+      <c r="K242" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>21</v>
+      </c>
+      <c r="B243" t="s">
+        <v>333</v>
+      </c>
+      <c r="C243" t="s">
+        <v>339</v>
+      </c>
+      <c r="D243" t="s">
+        <v>13</v>
+      </c>
+      <c r="E243" t="s">
+        <v>74</v>
+      </c>
+      <c r="F243" t="s">
+        <v>74</v>
+      </c>
+      <c r="G243" t="s">
+        <v>13</v>
+      </c>
+      <c r="H243" t="s">
+        <v>13</v>
+      </c>
+      <c r="I243" t="s">
+        <v>13</v>
+      </c>
+      <c r="J243" t="s">
+        <v>13</v>
+      </c>
+      <c r="K243" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>21</v>
+      </c>
+      <c r="B244" t="s">
+        <v>333</v>
+      </c>
+      <c r="C244" t="s">
+        <v>336</v>
+      </c>
+      <c r="D244" t="s">
+        <v>13</v>
+      </c>
+      <c r="E244" t="s">
+        <v>75</v>
+      </c>
+      <c r="F244" t="s">
+        <v>75</v>
+      </c>
+      <c r="G244" t="s">
+        <v>13</v>
+      </c>
+      <c r="H244" t="s">
+        <v>13</v>
+      </c>
+      <c r="I244" t="s">
+        <v>13</v>
+      </c>
+      <c r="J244" t="s">
+        <v>13</v>
+      </c>
+      <c r="K244" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>21</v>
+      </c>
+      <c r="B245" t="s">
+        <v>333</v>
+      </c>
+      <c r="C245" t="s">
+        <v>340</v>
+      </c>
+      <c r="D245" t="s">
+        <v>13</v>
+      </c>
+      <c r="E245" t="s">
+        <v>76</v>
+      </c>
+      <c r="F245" t="s">
+        <v>76</v>
+      </c>
+      <c r="G245" t="s">
+        <v>13</v>
+      </c>
+      <c r="H245" t="s">
+        <v>13</v>
+      </c>
+      <c r="I245" t="s">
+        <v>13</v>
+      </c>
+      <c r="J245" t="s">
+        <v>13</v>
+      </c>
+      <c r="K245" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>21</v>
+      </c>
+      <c r="B246" t="s">
+        <v>333</v>
+      </c>
+      <c r="C246" t="s">
+        <v>341</v>
+      </c>
+      <c r="D246" t="s">
+        <v>13</v>
+      </c>
+      <c r="E246" t="s">
+        <v>77</v>
+      </c>
+      <c r="F246" t="s">
+        <v>77</v>
+      </c>
+      <c r="G246" t="s">
+        <v>13</v>
+      </c>
+      <c r="H246" t="s">
+        <v>13</v>
+      </c>
+      <c r="I246" t="s">
+        <v>13</v>
+      </c>
+      <c r="J246" t="s">
+        <v>13</v>
+      </c>
+      <c r="K246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>21</v>
+      </c>
+      <c r="B247" t="s">
+        <v>333</v>
+      </c>
+      <c r="C247" t="s">
+        <v>342</v>
+      </c>
+      <c r="D247" t="s">
+        <v>13</v>
+      </c>
+      <c r="E247" t="s">
+        <v>78</v>
+      </c>
+      <c r="F247" t="s">
+        <v>78</v>
+      </c>
+      <c r="G247" t="s">
+        <v>13</v>
+      </c>
+      <c r="H247" t="s">
+        <v>13</v>
+      </c>
+      <c r="I247" t="s">
+        <v>13</v>
+      </c>
+      <c r="J247" t="s">
+        <v>13</v>
+      </c>
+      <c r="K247" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>21</v>
+      </c>
+      <c r="B248" t="s">
+        <v>333</v>
+      </c>
+      <c r="C248" t="s">
+        <v>343</v>
+      </c>
+      <c r="D248" t="s">
+        <v>13</v>
+      </c>
+      <c r="E248" t="s">
+        <v>79</v>
+      </c>
+      <c r="F248" t="s">
+        <v>79</v>
+      </c>
+      <c r="G248" t="s">
+        <v>13</v>
+      </c>
+      <c r="H248" t="s">
+        <v>13</v>
+      </c>
+      <c r="I248" t="s">
+        <v>13</v>
+      </c>
+      <c r="J248" t="s">
+        <v>13</v>
+      </c>
+      <c r="K248" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>21</v>
+      </c>
+      <c r="B249" t="s">
+        <v>333</v>
+      </c>
+      <c r="C249" t="s">
+        <v>344</v>
+      </c>
+      <c r="D249" t="s">
+        <v>13</v>
+      </c>
+      <c r="E249" t="s">
+        <v>80</v>
+      </c>
+      <c r="F249" t="s">
+        <v>80</v>
+      </c>
+      <c r="G249" t="s">
+        <v>13</v>
+      </c>
+      <c r="H249" t="s">
+        <v>13</v>
+      </c>
+      <c r="I249" t="s">
+        <v>13</v>
+      </c>
+      <c r="J249" t="s">
+        <v>13</v>
+      </c>
+      <c r="K249" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>21</v>
+      </c>
+      <c r="B250" t="s">
+        <v>333</v>
+      </c>
+      <c r="C250" t="s">
+        <v>345</v>
+      </c>
+      <c r="D250" t="s">
+        <v>13</v>
+      </c>
+      <c r="E250" t="s">
+        <v>81</v>
+      </c>
+      <c r="F250" t="s">
+        <v>81</v>
+      </c>
+      <c r="G250" t="s">
+        <v>13</v>
+      </c>
+      <c r="H250" t="s">
+        <v>13</v>
+      </c>
+      <c r="I250" t="s">
+        <v>13</v>
+      </c>
+      <c r="J250" t="s">
+        <v>13</v>
+      </c>
+      <c r="K250" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>21</v>
+      </c>
+      <c r="B251" t="s">
+        <v>333</v>
+      </c>
+      <c r="C251" t="s">
+        <v>346</v>
+      </c>
+      <c r="D251" t="s">
+        <v>13</v>
+      </c>
+      <c r="E251" t="s">
+        <v>82</v>
+      </c>
+      <c r="F251" t="s">
+        <v>82</v>
+      </c>
+      <c r="G251" t="s">
+        <v>13</v>
+      </c>
+      <c r="H251" t="s">
+        <v>13</v>
+      </c>
+      <c r="I251" t="s">
+        <v>13</v>
+      </c>
+      <c r="J251" t="s">
+        <v>13</v>
+      </c>
+      <c r="K251" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>21</v>
+      </c>
+      <c r="B252" t="s">
+        <v>333</v>
+      </c>
+      <c r="C252" t="s">
+        <v>347</v>
+      </c>
+      <c r="D252" t="s">
+        <v>13</v>
+      </c>
+      <c r="E252" t="s">
+        <v>83</v>
+      </c>
+      <c r="F252" t="s">
+        <v>83</v>
+      </c>
+      <c r="G252" t="s">
+        <v>13</v>
+      </c>
+      <c r="H252" t="s">
+        <v>13</v>
+      </c>
+      <c r="I252" t="s">
+        <v>13</v>
+      </c>
+      <c r="J252" t="s">
+        <v>13</v>
+      </c>
+      <c r="K252" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>21</v>
+      </c>
+      <c r="B253" t="s">
+        <v>333</v>
+      </c>
+      <c r="C253" t="s">
+        <v>348</v>
+      </c>
+      <c r="D253" t="s">
+        <v>13</v>
+      </c>
+      <c r="E253" t="s">
+        <v>84</v>
+      </c>
+      <c r="F253" t="s">
+        <v>84</v>
+      </c>
+      <c r="G253" t="s">
+        <v>13</v>
+      </c>
+      <c r="H253" t="s">
+        <v>13</v>
+      </c>
+      <c r="I253" t="s">
+        <v>13</v>
+      </c>
+      <c r="J253" t="s">
+        <v>13</v>
+      </c>
+      <c r="K253" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>21</v>
+      </c>
+      <c r="B254" t="s">
+        <v>333</v>
+      </c>
+      <c r="C254" t="s">
+        <v>349</v>
+      </c>
+      <c r="D254" t="s">
+        <v>13</v>
+      </c>
+      <c r="E254" t="s">
+        <v>85</v>
+      </c>
+      <c r="F254" t="s">
+        <v>85</v>
+      </c>
+      <c r="G254" t="s">
+        <v>13</v>
+      </c>
+      <c r="H254" t="s">
+        <v>13</v>
+      </c>
+      <c r="I254" t="s">
+        <v>13</v>
+      </c>
+      <c r="J254" t="s">
+        <v>13</v>
+      </c>
+      <c r="K254" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>21</v>
+      </c>
+      <c r="B255" t="s">
+        <v>333</v>
+      </c>
+      <c r="C255" t="s">
+        <v>350</v>
+      </c>
+      <c r="D255" t="s">
+        <v>13</v>
+      </c>
+      <c r="E255" t="s">
+        <v>86</v>
+      </c>
+      <c r="F255" t="s">
+        <v>86</v>
+      </c>
+      <c r="G255" t="s">
+        <v>13</v>
+      </c>
+      <c r="H255" t="s">
+        <v>13</v>
+      </c>
+      <c r="I255" t="s">
+        <v>13</v>
+      </c>
+      <c r="J255" t="s">
+        <v>13</v>
+      </c>
+      <c r="K255" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>21</v>
+      </c>
+      <c r="B256" t="s">
+        <v>333</v>
+      </c>
+      <c r="C256" t="s">
+        <v>351</v>
+      </c>
+      <c r="D256" t="s">
+        <v>13</v>
+      </c>
+      <c r="E256" t="s">
+        <v>87</v>
+      </c>
+      <c r="F256" t="s">
+        <v>87</v>
+      </c>
+      <c r="G256" t="s">
+        <v>13</v>
+      </c>
+      <c r="H256" t="s">
+        <v>13</v>
+      </c>
+      <c r="I256" t="s">
+        <v>13</v>
+      </c>
+      <c r="J256" t="s">
+        <v>13</v>
+      </c>
+      <c r="K256" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>21</v>
+      </c>
+      <c r="B257" t="s">
+        <v>333</v>
+      </c>
+      <c r="C257" t="s">
+        <v>352</v>
+      </c>
+      <c r="D257" t="s">
+        <v>13</v>
+      </c>
+      <c r="E257" t="s">
+        <v>88</v>
+      </c>
+      <c r="F257" t="s">
+        <v>88</v>
+      </c>
+      <c r="G257" t="s">
+        <v>13</v>
+      </c>
+      <c r="H257" t="s">
+        <v>13</v>
+      </c>
+      <c r="I257" t="s">
+        <v>13</v>
+      </c>
+      <c r="J257" t="s">
+        <v>13</v>
+      </c>
+      <c r="K257" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>21</v>
+      </c>
+      <c r="B258" t="s">
+        <v>333</v>
+      </c>
+      <c r="C258" t="s">
+        <v>351</v>
+      </c>
+      <c r="D258" t="s">
+        <v>13</v>
+      </c>
+      <c r="E258" t="s">
+        <v>89</v>
+      </c>
+      <c r="F258" t="s">
+        <v>89</v>
+      </c>
+      <c r="G258" t="s">
+        <v>13</v>
+      </c>
+      <c r="H258" t="s">
+        <v>13</v>
+      </c>
+      <c r="I258" t="s">
+        <v>13</v>
+      </c>
+      <c r="J258" t="s">
+        <v>13</v>
+      </c>
+      <c r="K258" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>21</v>
+      </c>
+      <c r="B259" t="s">
+        <v>333</v>
+      </c>
+      <c r="C259" t="s">
+        <v>351</v>
+      </c>
+      <c r="D259" t="s">
+        <v>13</v>
+      </c>
+      <c r="E259" t="s">
+        <v>90</v>
+      </c>
+      <c r="F259" t="s">
+        <v>90</v>
+      </c>
+      <c r="G259" t="s">
+        <v>13</v>
+      </c>
+      <c r="H259" t="s">
+        <v>13</v>
+      </c>
+      <c r="I259" t="s">
+        <v>13</v>
+      </c>
+      <c r="J259" t="s">
+        <v>13</v>
+      </c>
+      <c r="K259" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>21</v>
+      </c>
+      <c r="B260" t="s">
+        <v>333</v>
+      </c>
+      <c r="C260" t="s">
+        <v>353</v>
+      </c>
+      <c r="D260" t="s">
+        <v>13</v>
+      </c>
+      <c r="E260" t="s">
+        <v>91</v>
+      </c>
+      <c r="F260" t="s">
+        <v>91</v>
+      </c>
+      <c r="G260" t="s">
+        <v>13</v>
+      </c>
+      <c r="H260" t="s">
+        <v>13</v>
+      </c>
+      <c r="I260" t="s">
+        <v>13</v>
+      </c>
+      <c r="J260" t="s">
+        <v>13</v>
+      </c>
+      <c r="K260" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>21</v>
+      </c>
+      <c r="B261" t="s">
+        <v>333</v>
+      </c>
+      <c r="C261" t="s">
+        <v>354</v>
+      </c>
+      <c r="D261" t="s">
+        <v>13</v>
+      </c>
+      <c r="E261" t="s">
+        <v>92</v>
+      </c>
+      <c r="F261" t="s">
+        <v>92</v>
+      </c>
+      <c r="G261" t="s">
+        <v>13</v>
+      </c>
+      <c r="H261" t="s">
+        <v>13</v>
+      </c>
+      <c r="I261" t="s">
+        <v>13</v>
+      </c>
+      <c r="J261" t="s">
+        <v>13</v>
+      </c>
+      <c r="K261" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>21</v>
+      </c>
+      <c r="B262" t="s">
+        <v>333</v>
+      </c>
+      <c r="C262" t="s">
+        <v>355</v>
+      </c>
+      <c r="D262" t="s">
+        <v>13</v>
+      </c>
+      <c r="E262" t="s">
+        <v>93</v>
+      </c>
+      <c r="F262" t="s">
+        <v>93</v>
+      </c>
+      <c r="G262" t="s">
+        <v>13</v>
+      </c>
+      <c r="H262" t="s">
+        <v>13</v>
+      </c>
+      <c r="I262" t="s">
+        <v>13</v>
+      </c>
+      <c r="J262" t="s">
+        <v>13</v>
+      </c>
+      <c r="K262" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>21</v>
+      </c>
+      <c r="B263" t="s">
+        <v>333</v>
+      </c>
+      <c r="C263" t="s">
+        <v>356</v>
+      </c>
+      <c r="D263" t="s">
+        <v>13</v>
+      </c>
+      <c r="E263" t="s">
+        <v>94</v>
+      </c>
+      <c r="F263" t="s">
+        <v>94</v>
+      </c>
+      <c r="G263" t="s">
+        <v>13</v>
+      </c>
+      <c r="H263" t="s">
+        <v>13</v>
+      </c>
+      <c r="I263" t="s">
+        <v>13</v>
+      </c>
+      <c r="J263" t="s">
+        <v>13</v>
+      </c>
+      <c r="K263" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>21</v>
+      </c>
+      <c r="B264" t="s">
+        <v>333</v>
+      </c>
+      <c r="C264" t="s">
+        <v>357</v>
+      </c>
+      <c r="D264" t="s">
+        <v>13</v>
+      </c>
+      <c r="E264" t="s">
+        <v>95</v>
+      </c>
+      <c r="F264" t="s">
+        <v>95</v>
+      </c>
+      <c r="G264" t="s">
+        <v>13</v>
+      </c>
+      <c r="H264" t="s">
+        <v>13</v>
+      </c>
+      <c r="I264" t="s">
+        <v>13</v>
+      </c>
+      <c r="J264" t="s">
+        <v>13</v>
+      </c>
+      <c r="K264" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>21</v>
+      </c>
+      <c r="B265" t="s">
+        <v>333</v>
+      </c>
+      <c r="C265" t="s">
+        <v>358</v>
+      </c>
+      <c r="D265" t="s">
+        <v>13</v>
+      </c>
+      <c r="E265" t="s">
+        <v>96</v>
+      </c>
+      <c r="F265" t="s">
+        <v>96</v>
+      </c>
+      <c r="G265" t="s">
+        <v>13</v>
+      </c>
+      <c r="H265" t="s">
+        <v>13</v>
+      </c>
+      <c r="I265" t="s">
+        <v>13</v>
+      </c>
+      <c r="J265" t="s">
+        <v>13</v>
+      </c>
+      <c r="K265" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>21</v>
+      </c>
+      <c r="B266" t="s">
+        <v>333</v>
+      </c>
+      <c r="C266" t="s">
+        <v>359</v>
+      </c>
+      <c r="D266" t="s">
+        <v>13</v>
+      </c>
+      <c r="E266" t="s">
+        <v>97</v>
+      </c>
+      <c r="F266" t="s">
+        <v>97</v>
+      </c>
+      <c r="G266" t="s">
+        <v>13</v>
+      </c>
+      <c r="H266" t="s">
+        <v>13</v>
+      </c>
+      <c r="I266" t="s">
+        <v>13</v>
+      </c>
+      <c r="J266" t="s">
+        <v>13</v>
+      </c>
+      <c r="K266" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>21</v>
+      </c>
+      <c r="B267" t="s">
+        <v>333</v>
+      </c>
+      <c r="C267" t="s">
+        <v>360</v>
+      </c>
+      <c r="D267" t="s">
+        <v>13</v>
+      </c>
+      <c r="E267" t="s">
+        <v>98</v>
+      </c>
+      <c r="F267" t="s">
+        <v>98</v>
+      </c>
+      <c r="G267" t="s">
+        <v>13</v>
+      </c>
+      <c r="H267" t="s">
+        <v>13</v>
+      </c>
+      <c r="I267" t="s">
+        <v>13</v>
+      </c>
+      <c r="J267" t="s">
+        <v>13</v>
+      </c>
+      <c r="K267" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>21</v>
+      </c>
+      <c r="B268" t="s">
+        <v>333</v>
+      </c>
+      <c r="C268" t="s">
+        <v>361</v>
+      </c>
+      <c r="D268" t="s">
+        <v>13</v>
+      </c>
+      <c r="E268" t="s">
+        <v>99</v>
+      </c>
+      <c r="F268" t="s">
+        <v>99</v>
+      </c>
+      <c r="G268" t="s">
+        <v>13</v>
+      </c>
+      <c r="H268" t="s">
+        <v>13</v>
+      </c>
+      <c r="I268" t="s">
+        <v>13</v>
+      </c>
+      <c r="J268" t="s">
+        <v>13</v>
+      </c>
+      <c r="K268" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>21</v>
+      </c>
+      <c r="B269" t="s">
+        <v>333</v>
+      </c>
+      <c r="C269" t="s">
+        <v>338</v>
+      </c>
+      <c r="D269" t="s">
+        <v>13</v>
+      </c>
+      <c r="E269" t="s">
+        <v>100</v>
+      </c>
+      <c r="F269" t="s">
+        <v>100</v>
+      </c>
+      <c r="G269" t="s">
+        <v>13</v>
+      </c>
+      <c r="H269" t="s">
+        <v>13</v>
+      </c>
+      <c r="I269" t="s">
+        <v>13</v>
+      </c>
+      <c r="J269" t="s">
+        <v>13</v>
+      </c>
+      <c r="K269" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>21</v>
+      </c>
+      <c r="B270" t="s">
+        <v>333</v>
+      </c>
+      <c r="C270" t="s">
+        <v>362</v>
+      </c>
+      <c r="D270" t="s">
+        <v>13</v>
+      </c>
+      <c r="E270" t="s">
+        <v>102</v>
+      </c>
+      <c r="F270" t="s">
+        <v>102</v>
+      </c>
+      <c r="G270" t="s">
+        <v>13</v>
+      </c>
+      <c r="H270" t="s">
+        <v>13</v>
+      </c>
+      <c r="I270" t="s">
+        <v>13</v>
+      </c>
+      <c r="J270" t="s">
+        <v>13</v>
+      </c>
+      <c r="K270" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>21</v>
+      </c>
+      <c r="B271" t="s">
+        <v>333</v>
+      </c>
+      <c r="C271" t="s">
+        <v>362</v>
+      </c>
+      <c r="D271" t="s">
+        <v>13</v>
+      </c>
+      <c r="E271" t="s">
+        <v>101</v>
+      </c>
+      <c r="F271" t="s">
+        <v>101</v>
+      </c>
+      <c r="G271" t="s">
+        <v>13</v>
+      </c>
+      <c r="H271" t="s">
+        <v>13</v>
+      </c>
+      <c r="I271" t="s">
+        <v>13</v>
+      </c>
+      <c r="J271" t="s">
+        <v>13</v>
+      </c>
+      <c r="K271" t="s">
         <v>13</v>
       </c>
     </row>
